--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71E3886-F53D-4495-A868-1EAFD1BBA4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD15EDB-198C-4E0B-9031-0216572112D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
+    <workbookView xWindow="29775" yWindow="1305" windowWidth="18930" windowHeight="14235" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF40A98-2910-49B0-BB76-BAF76F0B7575}">
   <dimension ref="A1:C4922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4818" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4837" sqref="A4837:K4929"/>
+    <sheetView tabSelected="1" topLeftCell="A1198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1204" sqref="C1204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14476,7 +14476,7 @@
         <v>27</v>
       </c>
       <c r="C1204" s="2">
-        <v>6876</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F9F3CD-99EC-4D13-96B5-1829D4F6CFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0E6C0-3FA8-4292-8C70-88A05DF99F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9682" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9683" uniqueCount="142">
   <si>
     <t>LED SOLAR FLOODLIGHT</t>
   </si>
@@ -449,12 +449,15 @@
   <si>
     <t>LUCES LED DE MESA Y DE PIE</t>
   </si>
+  <si>
+    <t>ICONOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,8 +487,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +801,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -820,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -890,6 +905,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF40A98-2910-49B0-BB76-BAF76F0B7575}">
-  <dimension ref="A1:C4922"/>
+  <dimension ref="A1:D4922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1467" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1486" sqref="C1486"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,10 +1247,10 @@
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>115</v>
       </c>
@@ -1242,8 +1260,11 @@
       <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1254,7 +1275,7 @@
         <v>7822</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -1265,7 +1286,7 @@
         <v>7821</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -1276,7 +1297,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>124</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>7823</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
@@ -1298,7 +1319,7 @@
         <v>7826</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -1309,7 +1330,7 @@
         <v>7825</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -1320,7 +1341,7 @@
         <v>7828</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
@@ -1331,7 +1352,7 @@
         <v>7827</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>124</v>
       </c>
@@ -1342,7 +1363,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>124</v>
       </c>
@@ -1353,7 +1374,7 @@
         <v>7829</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>124</v>
       </c>
@@ -1364,7 +1385,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>124</v>
       </c>
@@ -1375,7 +1396,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
@@ -1386,7 +1407,7 @@
         <v>7842</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -1397,7 +1418,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>124</v>
       </c>
@@ -54859,6 +54880,7 @@
       <c r="C4922" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402F686-50C4-42F9-BC03-8E95264C931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00024590-4873-489F-9707-61F3427B6B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="22590" windowHeight="12840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9682" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9681" uniqueCount="140">
   <si>
     <t>LED SOLAR FLOODLIGHT</t>
   </si>
@@ -446,9 +446,6 @@
   <si>
     <t>LUCES LED DE MESA Y DE PIE</t>
   </si>
-  <si>
-    <t>ICONOS</t>
-  </si>
 </sst>
 </file>
 
@@ -491,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="53">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,12 +795,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -832,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -902,9 +893,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF40A98-2910-49B0-BB76-BAF76F0B7575}">
-  <dimension ref="A1:D4922"/>
+  <dimension ref="A1:C4922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2593" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2621" sqref="C2621"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,10 +1232,10 @@
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>114</v>
       </c>
@@ -1257,11 +1245,8 @@
       <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
@@ -1272,7 +1257,7 @@
         <v>7822</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -1283,7 +1268,7 @@
         <v>7821</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -1294,7 +1279,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -1305,7 +1290,7 @@
         <v>7823</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -1316,7 +1301,7 @@
         <v>7826</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -1327,7 +1312,7 @@
         <v>7825</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
@@ -1338,7 +1323,7 @@
         <v>7828</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>123</v>
       </c>
@@ -1349,7 +1334,7 @@
         <v>7827</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -1360,7 +1345,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -1371,7 +1356,7 @@
         <v>7829</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -1382,7 +1367,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
@@ -1393,7 +1378,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -1404,7 +1389,7 @@
         <v>7842</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>123</v>
       </c>
@@ -1415,7 +1400,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>123</v>
       </c>

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00024590-4873-489F-9707-61F3427B6B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365F99FC-97E8-4DE0-886D-C2A00AB7B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
+    <workbookView xWindow="4995" yWindow="2085" windowWidth="22140" windowHeight="11925" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9681" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9682" uniqueCount="141">
   <si>
     <t>LED SOLAR FLOODLIGHT</t>
   </si>
@@ -446,6 +446,9 @@
   <si>
     <t>LUCES LED DE MESA Y DE PIE</t>
   </si>
+  <si>
+    <t>ICONS</t>
+  </si>
 </sst>
 </file>
 
@@ -823,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -893,6 +896,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF40A98-2910-49B0-BB76-BAF76F0B7575}">
-  <dimension ref="A1:C4922"/>
+  <dimension ref="A1:D4922"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1241,7 @@
     <col min="5" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>114</v>
       </c>
@@ -1245,8 +1251,11 @@
       <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>7822</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>7821</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>7823</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>7826</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>7825</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
@@ -1323,7 +1332,7 @@
         <v>7828</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>123</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>7827</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>7829</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>7842</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>123</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>123</v>
       </c>

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12564" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12687" uniqueCount="449">
   <si>
     <t xml:space="preserve">CATEGORY ES</t>
   </si>
@@ -1063,25 +1063,7 @@
     <t xml:space="preserve">ip67,rgb1,batteryrechargeable</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">rgb1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">batteryrechargeable</t>
-    </r>
+    <t xml:space="preserve">rgb1,batteryrechargeable</t>
   </si>
   <si>
     <t xml:space="preserve">LUCES LED DE MESA Y DE PIE</t>
@@ -1105,10 +1087,28 @@
     <t xml:space="preserve">touchdim,updown2</t>
   </si>
   <si>
+    <t xml:space="preserve">knob,updown2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastcharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touchdim,batteryrechargeable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height,adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batteryrechargeable,adapter</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAMPARAS LED DE TECHO</t>
   </si>
   <si>
     <t xml:space="preserve">DECORATIVE PENDANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip65,euplug</t>
   </si>
   <si>
     <t xml:space="preserve">PANTALLAS LED</t>
@@ -1117,10 +1117,16 @@
     <t xml:space="preserve">LED DISPLAY SCREEN</t>
   </si>
   <si>
+    <t xml:space="preserve">w10,dualdisplay</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAMARAS SMART</t>
   </si>
   <si>
     <t xml:space="preserve">SMART CAMERAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip65,4g</t>
   </si>
   <si>
     <t xml:space="preserve">APARATOS SMART</t>
@@ -1129,16 +1135,97 @@
     <t xml:space="preserve">SMART SWITCHES</t>
   </si>
   <si>
+    <t xml:space="preserve">alexa,okgoogle</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENCHUFES Y ADAPTADORES</t>
   </si>
   <si>
     <t xml:space="preserve">SOCKETS AND ADAPTERS</t>
   </si>
   <si>
+    <t xml:space="preserve">pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">universal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastcharge3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2usbport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5wire,lightedswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5wire,2usbport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5wire,2usbport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5wire,lightedswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4wire,lightedswitch,2usbport,surge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4wire,lightedswitch,2usbport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3wire,lightedswitch,2usbport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4wire,lightedswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightedswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3wire,lightedswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4way</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRIDAS</t>
   </si>
   <si>
     <t xml:space="preserve">CABLE TIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uv</t>
   </si>
   <si>
     <t xml:space="preserve">VENTILADORES DECORATIVOS DE TECHO</t>
@@ -1153,6 +1240,9 @@
     <t xml:space="preserve">STAND/DESK FANS</t>
   </si>
   <si>
+    <t xml:space="preserve">oscillation</t>
+  </si>
+  <si>
     <t xml:space="preserve">VENTILADORES DECORATIVOS</t>
   </si>
   <si>
@@ -1165,10 +1255,31 @@
     <t xml:space="preserve">TOWER FANS</t>
   </si>
   <si>
+    <t xml:space="preserve">3wind</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALTAVOCES Y AURICULARES</t>
   </si>
   <si>
     <t xml:space="preserve">WIRELESS SPEAKERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soundor8,tws,1000wpmpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soundor8,tws,600wpmpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soundor5,tws,150wpmpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soundor6,400wpmpo,tws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soundor12,500wpmpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soundor15,600wpmpo</t>
   </si>
   <si>
     <t xml:space="preserve">BATERIAS EXTERNAS</t>
@@ -1265,7 +1376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,12 +1412,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1666,7 +1771,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1851,10 +1956,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="40" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1903,7 +2004,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2092,8 +2193,8 @@
   </sheetPr>
   <dimension ref="A1:D4845"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4250" activeCellId="0" sqref="D4250"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4602" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4616" activeCellId="0" sqref="D4616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48846,7 +48947,6 @@
       <c r="C3562" s="6" t="n">
         <v>218202</v>
       </c>
-      <c r="D3562" s="0"/>
     </row>
     <row r="3563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3563" s="41" t="s">
@@ -50506,7 +50606,6 @@
       <c r="C3697" s="6" t="n">
         <v>23162</v>
       </c>
-      <c r="D3697" s="0"/>
     </row>
     <row r="3698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3698" s="43" t="s">
@@ -57139,7 +57238,7 @@
       <c r="C4226" s="6" t="n">
         <v>23091</v>
       </c>
-      <c r="D4226" s="46" t="s">
+      <c r="D4226" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -57153,7 +57252,7 @@
       <c r="C4227" s="6" t="n">
         <v>23090</v>
       </c>
-      <c r="D4227" s="46" t="s">
+      <c r="D4227" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -57462,6 +57561,9 @@
       <c r="C4251" s="6" t="n">
         <v>8523</v>
       </c>
+      <c r="D4251" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="4252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4252" s="18" t="s">
@@ -57473,6 +57575,9 @@
       <c r="C4252" s="6" t="n">
         <v>8524</v>
       </c>
+      <c r="D4252" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="4253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4253" s="18" t="s">
@@ -57484,6 +57589,9 @@
       <c r="C4253" s="6" t="n">
         <v>8525</v>
       </c>
+      <c r="D4253" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="4254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4254" s="18" t="s">
@@ -57495,6 +57603,9 @@
       <c r="C4254" s="6" t="n">
         <v>8526</v>
       </c>
+      <c r="D4254" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="4255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4255" s="18" t="s">
@@ -57506,6 +57617,9 @@
       <c r="C4255" s="6" t="n">
         <v>218604</v>
       </c>
+      <c r="D4255" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="4256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4256" s="18" t="s">
@@ -57517,6 +57631,9 @@
       <c r="C4256" s="6" t="n">
         <v>8605</v>
       </c>
+      <c r="D4256" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="4257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4257" s="18" t="s">
@@ -57528,6 +57645,9 @@
       <c r="C4257" s="6" t="n">
         <v>218605</v>
       </c>
+      <c r="D4257" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="4258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4258" s="18" t="s">
@@ -57539,6 +57659,9 @@
       <c r="C4258" s="6" t="n">
         <v>218602</v>
       </c>
+      <c r="D4258" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="4259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4259" s="18" t="s">
@@ -57550,6 +57673,9 @@
       <c r="C4259" s="6" t="n">
         <v>218603</v>
       </c>
+      <c r="D4259" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="4260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4260" s="18" t="s">
@@ -57561,6 +57687,9 @@
       <c r="C4260" s="6" t="n">
         <v>218600</v>
       </c>
+      <c r="D4260" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="4261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4261" s="18" t="s">
@@ -57572,6 +57701,9 @@
       <c r="C4261" s="6" t="n">
         <v>8601</v>
       </c>
+      <c r="D4261" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="4262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4262" s="18" t="s">
@@ -57583,6 +57715,9 @@
       <c r="C4262" s="6" t="n">
         <v>218601</v>
       </c>
+      <c r="D4262" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="4263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4263" s="18" t="s">
@@ -57594,6 +57729,9 @@
       <c r="C4263" s="6" t="n">
         <v>8519</v>
       </c>
+      <c r="D4263" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="4264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4264" s="18" t="s">
@@ -57605,6 +57743,9 @@
       <c r="C4264" s="6" t="n">
         <v>218519</v>
       </c>
+      <c r="D4264" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="4265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4265" s="18" t="s">
@@ -57638,6 +57779,9 @@
       <c r="C4267" s="6" t="n">
         <v>8520</v>
       </c>
+      <c r="D4267" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="4268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4268" s="18" t="s">
@@ -57649,6 +57793,9 @@
       <c r="C4268" s="6" t="n">
         <v>7098</v>
       </c>
+      <c r="D4268" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="4269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4269" s="18" t="s">
@@ -57660,6 +57807,9 @@
       <c r="C4269" s="6" t="n">
         <v>7099</v>
       </c>
+      <c r="D4269" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="4270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4270" s="18" t="s">
@@ -57671,6 +57821,9 @@
       <c r="C4270" s="6" t="n">
         <v>8500</v>
       </c>
+      <c r="D4270" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="4271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4271" s="18" t="s">
@@ -57682,6 +57835,9 @@
       <c r="C4271" s="6" t="n">
         <v>8672</v>
       </c>
+      <c r="D4271" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="4272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4272" s="18" t="s">
@@ -57693,6 +57849,9 @@
       <c r="C4272" s="6" t="n">
         <v>8671</v>
       </c>
+      <c r="D4272" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="4273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4273" s="18" t="s">
@@ -57737,6 +57896,9 @@
       <c r="C4276" s="6" t="n">
         <v>8931</v>
       </c>
+      <c r="D4276" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="4277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4277" s="18" t="s">
@@ -57748,6 +57910,9 @@
       <c r="C4277" s="6" t="n">
         <v>8670</v>
       </c>
+      <c r="D4277" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="4278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4278" s="18" t="s">
@@ -57882,2035 +58047,2071 @@
       </c>
     </row>
     <row r="4290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4290" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4290" s="47" t="s">
-        <v>356</v>
+      <c r="A4290" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4290" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4290" s="6" t="n">
         <v>8974</v>
       </c>
+      <c r="D4290" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="4291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4291" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4291" s="47" t="s">
-        <v>356</v>
+      <c r="A4291" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4291" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4291" s="6" t="n">
         <v>8975</v>
       </c>
+      <c r="D4291" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="4292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4292" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4292" s="47" t="s">
-        <v>356</v>
+      <c r="A4292" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4292" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4292" s="6" t="n">
         <v>8971</v>
       </c>
+      <c r="D4292" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="4293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4293" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4293" s="47" t="s">
-        <v>356</v>
+      <c r="A4293" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4293" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4293" s="6" t="n">
         <v>8970</v>
       </c>
+      <c r="D4293" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4294" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4294" s="47" t="s">
-        <v>356</v>
+      <c r="A4294" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4294" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4294" s="6" t="n">
         <v>8972</v>
       </c>
+      <c r="D4294" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4295" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4295" s="47" t="s">
-        <v>356</v>
+      <c r="A4295" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4295" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4295" s="6" t="n">
         <v>8973</v>
       </c>
+      <c r="D4295" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4296" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4296" s="47" t="s">
-        <v>356</v>
+      <c r="A4296" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4296" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4296" s="6" t="n">
         <v>40561</v>
       </c>
     </row>
     <row r="4297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4297" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4297" s="47" t="s">
-        <v>356</v>
+      <c r="A4297" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4297" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4297" s="6" t="n">
         <v>40511</v>
       </c>
     </row>
     <row r="4298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4298" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4298" s="47" t="s">
-        <v>356</v>
+      <c r="A4298" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4298" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4298" s="6" t="n">
         <v>40571</v>
       </c>
     </row>
     <row r="4299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4299" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4299" s="47" t="s">
-        <v>356</v>
+      <c r="A4299" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4299" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4299" s="6" t="n">
         <v>40521</v>
       </c>
     </row>
     <row r="4300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4300" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4300" s="47" t="s">
-        <v>356</v>
+      <c r="A4300" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4300" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4300" s="6" t="n">
         <v>40501</v>
       </c>
     </row>
     <row r="4301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4301" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4301" s="47" t="s">
-        <v>356</v>
+      <c r="A4301" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4301" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4301" s="6" t="n">
         <v>40531</v>
       </c>
     </row>
     <row r="4302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4302" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4302" s="47" t="s">
-        <v>356</v>
+      <c r="A4302" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4302" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4302" s="6" t="n">
         <v>40541</v>
       </c>
     </row>
     <row r="4303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4303" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4303" s="47" t="s">
-        <v>356</v>
+      <c r="A4303" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4303" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4303" s="6" t="n">
         <v>3880</v>
       </c>
     </row>
     <row r="4304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4304" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4304" s="47" t="s">
-        <v>356</v>
+      <c r="A4304" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4304" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4304" s="6" t="n">
         <v>40551</v>
       </c>
     </row>
     <row r="4305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4305" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4305" s="47" t="s">
-        <v>356</v>
+      <c r="A4305" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4305" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4305" s="6" t="n">
         <v>3882</v>
       </c>
     </row>
     <row r="4306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4306" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4306" s="47" t="s">
-        <v>356</v>
+      <c r="A4306" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4306" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4306" s="6" t="n">
         <v>3879</v>
       </c>
     </row>
     <row r="4307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4307" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4307" s="47" t="s">
-        <v>356</v>
+      <c r="A4307" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4307" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4307" s="6" t="n">
         <v>3881</v>
       </c>
     </row>
     <row r="4308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4308" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4308" s="47" t="s">
-        <v>356</v>
+      <c r="A4308" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4308" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4308" s="6" t="n">
         <v>3887</v>
       </c>
     </row>
     <row r="4309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4309" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4309" s="47" t="s">
-        <v>356</v>
+      <c r="A4309" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4309" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4309" s="6" t="n">
         <v>3867</v>
       </c>
     </row>
     <row r="4310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4310" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4310" s="47" t="s">
-        <v>356</v>
+      <c r="A4310" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4310" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4310" s="6" t="n">
         <v>3888</v>
       </c>
     </row>
     <row r="4311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4311" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4311" s="47" t="s">
-        <v>356</v>
+      <c r="A4311" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4311" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4311" s="6" t="n">
         <v>3878</v>
       </c>
     </row>
     <row r="4312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4312" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4312" s="47" t="s">
-        <v>356</v>
+      <c r="A4312" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4312" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4312" s="6" t="n">
         <v>3865</v>
       </c>
     </row>
     <row r="4313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4313" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4313" s="47" t="s">
-        <v>356</v>
+      <c r="A4313" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4313" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4313" s="6" t="n">
         <v>3876</v>
       </c>
     </row>
     <row r="4314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4314" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4314" s="47" t="s">
-        <v>356</v>
+      <c r="A4314" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4314" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4314" s="6" t="n">
         <v>3884</v>
       </c>
     </row>
     <row r="4315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4315" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4315" s="47" t="s">
-        <v>356</v>
+      <c r="A4315" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4315" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4315" s="6" t="n">
         <v>3736</v>
       </c>
     </row>
     <row r="4316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4316" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4316" s="47" t="s">
-        <v>356</v>
+      <c r="A4316" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4316" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4316" s="6" t="n">
         <v>3885</v>
       </c>
     </row>
     <row r="4317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4317" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4317" s="47" t="s">
-        <v>356</v>
+      <c r="A4317" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4317" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4317" s="6" t="n">
         <v>3735</v>
       </c>
     </row>
     <row r="4318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4318" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4318" s="47" t="s">
-        <v>356</v>
+      <c r="A4318" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4318" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4318" s="6" t="n">
         <v>3730</v>
       </c>
     </row>
     <row r="4319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4319" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4319" s="47" t="s">
-        <v>356</v>
+      <c r="A4319" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4319" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4319" s="6" t="n">
         <v>3738</v>
       </c>
     </row>
     <row r="4320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4320" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4320" s="47" t="s">
-        <v>356</v>
+      <c r="A4320" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4320" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4320" s="6" t="n">
         <v>3737</v>
       </c>
     </row>
     <row r="4321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4321" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4321" s="47" t="s">
-        <v>356</v>
+      <c r="A4321" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4321" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4321" s="6" t="n">
         <v>3727</v>
       </c>
     </row>
     <row r="4322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4322" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4322" s="47" t="s">
-        <v>356</v>
+      <c r="A4322" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4322" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4322" s="6" t="n">
         <v>3732</v>
       </c>
     </row>
     <row r="4323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4323" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4323" s="47" t="s">
-        <v>356</v>
+      <c r="A4323" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4323" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4323" s="6" t="n">
         <v>40111</v>
       </c>
     </row>
     <row r="4324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4324" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4324" s="47" t="s">
-        <v>356</v>
+      <c r="A4324" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4324" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4324" s="6" t="n">
         <v>3726</v>
       </c>
     </row>
     <row r="4325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4325" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4325" s="47" t="s">
-        <v>356</v>
+      <c r="A4325" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4325" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4325" s="6" t="n">
         <v>40121</v>
       </c>
     </row>
     <row r="4326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4326" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4326" s="47" t="s">
-        <v>356</v>
+      <c r="A4326" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4326" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4326" s="6" t="n">
         <v>40131</v>
       </c>
     </row>
     <row r="4327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4327" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4327" s="47" t="s">
-        <v>356</v>
+      <c r="A4327" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4327" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4327" s="6" t="n">
         <v>3822</v>
       </c>
     </row>
     <row r="4328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4328" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4328" s="47" t="s">
-        <v>356</v>
+      <c r="A4328" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4328" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4328" s="6" t="n">
         <v>3728</v>
       </c>
     </row>
     <row r="4329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4329" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4329" s="47" t="s">
-        <v>356</v>
+      <c r="A4329" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4329" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4329" s="6" t="n">
         <v>3821</v>
       </c>
     </row>
     <row r="4330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4330" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4330" s="47" t="s">
-        <v>356</v>
+      <c r="A4330" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4330" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4330" s="6" t="n">
         <v>3729</v>
       </c>
     </row>
     <row r="4331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4331" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4331" s="47" t="s">
-        <v>356</v>
+      <c r="A4331" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4331" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4331" s="6" t="n">
         <v>3823</v>
       </c>
     </row>
     <row r="4332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4332" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4332" s="47" t="s">
-        <v>356</v>
+      <c r="A4332" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4332" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4332" s="6" t="n">
         <v>3824</v>
       </c>
     </row>
     <row r="4333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4333" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4333" s="47" t="s">
-        <v>356</v>
+      <c r="A4333" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4333" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4333" s="6" t="n">
         <v>3827</v>
       </c>
     </row>
     <row r="4334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4334" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4334" s="47" t="s">
-        <v>356</v>
+      <c r="A4334" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4334" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4334" s="6" t="n">
         <v>3825</v>
       </c>
     </row>
     <row r="4335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4335" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4335" s="47" t="s">
-        <v>356</v>
+      <c r="A4335" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4335" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4335" s="6" t="n">
         <v>3828</v>
       </c>
     </row>
     <row r="4336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4336" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4336" s="47" t="s">
-        <v>356</v>
+      <c r="A4336" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4336" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4336" s="6" t="n">
         <v>3826</v>
       </c>
     </row>
     <row r="4337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4337" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4337" s="47" t="s">
-        <v>356</v>
+      <c r="A4337" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4337" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4337" s="6" t="n">
         <v>3829</v>
       </c>
     </row>
     <row r="4338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4338" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4338" s="47" t="s">
-        <v>356</v>
+      <c r="A4338" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4338" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4338" s="6" t="n">
         <v>3859</v>
       </c>
     </row>
     <row r="4339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4339" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4339" s="47" t="s">
-        <v>356</v>
+      <c r="A4339" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4339" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4339" s="6" t="n">
         <v>3710</v>
       </c>
     </row>
     <row r="4340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4340" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4340" s="47" t="s">
-        <v>356</v>
+      <c r="A4340" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4340" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4340" s="6" t="n">
         <v>3860</v>
       </c>
     </row>
     <row r="4341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4341" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4341" s="47" t="s">
-        <v>356</v>
+      <c r="A4341" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4341" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4341" s="6" t="n">
         <v>3711</v>
       </c>
     </row>
     <row r="4342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4342" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4342" s="47" t="s">
-        <v>356</v>
+      <c r="A4342" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4342" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4342" s="6" t="n">
         <v>3713</v>
       </c>
     </row>
     <row r="4343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4343" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4343" s="47" t="s">
-        <v>356</v>
+      <c r="A4343" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4343" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4343" s="6" t="n">
         <v>3709</v>
       </c>
     </row>
     <row r="4344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4344" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4344" s="47" t="s">
-        <v>356</v>
+      <c r="A4344" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4344" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4344" s="6" t="n">
         <v>3712</v>
       </c>
     </row>
     <row r="4345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4345" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4345" s="47" t="s">
-        <v>356</v>
+      <c r="A4345" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4345" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4345" s="6" t="n">
         <v>3714</v>
       </c>
     </row>
     <row r="4346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4346" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4346" s="47" t="s">
-        <v>356</v>
+      <c r="A4346" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4346" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4346" s="6" t="n">
         <v>3707</v>
       </c>
     </row>
     <row r="4347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4347" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4347" s="47" t="s">
-        <v>356</v>
+      <c r="A4347" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4347" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4347" s="6" t="n">
         <v>3715</v>
       </c>
     </row>
     <row r="4348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4348" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4348" s="47" t="s">
-        <v>356</v>
+      <c r="A4348" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4348" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4348" s="6" t="n">
         <v>3708</v>
       </c>
     </row>
     <row r="4349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4349" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4349" s="47" t="s">
-        <v>356</v>
+      <c r="A4349" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4349" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4349" s="6" t="n">
         <v>3705</v>
       </c>
     </row>
     <row r="4350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4350" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4350" s="47" t="s">
-        <v>356</v>
+      <c r="A4350" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4350" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4350" s="6" t="n">
         <v>3706</v>
       </c>
     </row>
     <row r="4351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4351" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4351" s="47" t="s">
-        <v>356</v>
+      <c r="A4351" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4351" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4351" s="6" t="n">
         <v>3853</v>
       </c>
     </row>
     <row r="4352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4352" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4352" s="47" t="s">
-        <v>356</v>
+      <c r="A4352" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4352" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4352" s="6" t="n">
         <v>3716</v>
       </c>
     </row>
     <row r="4353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4353" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4353" s="47" t="s">
-        <v>356</v>
+      <c r="A4353" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4353" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4353" s="6" t="n">
         <v>3857</v>
       </c>
     </row>
     <row r="4354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4354" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4354" s="47" t="s">
-        <v>356</v>
+      <c r="A4354" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4354" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4354" s="6" t="n">
         <v>3717</v>
       </c>
     </row>
     <row r="4355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4355" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4355" s="47" t="s">
-        <v>356</v>
+      <c r="A4355" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4355" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4355" s="6" t="n">
         <v>3851</v>
       </c>
     </row>
     <row r="4356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4356" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4356" s="47" t="s">
-        <v>356</v>
+      <c r="A4356" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4356" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4356" s="6" t="n">
         <v>3852</v>
       </c>
     </row>
     <row r="4357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4357" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4357" s="47" t="s">
-        <v>356</v>
+      <c r="A4357" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4357" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4357" s="6" t="n">
         <v>3834</v>
       </c>
     </row>
     <row r="4358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4358" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4358" s="47" t="s">
-        <v>356</v>
+      <c r="A4358" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4358" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4358" s="6" t="n">
         <v>3831</v>
       </c>
     </row>
     <row r="4359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4359" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4359" s="47" t="s">
-        <v>356</v>
+      <c r="A4359" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4359" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4359" s="6" t="n">
         <v>3927</v>
       </c>
     </row>
     <row r="4360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4360" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4360" s="47" t="s">
-        <v>356</v>
+      <c r="A4360" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4360" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4360" s="6" t="n">
         <v>3832</v>
       </c>
     </row>
     <row r="4361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4361" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4361" s="47" t="s">
-        <v>356</v>
+      <c r="A4361" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4361" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4361" s="6" t="n">
         <v>3835</v>
       </c>
     </row>
     <row r="4362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4362" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4362" s="47" t="s">
-        <v>356</v>
+      <c r="A4362" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4362" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4362" s="6" t="n">
         <v>3836</v>
       </c>
     </row>
     <row r="4363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4363" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4363" s="47" t="s">
-        <v>356</v>
+      <c r="A4363" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4363" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4363" s="6" t="n">
         <v>3700</v>
       </c>
     </row>
     <row r="4364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4364" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4364" s="47" t="s">
-        <v>356</v>
+      <c r="A4364" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4364" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4364" s="6" t="n">
         <v>3837</v>
       </c>
     </row>
     <row r="4365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4365" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4365" s="47" t="s">
-        <v>356</v>
+      <c r="A4365" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4365" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4365" s="6" t="n">
         <v>3701</v>
       </c>
     </row>
     <row r="4366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4366" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4366" s="47" t="s">
-        <v>356</v>
+      <c r="A4366" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4366" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4366" s="6" t="n">
         <v>3838</v>
       </c>
     </row>
     <row r="4367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4367" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4367" s="47" t="s">
-        <v>356</v>
+      <c r="A4367" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4367" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4367" s="6" t="n">
         <v>3702</v>
       </c>
     </row>
     <row r="4368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4368" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4368" s="47" t="s">
-        <v>356</v>
+      <c r="A4368" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4368" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4368" s="6" t="n">
         <v>3756</v>
       </c>
     </row>
     <row r="4369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4369" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4369" s="47" t="s">
-        <v>356</v>
+      <c r="A4369" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4369" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4369" s="6" t="n">
         <v>3762</v>
       </c>
     </row>
     <row r="4370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4370" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4370" s="47" t="s">
-        <v>356</v>
+      <c r="A4370" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4370" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4370" s="6" t="n">
         <v>3757</v>
       </c>
     </row>
     <row r="4371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4371" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4371" s="47" t="s">
-        <v>356</v>
+      <c r="A4371" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4371" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4371" s="6" t="n">
         <v>3763</v>
       </c>
     </row>
     <row r="4372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4372" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4372" s="47" t="s">
-        <v>356</v>
+      <c r="A4372" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4372" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4372" s="6" t="n">
         <v>3761</v>
       </c>
     </row>
     <row r="4373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4373" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4373" s="47" t="s">
-        <v>356</v>
+      <c r="A4373" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4373" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4373" s="6" t="n">
         <v>3764</v>
       </c>
     </row>
     <row r="4374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4374" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4374" s="47" t="s">
-        <v>356</v>
+      <c r="A4374" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4374" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4374" s="6" t="n">
         <v>3765</v>
       </c>
     </row>
     <row r="4375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4375" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4375" s="47" t="s">
-        <v>356</v>
+      <c r="A4375" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4375" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4375" s="6" t="n">
         <v>3921</v>
       </c>
     </row>
     <row r="4376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4376" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4376" s="47" t="s">
-        <v>356</v>
+      <c r="A4376" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4376" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4376" s="6" t="n">
         <v>3766</v>
       </c>
     </row>
     <row r="4377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4377" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4377" s="47" t="s">
-        <v>356</v>
+      <c r="A4377" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4377" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4377" s="6" t="n">
         <v>3922</v>
       </c>
     </row>
     <row r="4378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4378" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4378" s="47" t="s">
-        <v>356</v>
+      <c r="A4378" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4378" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4378" s="6" t="n">
         <v>3920</v>
       </c>
     </row>
     <row r="4379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4379" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4379" s="47" t="s">
-        <v>356</v>
+      <c r="A4379" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4379" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4379" s="6" t="n">
         <v>3923</v>
       </c>
     </row>
     <row r="4380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4380" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4380" s="47" t="s">
-        <v>356</v>
+      <c r="A4380" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4380" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4380" s="6" t="n">
         <v>3924</v>
       </c>
     </row>
     <row r="4381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4381" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4381" s="47" t="s">
-        <v>356</v>
+      <c r="A4381" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4381" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4381" s="6" t="n">
         <v>3752</v>
       </c>
     </row>
     <row r="4382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4382" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4382" s="47" t="s">
-        <v>356</v>
+      <c r="A4382" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4382" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4382" s="6" t="n">
         <v>3925</v>
       </c>
     </row>
     <row r="4383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4383" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4383" s="47" t="s">
-        <v>356</v>
+      <c r="A4383" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4383" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4383" s="6" t="n">
         <v>3946</v>
       </c>
     </row>
     <row r="4384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4384" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4384" s="47" t="s">
-        <v>356</v>
+      <c r="A4384" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4384" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4384" s="6" t="n">
         <v>3751</v>
       </c>
     </row>
     <row r="4385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4385" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4385" s="47" t="s">
-        <v>356</v>
+      <c r="A4385" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4385" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4385" s="6" t="n">
         <v>3947</v>
       </c>
     </row>
     <row r="4386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4386" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4386" s="47" t="s">
-        <v>356</v>
+      <c r="A4386" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4386" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4386" s="6" t="n">
         <v>3948</v>
       </c>
     </row>
     <row r="4387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4387" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4387" s="47" t="s">
-        <v>356</v>
+      <c r="A4387" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4387" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4387" s="6" t="n">
         <v>3953</v>
       </c>
     </row>
     <row r="4388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4388" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4388" s="47" t="s">
-        <v>356</v>
+      <c r="A4388" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4388" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4388" s="6" t="n">
         <v>3950</v>
       </c>
     </row>
     <row r="4389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4389" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4389" s="47" t="s">
-        <v>356</v>
+      <c r="A4389" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4389" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4389" s="6" t="n">
         <v>3753</v>
       </c>
     </row>
     <row r="4390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4390" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4390" s="47" t="s">
-        <v>356</v>
+      <c r="A4390" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4390" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4390" s="6" t="n">
         <v>3952</v>
       </c>
     </row>
     <row r="4391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4391" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4391" s="47" t="s">
-        <v>356</v>
+      <c r="A4391" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4391" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4391" s="6" t="n">
         <v>3845</v>
       </c>
     </row>
     <row r="4392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4392" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4392" s="47" t="s">
-        <v>356</v>
+      <c r="A4392" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4392" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4392" s="6" t="n">
         <v>3754</v>
       </c>
     </row>
     <row r="4393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4393" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4393" s="47" t="s">
-        <v>356</v>
+      <c r="A4393" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4393" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4393" s="6" t="n">
         <v>3768</v>
       </c>
     </row>
     <row r="4394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4394" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4394" s="47" t="s">
-        <v>356</v>
+      <c r="A4394" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4394" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4394" s="6" t="n">
         <v>3839</v>
       </c>
     </row>
     <row r="4395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4395" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4395" s="47" t="s">
-        <v>356</v>
+      <c r="A4395" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4395" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4395" s="6" t="n">
         <v>3769</v>
       </c>
     </row>
     <row r="4396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4396" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4396" s="47" t="s">
-        <v>356</v>
+      <c r="A4396" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4396" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4396" s="6" t="n">
         <v>3767</v>
       </c>
     </row>
     <row r="4397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4397" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4397" s="47" t="s">
-        <v>356</v>
+      <c r="A4397" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4397" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4397" s="6" t="n">
         <v>3770</v>
       </c>
     </row>
     <row r="4398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4398" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4398" s="47" t="s">
-        <v>356</v>
+      <c r="A4398" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4398" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4398" s="6" t="n">
         <v>3771</v>
       </c>
     </row>
     <row r="4399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4399" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4399" s="47" t="s">
-        <v>356</v>
+      <c r="A4399" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4399" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4399" s="6" t="n">
         <v>3774</v>
       </c>
     </row>
     <row r="4400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4400" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4400" s="47" t="s">
-        <v>356</v>
+      <c r="A4400" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4400" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4400" s="6" t="n">
         <v>3772</v>
       </c>
     </row>
     <row r="4401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4401" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4401" s="47" t="s">
-        <v>356</v>
+      <c r="A4401" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4401" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4401" s="6" t="n">
         <v>3775</v>
       </c>
     </row>
     <row r="4402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4402" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4402" s="47" t="s">
-        <v>356</v>
+      <c r="A4402" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4402" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4402" s="6" t="n">
         <v>3773</v>
       </c>
     </row>
     <row r="4403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4403" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4403" s="47" t="s">
-        <v>356</v>
+      <c r="A4403" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4403" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4403" s="6" t="n">
         <v>3776</v>
       </c>
     </row>
     <row r="4404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4404" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4404" s="47" t="s">
-        <v>356</v>
+      <c r="A4404" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4404" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4404" s="6" t="n">
         <v>3841</v>
       </c>
     </row>
     <row r="4405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4405" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4405" s="47" t="s">
-        <v>356</v>
+      <c r="A4405" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4405" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4405" s="6" t="n">
         <v>3722</v>
       </c>
     </row>
     <row r="4406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4406" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4406" s="47" t="s">
-        <v>356</v>
+      <c r="A4406" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4406" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4406" s="6" t="n">
         <v>3804</v>
       </c>
     </row>
     <row r="4407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4407" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4407" s="47" t="s">
-        <v>356</v>
+      <c r="A4407" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4407" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4407" s="6" t="n">
         <v>3809</v>
       </c>
     </row>
     <row r="4408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4408" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4408" s="47" t="s">
-        <v>356</v>
+      <c r="A4408" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4408" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4408" s="6" t="n">
         <v>3842</v>
       </c>
     </row>
     <row r="4409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4409" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4409" s="47" t="s">
-        <v>356</v>
+      <c r="A4409" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4409" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4409" s="6" t="n">
         <v>3723</v>
       </c>
     </row>
     <row r="4410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4410" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4410" s="47" t="s">
-        <v>356</v>
+      <c r="A4410" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4410" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4410" s="6" t="n">
         <v>3805</v>
       </c>
     </row>
     <row r="4411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4411" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4411" s="47" t="s">
-        <v>356</v>
+      <c r="A4411" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4411" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4411" s="6" t="n">
         <v>3810</v>
       </c>
     </row>
     <row r="4412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4412" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4412" s="47" t="s">
-        <v>356</v>
+      <c r="A4412" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4412" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4412" s="6" t="n">
         <v>3843</v>
       </c>
     </row>
     <row r="4413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4413" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4413" s="47" t="s">
-        <v>356</v>
+      <c r="A4413" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4413" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4413" s="6" t="n">
         <v>3724</v>
       </c>
     </row>
     <row r="4414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4414" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4414" s="47" t="s">
-        <v>356</v>
+      <c r="A4414" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4414" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4414" s="6" t="n">
         <v>3806</v>
       </c>
     </row>
     <row r="4415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4415" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4415" s="47" t="s">
-        <v>356</v>
+      <c r="A4415" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4415" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4415" s="6" t="n">
         <v>3795</v>
       </c>
     </row>
     <row r="4416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4416" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4416" s="47" t="s">
-        <v>356</v>
+      <c r="A4416" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4416" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4416" s="6" t="n">
         <v>3844</v>
       </c>
     </row>
     <row r="4417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4417" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4417" s="47" t="s">
-        <v>356</v>
+      <c r="A4417" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4417" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4417" s="6" t="n">
         <v>3725</v>
       </c>
     </row>
     <row r="4418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4418" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4418" s="47" t="s">
-        <v>356</v>
+      <c r="A4418" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4418" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4418" s="6" t="n">
         <v>3807</v>
       </c>
     </row>
     <row r="4419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4419" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4419" s="47" t="s">
-        <v>356</v>
+      <c r="A4419" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4419" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4419" s="6" t="n">
         <v>3796</v>
       </c>
     </row>
     <row r="4420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4420" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4420" s="47" t="s">
-        <v>356</v>
+      <c r="A4420" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4420" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4420" s="6" t="n">
         <v>3720</v>
       </c>
     </row>
     <row r="4421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4421" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4421" s="47" t="s">
-        <v>356</v>
+      <c r="A4421" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4421" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4421" s="6" t="n">
         <v>3803</v>
       </c>
     </row>
     <row r="4422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4422" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4422" s="47" t="s">
-        <v>356</v>
+      <c r="A4422" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4422" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4422" s="6" t="n">
         <v>3808</v>
       </c>
     </row>
     <row r="4423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4423" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4423" s="47" t="s">
-        <v>356</v>
+      <c r="A4423" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4423" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4423" s="6" t="n">
         <v>3797</v>
       </c>
     </row>
     <row r="4424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4424" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4424" s="47" t="s">
-        <v>356</v>
+      <c r="A4424" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4424" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4424" s="6" t="n">
         <v>3798</v>
       </c>
     </row>
     <row r="4425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4425" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4425" s="47" t="s">
-        <v>356</v>
+      <c r="A4425" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4425" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4425" s="6" t="n">
         <v>3742</v>
       </c>
     </row>
     <row r="4426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4426" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4426" s="47" t="s">
-        <v>356</v>
+      <c r="A4426" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4426" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4426" s="6" t="n">
         <v>3749</v>
       </c>
     </row>
     <row r="4427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4427" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4427" s="47" t="s">
-        <v>356</v>
+      <c r="A4427" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4427" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4427" s="6" t="n">
         <v>3784</v>
       </c>
     </row>
     <row r="4428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4428" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4428" s="47" t="s">
-        <v>356</v>
+      <c r="A4428" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4428" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4428" s="6" t="n">
         <v>3799</v>
       </c>
     </row>
     <row r="4429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4429" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4429" s="47" t="s">
-        <v>356</v>
+      <c r="A4429" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4429" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4429" s="6" t="n">
         <v>3743</v>
       </c>
     </row>
     <row r="4430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4430" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4430" s="47" t="s">
-        <v>356</v>
+      <c r="A4430" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4430" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4430" s="6" t="n">
         <v>3750</v>
       </c>
     </row>
     <row r="4431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4431" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4431" s="47" t="s">
-        <v>356</v>
+      <c r="A4431" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4431" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4431" s="6" t="n">
         <v>3785</v>
       </c>
     </row>
     <row r="4432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4432" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4432" s="47" t="s">
-        <v>356</v>
+      <c r="A4432" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4432" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4432" s="6" t="n">
         <v>3800</v>
       </c>
     </row>
     <row r="4433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4433" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4433" s="47" t="s">
-        <v>356</v>
+      <c r="A4433" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4433" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4433" s="6" t="n">
         <v>3744</v>
       </c>
     </row>
     <row r="4434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4434" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4434" s="47" t="s">
-        <v>356</v>
+      <c r="A4434" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4434" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4434" s="6" t="n">
         <v>3777</v>
       </c>
     </row>
     <row r="4435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4435" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4435" s="47" t="s">
-        <v>356</v>
+      <c r="A4435" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4435" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4435" s="6" t="n">
         <v>3786</v>
       </c>
     </row>
     <row r="4436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4436" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4436" s="47" t="s">
-        <v>356</v>
+      <c r="A4436" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4436" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4436" s="6" t="n">
         <v>3801</v>
       </c>
     </row>
     <row r="4437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4437" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4437" s="47" t="s">
-        <v>356</v>
+      <c r="A4437" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4437" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4437" s="6" t="n">
         <v>3745</v>
       </c>
     </row>
     <row r="4438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4438" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4438" s="47" t="s">
-        <v>356</v>
+      <c r="A4438" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4438" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4438" s="6" t="n">
         <v>3755</v>
       </c>
     </row>
     <row r="4439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4439" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4439" s="47" t="s">
-        <v>356</v>
+      <c r="A4439" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4439" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4439" s="6" t="n">
         <v>3787</v>
       </c>
     </row>
     <row r="4440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4440" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4440" s="47" t="s">
-        <v>356</v>
+      <c r="A4440" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4440" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4440" s="6" t="n">
         <v>3802</v>
       </c>
     </row>
     <row r="4441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4441" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4441" s="47" t="s">
-        <v>356</v>
+      <c r="A4441" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4441" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4441" s="6" t="n">
         <v>3746</v>
       </c>
     </row>
     <row r="4442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4442" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4442" s="47" t="s">
-        <v>356</v>
+      <c r="A4442" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4442" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4442" s="6" t="n">
         <v>3783</v>
       </c>
     </row>
     <row r="4443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4443" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4443" s="47" t="s">
-        <v>356</v>
+      <c r="A4443" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4443" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4443" s="6" t="n">
         <v>3788</v>
       </c>
     </row>
     <row r="4444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4444" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4444" s="47" t="s">
-        <v>356</v>
+      <c r="A4444" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4444" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4444" s="6" t="n">
         <v>3789</v>
       </c>
     </row>
     <row r="4445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4445" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4445" s="47" t="s">
-        <v>356</v>
+      <c r="A4445" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4445" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4445" s="6" t="n">
         <v>3794</v>
       </c>
     </row>
     <row r="4446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4446" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4446" s="47" t="s">
-        <v>356</v>
+      <c r="A4446" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4446" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4446" s="6" t="n">
         <v>3480</v>
       </c>
     </row>
     <row r="4447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4447" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4447" s="47" t="s">
-        <v>356</v>
+      <c r="A4447" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4447" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4447" s="6" t="n">
         <v>3485</v>
       </c>
     </row>
     <row r="4448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4448" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4448" s="47" t="s">
-        <v>356</v>
+      <c r="A4448" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4448" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4448" s="6" t="n">
         <v>3790</v>
       </c>
     </row>
     <row r="4449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4449" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4449" s="47" t="s">
-        <v>356</v>
+      <c r="A4449" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4449" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4449" s="6" t="n">
         <v>3475</v>
       </c>
     </row>
     <row r="4450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4450" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4450" s="47" t="s">
-        <v>356</v>
+      <c r="A4450" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4450" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4450" s="6" t="n">
         <v>3481</v>
       </c>
     </row>
     <row r="4451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4451" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4451" s="47" t="s">
-        <v>356</v>
+      <c r="A4451" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4451" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4451" s="6" t="n">
         <v>3486</v>
       </c>
     </row>
     <row r="4452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4452" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4452" s="47" t="s">
-        <v>356</v>
+      <c r="A4452" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4452" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4452" s="6" t="n">
         <v>3791</v>
       </c>
     </row>
     <row r="4453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4453" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4453" s="47" t="s">
-        <v>356</v>
+      <c r="A4453" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4453" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4453" s="6" t="n">
         <v>3476</v>
       </c>
     </row>
     <row r="4454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4454" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4454" s="47" t="s">
-        <v>356</v>
+      <c r="A4454" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4454" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4454" s="6" t="n">
         <v>3482</v>
       </c>
     </row>
     <row r="4455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4455" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4455" s="47" t="s">
-        <v>356</v>
+      <c r="A4455" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4455" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4455" s="6" t="n">
         <v>3792</v>
       </c>
     </row>
     <row r="4456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4456" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4456" s="47" t="s">
-        <v>356</v>
+      <c r="A4456" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4456" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4456" s="6" t="n">
         <v>3477</v>
       </c>
     </row>
     <row r="4457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4457" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4457" s="47" t="s">
-        <v>356</v>
+      <c r="A4457" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4457" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4457" s="6" t="n">
         <v>3483</v>
       </c>
     </row>
     <row r="4458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4458" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4458" s="47" t="s">
-        <v>356</v>
+      <c r="A4458" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4458" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4458" s="6" t="n">
         <v>3793</v>
       </c>
     </row>
     <row r="4459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4459" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4459" s="47" t="s">
-        <v>356</v>
+      <c r="A4459" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4459" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4459" s="6" t="n">
         <v>3479</v>
       </c>
     </row>
     <row r="4460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4460" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4460" s="47" t="s">
-        <v>356</v>
+      <c r="A4460" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4460" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="C4460" s="6" t="n">
         <v>3484</v>
       </c>
     </row>
     <row r="4461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4461" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4461" s="48" t="s">
-        <v>358</v>
+      <c r="A4461" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4461" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="C4461" s="6" t="n">
         <v>11109</v>
       </c>
     </row>
     <row r="4462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4462" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4462" s="48" t="s">
-        <v>358</v>
+      <c r="A4462" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4462" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="C4462" s="6" t="n">
         <v>11079</v>
       </c>
     </row>
     <row r="4463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4463" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4463" s="48" t="s">
-        <v>358</v>
+      <c r="A4463" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4463" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="C4463" s="6" t="n">
         <v>11077</v>
       </c>
     </row>
     <row r="4464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4464" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4464" s="48" t="s">
-        <v>358</v>
+      <c r="A4464" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4464" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="C4464" s="6" t="n">
         <v>11078</v>
       </c>
     </row>
     <row r="4465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4465" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4465" s="48" t="s">
-        <v>358</v>
+      <c r="A4465" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4465" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="C4465" s="6" t="n">
         <v>11088</v>
       </c>
+      <c r="D4465" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="4466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4466" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4466" s="48" t="s">
-        <v>358</v>
+      <c r="A4466" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4466" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="C4466" s="6" t="n">
         <v>500082</v>
       </c>
     </row>
     <row r="4467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4467" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4467" s="48" t="s">
-        <v>358</v>
+      <c r="A4467" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4467" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="C4467" s="6" t="n">
         <v>500081</v>
       </c>
     </row>
     <row r="4468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4468" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4468" s="49" t="s">
-        <v>360</v>
+      <c r="A4468" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4468" s="48" t="s">
+        <v>367</v>
       </c>
       <c r="C4468" s="6" t="n">
         <v>11615</v>
       </c>
+      <c r="D4468" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="4469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4469" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4469" s="49" t="s">
-        <v>360</v>
+      <c r="A4469" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4469" s="48" t="s">
+        <v>367</v>
       </c>
       <c r="C4469" s="6" t="n">
         <v>11616</v>
       </c>
+      <c r="D4469" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="4470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4470" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4470" s="49" t="s">
-        <v>360</v>
+      <c r="A4470" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4470" s="48" t="s">
+        <v>367</v>
       </c>
       <c r="C4470" s="6" t="n">
         <v>11617</v>
       </c>
+      <c r="D4470" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4471" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4471" s="49" t="s">
-        <v>360</v>
+      <c r="A4471" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4471" s="48" t="s">
+        <v>367</v>
       </c>
       <c r="C4471" s="6" t="n">
         <v>11618</v>
       </c>
+      <c r="D4471" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4472" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4472" s="49" t="s">
-        <v>360</v>
+      <c r="A4472" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4472" s="48" t="s">
+        <v>367</v>
       </c>
       <c r="C4472" s="6" t="n">
         <v>8988</v>
       </c>
+      <c r="D4472" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4473" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4473" s="49" t="s">
-        <v>360</v>
+      <c r="A4473" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4473" s="48" t="s">
+        <v>367</v>
       </c>
       <c r="C4473" s="6" t="n">
         <v>8478</v>
       </c>
     </row>
     <row r="4474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4474" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4474" s="49" t="s">
-        <v>360</v>
+      <c r="A4474" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4474" s="48" t="s">
+        <v>367</v>
       </c>
       <c r="C4474" s="6" t="n">
         <v>8479</v>
@@ -59918,10 +60119,10 @@
     </row>
     <row r="4475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4475" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4475" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4475" s="6" t="n">
         <v>8460</v>
@@ -59929,10 +60130,10 @@
     </row>
     <row r="4476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4476" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4476" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4476" s="6" t="n">
         <v>8461</v>
@@ -59940,10 +60141,10 @@
     </row>
     <row r="4477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4477" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4477" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4477" s="6" t="n">
         <v>8462</v>
@@ -59951,10 +60152,10 @@
     </row>
     <row r="4478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4478" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4478" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4478" s="6" t="n">
         <v>8463</v>
@@ -59962,10 +60163,10 @@
     </row>
     <row r="4479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4479" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4479" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4479" s="6" t="n">
         <v>8458</v>
@@ -59973,21 +60174,24 @@
     </row>
     <row r="4480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4480" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4480" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4480" s="6" t="n">
         <v>8459</v>
       </c>
+      <c r="D4480" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="4481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4481" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4481" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4481" s="6" t="n">
         <v>8401</v>
@@ -59995,10 +60199,10 @@
     </row>
     <row r="4482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4482" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4482" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4482" s="6" t="n">
         <v>8402</v>
@@ -60006,10 +60210,10 @@
     </row>
     <row r="4483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4483" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4483" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4483" s="6" t="n">
         <v>8399</v>
@@ -60017,10 +60221,10 @@
     </row>
     <row r="4484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4484" s="38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4484" s="38" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C4484" s="6" t="n">
         <v>8379</v>
@@ -60028,54 +60232,66 @@
     </row>
     <row r="4485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4485" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4485" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4485" s="6" t="n">
         <v>6679</v>
       </c>
+      <c r="D4485" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="4486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4486" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4486" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4486" s="6" t="n">
         <v>6677</v>
       </c>
+      <c r="D4486" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="4487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4487" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4487" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4487" s="6" t="n">
         <v>6680</v>
       </c>
+      <c r="D4487" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="4488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4488" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4488" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4488" s="6" t="n">
         <v>6678</v>
       </c>
+      <c r="D4488" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="4489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4489" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4489" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4489" s="6" t="n">
         <v>8791</v>
@@ -60083,10 +60299,10 @@
     </row>
     <row r="4490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4490" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4490" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4490" s="6" t="n">
         <v>8792</v>
@@ -60094,406 +60310,514 @@
     </row>
     <row r="4491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4491" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4491" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4491" s="6" t="n">
         <v>8704</v>
       </c>
+      <c r="D4491" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="4492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4492" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4492" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4492" s="6" t="n">
         <v>8793</v>
       </c>
+      <c r="D4492" s="1" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="4493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4493" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4493" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4493" s="6" t="n">
         <v>8705</v>
       </c>
+      <c r="D4493" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="4494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4494" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4494" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4494" s="6" t="n">
         <v>8794</v>
       </c>
+      <c r="D4494" s="1" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="4495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4495" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4495" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4495" s="6" t="n">
         <v>8795</v>
       </c>
+      <c r="D4495" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="4496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4496" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4496" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4496" s="6" t="n">
         <v>8796</v>
       </c>
+      <c r="D4496" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="4497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4497" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4497" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4497" s="6" t="n">
         <v>8770</v>
       </c>
+      <c r="D4497" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="4498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4498" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4498" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4498" s="6" t="n">
         <v>8800</v>
       </c>
+      <c r="D4498" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="4499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4499" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4499" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4499" s="6" t="n">
         <v>8771</v>
       </c>
+      <c r="D4499" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4500" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4500" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4500" s="6" t="n">
         <v>8799</v>
       </c>
+      <c r="D4500" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="4501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4501" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4501" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4501" s="6" t="n">
         <v>8772</v>
       </c>
+      <c r="D4501" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4502" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4502" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4502" s="6" t="n">
         <v>8773</v>
       </c>
+      <c r="D4502" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4503" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4503" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4503" s="6" t="n">
         <v>8776</v>
       </c>
+      <c r="D4503" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="4504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4504" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4504" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4504" s="6" t="n">
         <v>8774</v>
       </c>
+      <c r="D4504" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="4505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4505" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4505" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4505" s="6" t="n">
         <v>8777</v>
       </c>
+      <c r="D4505" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="4506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4506" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4506" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4506" s="6" t="n">
         <v>8775</v>
       </c>
+      <c r="D4506" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="4507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4507" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4507" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4507" s="6" t="n">
         <v>8754</v>
       </c>
+      <c r="D4507" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="4508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4508" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4508" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4508" s="6" t="n">
         <v>8755</v>
       </c>
+      <c r="D4508" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="4509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4509" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4509" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4509" s="6" t="n">
         <v>8758</v>
       </c>
+      <c r="D4509" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="4510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4510" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4510" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4510" s="6" t="n">
         <v>8756</v>
       </c>
+      <c r="D4510" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="4511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4511" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4511" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4511" s="6" t="n">
         <v>8759</v>
       </c>
+      <c r="D4511" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="4512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4512" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4512" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4512" s="6" t="n">
         <v>8757</v>
       </c>
+      <c r="D4512" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="4513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4513" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4513" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4513" s="6" t="n">
         <v>8760</v>
       </c>
+      <c r="D4513" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="4514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4514" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4514" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4514" s="6" t="n">
         <v>8761</v>
       </c>
+      <c r="D4514" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="4515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4515" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4515" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4515" s="6" t="n">
         <v>8764</v>
       </c>
+      <c r="D4515" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4516" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4516" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4516" s="6" t="n">
         <v>8762</v>
       </c>
+      <c r="D4516" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4517" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4517" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4517" s="6" t="n">
         <v>8765</v>
       </c>
+      <c r="D4517" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="4518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4518" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4518" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4518" s="6" t="n">
         <v>8763</v>
       </c>
+      <c r="D4518" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="4519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4519" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4519" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4519" s="6" t="n">
         <v>8766</v>
       </c>
+      <c r="D4519" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4520" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4520" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4520" s="6" t="n">
         <v>8767</v>
       </c>
+      <c r="D4520" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="4521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4521" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4521" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4521" s="6" t="n">
         <v>8817</v>
       </c>
+      <c r="D4521" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="4522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4522" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4522" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4522" s="6" t="n">
         <v>8768</v>
       </c>
+      <c r="D4522" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4523" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4523" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4523" s="6" t="n">
         <v>8808</v>
       </c>
+      <c r="D4523" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="4524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4524" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4524" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4524" s="6" t="n">
         <v>8769</v>
       </c>
+      <c r="D4524" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="4525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4525" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4525" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4525" s="6" t="n">
         <v>8807</v>
       </c>
+      <c r="D4525" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="4526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4526" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4526" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4526" s="6" t="n">
         <v>8818</v>
       </c>
+      <c r="D4526" s="1" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="4527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4527" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4527" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4527" s="6" t="n">
         <v>8785</v>
@@ -60501,10 +60825,10 @@
     </row>
     <row r="4528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4528" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4528" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4528" s="6" t="n">
         <v>8783</v>
@@ -60512,10 +60836,10 @@
     </row>
     <row r="4529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4529" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4529" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4529" s="6" t="n">
         <v>8786</v>
@@ -60523,10 +60847,10 @@
     </row>
     <row r="4530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4530" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4530" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4530" s="6" t="n">
         <v>8784</v>
@@ -60534,10 +60858,10 @@
     </row>
     <row r="4531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4531" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4531" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4531" s="6" t="n">
         <v>8787</v>
@@ -60545,21 +60869,24 @@
     </row>
     <row r="4532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4532" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4532" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4532" s="6" t="n">
         <v>8788</v>
       </c>
+      <c r="D4532" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="4533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4533" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4533" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4533" s="6" t="n">
         <v>8801</v>
@@ -60567,10 +60894,10 @@
     </row>
     <row r="4534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4534" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4534" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4534" s="6" t="n">
         <v>8789</v>
@@ -60578,10 +60905,10 @@
     </row>
     <row r="4535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4535" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4535" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4535" s="6" t="n">
         <v>8802</v>
@@ -60589,10 +60916,10 @@
     </row>
     <row r="4536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4536" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4536" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4536" s="6" t="n">
         <v>8790</v>
@@ -60600,10 +60927,10 @@
     </row>
     <row r="4537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4537" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4537" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4537" s="6" t="n">
         <v>8804</v>
@@ -60611,10 +60938,10 @@
     </row>
     <row r="4538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4538" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4538" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4538" s="6" t="n">
         <v>8805</v>
@@ -60622,21 +60949,24 @@
     </row>
     <row r="4539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4539" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4539" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4539" s="6" t="n">
         <v>8809</v>
       </c>
+      <c r="D4539" s="1" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="4540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4540" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4540" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4540" s="6" t="n">
         <v>8803</v>
@@ -60644,21 +60974,24 @@
     </row>
     <row r="4541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4541" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4541" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4541" s="6" t="n">
         <v>8841</v>
       </c>
+      <c r="D4541" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="4542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4542" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4542" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4542" s="6" t="n">
         <v>8806</v>
@@ -60666,65 +60999,80 @@
     </row>
     <row r="4543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4543" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4543" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4543" s="6" t="n">
         <v>8781</v>
       </c>
+      <c r="D4543" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="4544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4544" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4544" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4544" s="6" t="n">
         <v>8782</v>
       </c>
+      <c r="D4544" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="4545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4545" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4545" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4545" s="6" t="n">
         <v>8780</v>
       </c>
+      <c r="D4545" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="4546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4546" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4546" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4546" s="6" t="n">
         <v>8778</v>
       </c>
+      <c r="D4546" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="4547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4547" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4547" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4547" s="6" t="n">
         <v>8779</v>
       </c>
+      <c r="D4547" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="4548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4548" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4548" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4548" s="6" t="n">
         <v>8812</v>
@@ -60732,54 +61080,66 @@
     </row>
     <row r="4549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4549" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4549" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4549" s="6" t="n">
         <v>8811</v>
       </c>
+      <c r="D4549" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="4550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4550" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4550" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4550" s="6" t="n">
         <v>8814</v>
       </c>
+      <c r="D4550" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="4551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4551" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4551" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4551" s="6" t="n">
         <v>8810</v>
       </c>
+      <c r="D4551" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="4552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4552" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4552" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4552" s="6" t="n">
         <v>8813</v>
       </c>
+      <c r="D4552" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="4553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4553" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4553" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4553" s="6" t="n">
         <v>8819</v>
@@ -60787,87 +61147,108 @@
     </row>
     <row r="4554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4554" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4554" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4554" s="6" t="n">
         <v>8816</v>
       </c>
+      <c r="D4554" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="4555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4555" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4555" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4555" s="6" t="n">
         <v>8815</v>
       </c>
+      <c r="D4555" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="4556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4556" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4556" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4556" s="6" t="n">
         <v>8822</v>
       </c>
+      <c r="D4556" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="4557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4557" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4557" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4557" s="6" t="n">
         <v>8820</v>
       </c>
+      <c r="D4557" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="4558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4558" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4558" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4558" s="6" t="n">
         <v>8706</v>
       </c>
+      <c r="D4558" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="4559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4559" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4559" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4559" s="6" t="n">
         <v>8821</v>
       </c>
+      <c r="D4559" s="1" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="4560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4560" s="22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B4560" s="22" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4560" s="6" t="n">
         <v>8707</v>
       </c>
+      <c r="D4560" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="4561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4561" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4561" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4561" s="6" t="n">
         <v>11188</v>
@@ -60875,10 +61256,10 @@
     </row>
     <row r="4562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4562" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4562" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4562" s="6" t="n">
         <v>11189</v>
@@ -60886,10 +61267,10 @@
     </row>
     <row r="4563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4563" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4563" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4563" s="6" t="n">
         <v>11190</v>
@@ -60897,10 +61278,10 @@
     </row>
     <row r="4564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4564" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4564" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4564" s="6" t="n">
         <v>11191</v>
@@ -60908,142 +61289,178 @@
     </row>
     <row r="4565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4565" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4565" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4565" s="6" t="n">
         <v>11160</v>
       </c>
+      <c r="D4565" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4566" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4566" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4566" s="6" t="n">
         <v>11162</v>
       </c>
+      <c r="D4566" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4567" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4567" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4567" s="6" t="n">
         <v>11164</v>
       </c>
+      <c r="D4567" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4568" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4568" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4568" s="6" t="n">
         <v>11166</v>
       </c>
+      <c r="D4568" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4569" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4569" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4569" s="6" t="n">
         <v>11168</v>
       </c>
+      <c r="D4569" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4570" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4570" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4570" s="6" t="n">
         <v>11169</v>
       </c>
+      <c r="D4570" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4571" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4571" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4571" s="6" t="n">
         <v>11170</v>
       </c>
+      <c r="D4571" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4572" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4572" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4572" s="6" t="n">
         <v>11172</v>
       </c>
+      <c r="D4572" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4573" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4573" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4573" s="6" t="n">
         <v>11174</v>
       </c>
+      <c r="D4573" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4574" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4574" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4574" s="6" t="n">
         <v>11176</v>
       </c>
+      <c r="D4574" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4575" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4575" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4575" s="6" t="n">
         <v>11177</v>
       </c>
+      <c r="D4575" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4576" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4576" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4576" s="6" t="n">
         <v>11178</v>
       </c>
+      <c r="D4576" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4577" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4577" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4577" s="6" t="n">
         <v>11159</v>
@@ -61051,10 +61468,10 @@
     </row>
     <row r="4578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4578" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4578" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4578" s="6" t="n">
         <v>11161</v>
@@ -61062,10 +61479,10 @@
     </row>
     <row r="4579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4579" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4579" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4579" s="6" t="n">
         <v>11163</v>
@@ -61073,10 +61490,10 @@
     </row>
     <row r="4580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4580" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4580" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4580" s="6" t="n">
         <v>11165</v>
@@ -61084,10 +61501,10 @@
     </row>
     <row r="4581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4581" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4581" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4581" s="6" t="n">
         <v>11167</v>
@@ -61095,10 +61512,10 @@
     </row>
     <row r="4582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4582" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4582" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4582" s="6" t="n">
         <v>11171</v>
@@ -61106,10 +61523,10 @@
     </row>
     <row r="4583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4583" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4583" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4583" s="6" t="n">
         <v>11175</v>
@@ -61117,197 +61534,209 @@
     </row>
     <row r="4584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4584" s="38" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B4584" s="38" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C4584" s="6" t="n">
         <v>11173</v>
       </c>
     </row>
     <row r="4585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4585" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4585" s="50" t="s">
-        <v>368</v>
+      <c r="A4585" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4585" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4585" s="6" t="n">
         <v>2866</v>
       </c>
     </row>
     <row r="4586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4586" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4586" s="50" t="s">
-        <v>368</v>
+      <c r="A4586" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4586" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4586" s="6" t="n">
         <v>2867</v>
       </c>
     </row>
     <row r="4587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4587" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4587" s="50" t="s">
-        <v>368</v>
+      <c r="A4587" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4587" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4587" s="6" t="n">
         <v>2868</v>
       </c>
     </row>
     <row r="4588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4588" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4588" s="50" t="s">
-        <v>368</v>
+      <c r="A4588" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4588" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4588" s="6" t="n">
         <v>7914</v>
       </c>
     </row>
     <row r="4589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4589" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4589" s="50" t="s">
-        <v>368</v>
+      <c r="A4589" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4589" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4589" s="6" t="n">
         <v>7921</v>
       </c>
     </row>
     <row r="4590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4590" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4590" s="50" t="s">
-        <v>368</v>
+      <c r="A4590" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4590" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4590" s="6" t="n">
         <v>7917</v>
       </c>
     </row>
     <row r="4591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4591" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4591" s="50" t="s">
-        <v>368</v>
+      <c r="A4591" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4591" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4591" s="6" t="n">
         <v>7915</v>
       </c>
     </row>
     <row r="4592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4592" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4592" s="50" t="s">
-        <v>368</v>
+      <c r="A4592" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4592" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4592" s="6" t="n">
         <v>7916</v>
       </c>
     </row>
     <row r="4593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4593" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4593" s="50" t="s">
-        <v>368</v>
+      <c r="A4593" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4593" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4593" s="6" t="n">
         <v>7913</v>
       </c>
     </row>
     <row r="4594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4594" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4594" s="50" t="s">
-        <v>368</v>
+      <c r="A4594" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4594" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4594" s="6" t="n">
         <v>7918</v>
       </c>
     </row>
     <row r="4595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4595" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4595" s="50" t="s">
-        <v>368</v>
+      <c r="A4595" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4595" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4595" s="6" t="n">
         <v>7919</v>
       </c>
     </row>
     <row r="4596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4596" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4596" s="50" t="s">
-        <v>368</v>
+      <c r="A4596" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4596" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="C4596" s="6" t="n">
         <v>7920</v>
       </c>
     </row>
     <row r="4597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4597" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4597" s="51" t="s">
-        <v>370</v>
+      <c r="A4597" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4597" s="50" t="s">
+        <v>405</v>
       </c>
       <c r="C4597" s="6" t="n">
         <v>7922</v>
       </c>
+      <c r="D4597" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="4598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4598" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4598" s="51" t="s">
-        <v>370</v>
+      <c r="A4598" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4598" s="50" t="s">
+        <v>405</v>
       </c>
       <c r="C4598" s="6" t="n">
         <v>7923</v>
       </c>
+      <c r="D4598" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="4599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4599" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4599" s="51" t="s">
-        <v>370</v>
+      <c r="A4599" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4599" s="50" t="s">
+        <v>405</v>
       </c>
       <c r="C4599" s="6" t="n">
         <v>7924</v>
       </c>
+      <c r="D4599" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="4600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4600" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4600" s="51" t="s">
-        <v>370</v>
+      <c r="A4600" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4600" s="50" t="s">
+        <v>405</v>
       </c>
       <c r="C4600" s="6" t="n">
         <v>7925</v>
       </c>
+      <c r="D4600" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="4601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4601" s="20" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B4601" s="20" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C4601" s="6" t="n">
         <v>7929</v>
@@ -61315,21 +61744,24 @@
     </row>
     <row r="4602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4602" s="20" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B4602" s="20" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C4602" s="6" t="n">
         <v>7936</v>
       </c>
+      <c r="D4602" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="4603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4603" s="20" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B4603" s="20" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C4603" s="6" t="n">
         <v>7934</v>
@@ -61337,10 +61769,10 @@
     </row>
     <row r="4604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4604" s="20" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B4604" s="20" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C4604" s="6" t="n">
         <v>217934</v>
@@ -61348,10 +61780,10 @@
     </row>
     <row r="4605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4605" s="20" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B4605" s="20" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C4605" s="6" t="n">
         <v>7935</v>
@@ -61359,10 +61791,10 @@
     </row>
     <row r="4606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4606" s="20" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B4606" s="20" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C4606" s="6" t="n">
         <v>217935</v>
@@ -61370,318 +61802,354 @@
     </row>
     <row r="4607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4607" s="38" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="B4607" s="38" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="C4607" s="6" t="n">
         <v>7926</v>
       </c>
+      <c r="D4607" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="4608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4608" s="38" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="B4608" s="38" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="C4608" s="6" t="n">
         <v>7900</v>
       </c>
+      <c r="D4608" s="1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="4609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4609" s="38" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="B4609" s="38" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="C4609" s="6" t="n">
         <v>7901</v>
       </c>
+      <c r="D4609" s="1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="4610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4610" s="38" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="B4610" s="38" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="C4610" s="6" t="n">
         <v>7902</v>
       </c>
+      <c r="D4610" s="1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="4611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4611" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4611" s="52" t="s">
-        <v>376</v>
+      <c r="A4611" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4611" s="51" t="s">
+        <v>413</v>
       </c>
       <c r="C4611" s="6" t="n">
         <v>8990</v>
       </c>
+      <c r="D4611" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="4612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4612" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4612" s="52" t="s">
-        <v>376</v>
+      <c r="A4612" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4612" s="51" t="s">
+        <v>413</v>
       </c>
       <c r="C4612" s="6" t="n">
         <v>7677</v>
       </c>
+      <c r="D4612" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="4613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4613" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4613" s="52" t="s">
-        <v>376</v>
+      <c r="A4613" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4613" s="51" t="s">
+        <v>413</v>
       </c>
       <c r="C4613" s="6" t="n">
         <v>6663</v>
       </c>
+      <c r="D4613" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="4614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4614" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4614" s="52" t="s">
-        <v>376</v>
+      <c r="A4614" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4614" s="51" t="s">
+        <v>413</v>
       </c>
       <c r="C4614" s="6" t="n">
         <v>6664</v>
       </c>
+      <c r="D4614" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="4615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4615" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4615" s="52" t="s">
-        <v>376</v>
+      <c r="A4615" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4615" s="51" t="s">
+        <v>413</v>
       </c>
       <c r="C4615" s="6" t="n">
         <v>7676</v>
       </c>
+      <c r="D4615" s="1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="4616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4616" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4616" s="52" t="s">
-        <v>376</v>
+      <c r="A4616" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4616" s="51" t="s">
+        <v>413</v>
       </c>
       <c r="C4616" s="6" t="n">
         <v>7736</v>
       </c>
+      <c r="D4616" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="4617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4617" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4617" s="52" t="s">
-        <v>376</v>
+      <c r="A4617" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4617" s="51" t="s">
+        <v>413</v>
       </c>
       <c r="C4617" s="6" t="n">
         <v>7737</v>
       </c>
+      <c r="D4617" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="4618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4618" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4618" s="52" t="s">
-        <v>376</v>
+      <c r="A4618" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4618" s="51" t="s">
+        <v>413</v>
       </c>
       <c r="C4618" s="6" t="n">
         <v>7738</v>
       </c>
+      <c r="D4618" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="4619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4619" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4619" s="50" t="s">
-        <v>378</v>
+      <c r="A4619" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4619" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4619" s="6" t="n">
         <v>7849</v>
       </c>
     </row>
     <row r="4620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4620" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4620" s="50" t="s">
-        <v>378</v>
+      <c r="A4620" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4620" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4620" s="6" t="n">
         <v>7850</v>
       </c>
     </row>
     <row r="4621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4621" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4621" s="50" t="s">
-        <v>378</v>
+      <c r="A4621" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4621" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4621" s="6" t="n">
         <v>7851</v>
       </c>
     </row>
     <row r="4622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4622" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4622" s="50" t="s">
-        <v>378</v>
+      <c r="A4622" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4622" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4622" s="6" t="n">
         <v>23038</v>
       </c>
     </row>
     <row r="4623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4623" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4623" s="50" t="s">
-        <v>378</v>
+      <c r="A4623" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4623" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4623" s="6" t="n">
         <v>23039</v>
       </c>
     </row>
     <row r="4624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4624" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4624" s="50" t="s">
-        <v>378</v>
+      <c r="A4624" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4624" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4624" s="6" t="n">
         <v>23040</v>
       </c>
     </row>
     <row r="4625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4625" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4625" s="50" t="s">
-        <v>378</v>
+      <c r="A4625" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4625" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4625" s="6" t="n">
         <v>7831</v>
       </c>
     </row>
     <row r="4626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4626" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4626" s="50" t="s">
-        <v>378</v>
+      <c r="A4626" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4626" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4626" s="6" t="n">
         <v>7832</v>
       </c>
     </row>
     <row r="4627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4627" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4627" s="50" t="s">
-        <v>378</v>
+      <c r="A4627" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4627" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4627" s="6" t="n">
         <v>7833</v>
       </c>
     </row>
     <row r="4628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4628" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4628" s="50" t="s">
-        <v>378</v>
+      <c r="A4628" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4628" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4628" s="6" t="n">
         <v>7834</v>
       </c>
     </row>
     <row r="4629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4629" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4629" s="50" t="s">
-        <v>378</v>
+      <c r="A4629" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4629" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4629" s="6" t="n">
         <v>23035</v>
       </c>
     </row>
     <row r="4630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4630" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4630" s="50" t="s">
-        <v>378</v>
+      <c r="A4630" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4630" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4630" s="6" t="n">
         <v>23036</v>
       </c>
     </row>
     <row r="4631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4631" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4631" s="50" t="s">
-        <v>378</v>
+      <c r="A4631" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4631" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4631" s="6" t="n">
         <v>23037</v>
       </c>
     </row>
     <row r="4632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4632" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4632" s="50" t="s">
-        <v>378</v>
+      <c r="A4632" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4632" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4632" s="6" t="n">
         <v>7835</v>
       </c>
     </row>
     <row r="4633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4633" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4633" s="50" t="s">
-        <v>378</v>
+      <c r="A4633" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4633" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C4633" s="6" t="n">
         <v>7836</v>
       </c>
     </row>
     <row r="4634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4634" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4634" s="51" t="s">
-        <v>380</v>
+      <c r="A4634" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4634" s="50" t="s">
+        <v>423</v>
       </c>
       <c r="C4634" s="6" t="n">
         <v>23048</v>
       </c>
     </row>
     <row r="4635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4635" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4635" s="51" t="s">
-        <v>380</v>
+      <c r="A4635" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4635" s="50" t="s">
+        <v>423</v>
       </c>
       <c r="C4635" s="6" t="n">
         <v>23047</v>
@@ -61689,10 +62157,10 @@
     </row>
     <row r="4636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4636" s="38" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B4636" s="38" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="C4636" s="6" t="n">
         <v>11179</v>
@@ -61700,10 +62168,10 @@
     </row>
     <row r="4637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4637" s="38" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B4637" s="38" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="C4637" s="6" t="n">
         <v>11180</v>
@@ -61711,10 +62179,10 @@
     </row>
     <row r="4638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4638" s="38" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B4638" s="38" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="C4638" s="6" t="n">
         <v>11181</v>
@@ -61722,10 +62190,10 @@
     </row>
     <row r="4639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4639" s="38" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B4639" s="38" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="C4639" s="6" t="n">
         <v>11182</v>
@@ -61733,10 +62201,10 @@
     </row>
     <row r="4640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4640" s="38" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B4640" s="38" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="C4640" s="6" t="n">
         <v>8659</v>
@@ -61744,10 +62212,10 @@
     </row>
     <row r="4641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4641" s="38" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B4641" s="38" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="C4641" s="6" t="n">
         <v>8660</v>
@@ -61755,10 +62223,10 @@
     </row>
     <row r="4642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4642" s="37" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B4642" s="37" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C4642" s="45" t="n">
         <v>2998</v>
@@ -61766,10 +62234,10 @@
     </row>
     <row r="4643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4643" s="37" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B4643" s="37" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C4643" s="45" t="n">
         <v>2998</v>
@@ -61777,10 +62245,10 @@
     </row>
     <row r="4644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4644" s="37" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B4644" s="37" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C4644" s="45" t="n">
         <v>2998</v>
@@ -61788,10 +62256,10 @@
     </row>
     <row r="4645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4645" s="37" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B4645" s="37" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C4645" s="45" t="n">
         <v>2998</v>
@@ -61799,10 +62267,10 @@
     </row>
     <row r="4646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4646" s="37" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B4646" s="37" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C4646" s="45" t="n">
         <v>2998</v>
@@ -61810,10 +62278,10 @@
     </row>
     <row r="4647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4647" s="37" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B4647" s="37" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C4647" s="45" t="n">
         <v>2998</v>
@@ -61821,197 +62289,197 @@
     </row>
     <row r="4648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4648" s="37" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B4648" s="37" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C4648" s="45" t="n">
         <v>2998</v>
       </c>
     </row>
     <row r="4649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4649" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="B4649" s="53" t="s">
-        <v>386</v>
+      <c r="A4649" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4649" s="52" t="s">
+        <v>429</v>
       </c>
       <c r="C4649" s="45" t="n">
         <v>2750</v>
       </c>
     </row>
     <row r="4650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4650" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="B4650" s="53" t="s">
-        <v>386</v>
+      <c r="A4650" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4650" s="52" t="s">
+        <v>429</v>
       </c>
       <c r="C4650" s="45" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="4651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4651" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="B4651" s="53" t="s">
-        <v>386</v>
+      <c r="A4651" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4651" s="52" t="s">
+        <v>429</v>
       </c>
       <c r="C4651" s="45" t="n">
         <v>2757</v>
       </c>
     </row>
     <row r="4652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4652" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4652" s="54" t="s">
-        <v>388</v>
+      <c r="A4652" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4652" s="53" t="s">
+        <v>431</v>
       </c>
       <c r="C4652" s="45" t="n">
         <v>7694</v>
       </c>
     </row>
     <row r="4653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4653" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4653" s="54" t="s">
-        <v>388</v>
+      <c r="A4653" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4653" s="53" t="s">
+        <v>431</v>
       </c>
       <c r="C4653" s="45" t="n">
         <v>7695</v>
       </c>
     </row>
     <row r="4654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4654" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4654" s="54" t="s">
-        <v>388</v>
+      <c r="A4654" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4654" s="53" t="s">
+        <v>431</v>
       </c>
       <c r="C4654" s="45" t="n">
         <v>1497</v>
       </c>
     </row>
     <row r="4655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4655" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4655" s="54" t="s">
-        <v>388</v>
+      <c r="A4655" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4655" s="53" t="s">
+        <v>431</v>
       </c>
       <c r="C4655" s="45" t="n">
         <v>1498</v>
       </c>
     </row>
     <row r="4656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4656" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="B4656" s="55" t="s">
-        <v>390</v>
+      <c r="A4656" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4656" s="54" t="s">
+        <v>433</v>
       </c>
       <c r="C4656" s="45" t="n">
         <v>8080</v>
       </c>
     </row>
     <row r="4657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4657" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4657" s="56" t="s">
-        <v>392</v>
+      <c r="A4657" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4657" s="55" t="s">
+        <v>435</v>
       </c>
       <c r="C4657" s="45" t="n">
         <v>3005</v>
       </c>
     </row>
     <row r="4658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4658" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4658" s="56" t="s">
-        <v>392</v>
+      <c r="A4658" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4658" s="55" t="s">
+        <v>435</v>
       </c>
       <c r="C4658" s="45" t="n">
         <v>2699</v>
       </c>
     </row>
     <row r="4659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4659" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4659" s="56" t="s">
-        <v>392</v>
+      <c r="A4659" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4659" s="55" t="s">
+        <v>435</v>
       </c>
       <c r="C4659" s="45" t="n">
         <v>2910</v>
       </c>
     </row>
     <row r="4660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4660" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4660" s="56" t="s">
-        <v>392</v>
+      <c r="A4660" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4660" s="55" t="s">
+        <v>435</v>
       </c>
       <c r="C4660" s="45" t="n">
         <v>2628</v>
       </c>
     </row>
     <row r="4661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4661" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4661" s="47" t="s">
-        <v>394</v>
+      <c r="A4661" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4661" s="46" t="s">
+        <v>437</v>
       </c>
       <c r="C4661" s="45" t="n">
         <v>3006</v>
       </c>
     </row>
     <row r="4662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4662" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4662" s="47" t="s">
-        <v>394</v>
+      <c r="A4662" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4662" s="46" t="s">
+        <v>437</v>
       </c>
       <c r="C4662" s="45" t="n">
         <v>3025</v>
       </c>
     </row>
     <row r="4663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4663" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4663" s="47" t="s">
-        <v>394</v>
+      <c r="A4663" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4663" s="46" t="s">
+        <v>437</v>
       </c>
       <c r="C4663" s="45" t="n">
         <v>3026</v>
       </c>
     </row>
     <row r="4664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4664" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4664" s="47" t="s">
-        <v>394</v>
+      <c r="A4664" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4664" s="46" t="s">
+        <v>437</v>
       </c>
       <c r="C4664" s="45" t="n">
         <v>3027</v>
       </c>
     </row>
     <row r="4665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4665" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4665" s="47" t="s">
-        <v>394</v>
+      <c r="A4665" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4665" s="46" t="s">
+        <v>437</v>
       </c>
       <c r="C4665" s="45" t="n">
         <v>3010</v>
@@ -62019,10 +62487,10 @@
     </row>
     <row r="4666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4666" s="42" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="B4666" s="42" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="C4666" s="45" t="n">
         <v>3014</v>
@@ -62030,10 +62498,10 @@
     </row>
     <row r="4667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4667" s="42" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="B4667" s="42" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="C4667" s="45" t="n">
         <v>3015</v>
@@ -62041,10 +62509,10 @@
     </row>
     <row r="4668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4668" s="5" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="B4668" s="5" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="C4668" s="45" t="n">
         <v>405851</v>
@@ -62052,10 +62520,10 @@
     </row>
     <row r="4669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4669" s="5" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="B4669" s="5" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="C4669" s="45" t="n">
         <v>405861</v>
@@ -62063,120 +62531,120 @@
     </row>
     <row r="4670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4670" s="5" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="B4670" s="5" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="C4670" s="45" t="n">
         <v>405871</v>
       </c>
     </row>
     <row r="4671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4671" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4671" s="57" t="s">
-        <v>400</v>
+      <c r="A4671" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4671" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4671" s="6" t="n">
         <v>10275</v>
       </c>
     </row>
     <row r="4672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4672" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4672" s="57" t="s">
-        <v>400</v>
+      <c r="A4672" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4672" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4672" s="6" t="n">
         <v>10276</v>
       </c>
     </row>
     <row r="4673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4673" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4673" s="57" t="s">
-        <v>400</v>
+      <c r="A4673" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4673" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4673" s="6" t="n">
         <v>6882</v>
       </c>
     </row>
     <row r="4674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4674" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4674" s="57" t="s">
-        <v>400</v>
+      <c r="A4674" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4674" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4674" s="6" t="n">
         <v>6883</v>
       </c>
     </row>
     <row r="4675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4675" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4675" s="57" t="s">
-        <v>400</v>
+      <c r="A4675" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4675" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4675" s="6" t="n">
         <v>6884</v>
       </c>
     </row>
     <row r="4676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4676" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4676" s="57" t="s">
-        <v>400</v>
+      <c r="A4676" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4676" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4676" s="6" t="n">
         <v>6885</v>
       </c>
     </row>
     <row r="4677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4677" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4677" s="57" t="s">
-        <v>400</v>
+      <c r="A4677" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4677" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4677" s="6" t="n">
         <v>6888</v>
       </c>
     </row>
     <row r="4678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4678" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4678" s="57" t="s">
-        <v>400</v>
+      <c r="A4678" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4678" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4678" s="6" t="n">
         <v>6886</v>
       </c>
     </row>
     <row r="4679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4679" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4679" s="57" t="s">
-        <v>400</v>
+      <c r="A4679" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4679" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4679" s="6" t="n">
         <v>6887</v>
       </c>
     </row>
     <row r="4680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4680" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4680" s="57" t="s">
-        <v>400</v>
+      <c r="A4680" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4680" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="C4680" s="6" t="n">
         <v>6889</v>
@@ -62184,10 +62652,10 @@
     </row>
     <row r="4681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4681" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4681" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4681" s="6" t="n">
         <v>6890</v>
@@ -62195,10 +62663,10 @@
     </row>
     <row r="4682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4682" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4682" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4682" s="6" t="n">
         <v>6891</v>
@@ -62206,10 +62674,10 @@
     </row>
     <row r="4683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4683" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4683" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4683" s="6" t="n">
         <v>6892</v>
@@ -62217,10 +62685,10 @@
     </row>
     <row r="4684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4684" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4684" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4684" s="6" t="n">
         <v>6893</v>
@@ -62228,10 +62696,10 @@
     </row>
     <row r="4685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4685" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4685" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4685" s="6" t="n">
         <v>6894</v>
@@ -62239,10 +62707,10 @@
     </row>
     <row r="4686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4686" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4686" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4686" s="6" t="n">
         <v>6896</v>
@@ -62250,10 +62718,10 @@
     </row>
     <row r="4687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4687" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4687" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4687" s="6" t="n">
         <v>6897</v>
@@ -62261,10 +62729,10 @@
     </row>
     <row r="4688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4688" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4688" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4688" s="6" t="n">
         <v>6898</v>
@@ -62272,10 +62740,10 @@
     </row>
     <row r="4689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4689" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4689" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4689" s="6" t="n">
         <v>6899</v>
@@ -62283,10 +62751,10 @@
     </row>
     <row r="4690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4690" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4690" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4690" s="6" t="n">
         <v>6900</v>
@@ -62294,10 +62762,10 @@
     </row>
     <row r="4691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4691" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4691" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4691" s="6" t="n">
         <v>6901</v>
@@ -62305,10 +62773,10 @@
     </row>
     <row r="4692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4692" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4692" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4692" s="6" t="n">
         <v>6902</v>
@@ -62316,1682 +62784,1682 @@
     </row>
     <row r="4693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4693" s="9" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B4693" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C4693" s="6" t="n">
         <v>6895</v>
       </c>
     </row>
     <row r="4694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4694" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4694" s="58" t="s">
-        <v>403</v>
+      <c r="A4694" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4694" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4694" s="6" t="n">
         <v>8651</v>
       </c>
     </row>
     <row r="4695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4695" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4695" s="58" t="s">
-        <v>403</v>
+      <c r="A4695" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4695" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4695" s="6" t="n">
         <v>11412</v>
       </c>
     </row>
     <row r="4696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4696" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4696" s="58" t="s">
-        <v>403</v>
+      <c r="A4696" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4696" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4696" s="6" t="n">
         <v>6781</v>
       </c>
     </row>
     <row r="4697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4697" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4697" s="58" t="s">
-        <v>403</v>
+      <c r="A4697" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4697" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4697" s="6" t="n">
         <v>6782</v>
       </c>
     </row>
     <row r="4698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4698" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4698" s="58" t="s">
-        <v>403</v>
+      <c r="A4698" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4698" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4698" s="6" t="n">
         <v>7696</v>
       </c>
     </row>
     <row r="4699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4699" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4699" s="58" t="s">
-        <v>403</v>
+      <c r="A4699" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4699" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4699" s="6" t="n">
         <v>7698</v>
       </c>
     </row>
     <row r="4700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4700" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4700" s="58" t="s">
-        <v>403</v>
+      <c r="A4700" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4700" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4700" s="6" t="n">
         <v>7697</v>
       </c>
     </row>
     <row r="4701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4701" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4701" s="58" t="s">
-        <v>403</v>
+      <c r="A4701" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4701" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4701" s="6" t="n">
         <v>8415</v>
       </c>
     </row>
     <row r="4702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4702" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4702" s="58" t="s">
-        <v>403</v>
+      <c r="A4702" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4702" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4702" s="6" t="n">
         <v>8427</v>
       </c>
     </row>
     <row r="4703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4703" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4703" s="58" t="s">
-        <v>403</v>
+      <c r="A4703" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4703" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4703" s="6" t="n">
         <v>8416</v>
       </c>
     </row>
     <row r="4704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4704" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4704" s="58" t="s">
-        <v>403</v>
+      <c r="A4704" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4704" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4704" s="6" t="n">
         <v>8428</v>
       </c>
     </row>
     <row r="4705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4705" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4705" s="58" t="s">
-        <v>403</v>
+      <c r="A4705" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4705" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4705" s="6" t="n">
         <v>8421</v>
       </c>
     </row>
     <row r="4706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4706" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4706" s="58" t="s">
-        <v>403</v>
+      <c r="A4706" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4706" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4706" s="6" t="n">
         <v>8797</v>
       </c>
     </row>
     <row r="4707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4707" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4707" s="58" t="s">
-        <v>403</v>
+      <c r="A4707" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4707" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4707" s="6" t="n">
         <v>8798</v>
       </c>
     </row>
     <row r="4708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4708" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4708" s="58" t="s">
-        <v>403</v>
+      <c r="A4708" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4708" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4708" s="6" t="n">
         <v>8446</v>
       </c>
     </row>
     <row r="4709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4709" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4709" s="58" t="s">
-        <v>403</v>
+      <c r="A4709" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4709" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4709" s="6" t="n">
         <v>8467</v>
       </c>
     </row>
     <row r="4710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4710" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4710" s="58" t="s">
-        <v>403</v>
+      <c r="A4710" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4710" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4710" s="6" t="n">
         <v>8469</v>
       </c>
     </row>
     <row r="4711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4711" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4711" s="58" t="s">
-        <v>403</v>
+      <c r="A4711" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4711" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4711" s="6" t="n">
         <v>8468</v>
       </c>
     </row>
     <row r="4712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4712" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4712" s="58" t="s">
-        <v>403</v>
+      <c r="A4712" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4712" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4712" s="6" t="n">
         <v>7908</v>
       </c>
     </row>
     <row r="4713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4713" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4713" s="58" t="s">
-        <v>403</v>
+      <c r="A4713" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4713" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4713" s="6" t="n">
         <v>7927</v>
       </c>
     </row>
     <row r="4714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4714" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4714" s="58" t="s">
-        <v>403</v>
+      <c r="A4714" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4714" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4714" s="6" t="n">
         <v>7928</v>
       </c>
     </row>
     <row r="4715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4715" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4715" s="58" t="s">
-        <v>403</v>
+      <c r="A4715" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4715" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4715" s="6" t="n">
         <v>8466</v>
       </c>
     </row>
     <row r="4716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4716" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4716" s="58" t="s">
-        <v>403</v>
+      <c r="A4716" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4716" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4716" s="6" t="n">
         <v>7751</v>
       </c>
     </row>
     <row r="4717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4717" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4717" s="58" t="s">
-        <v>403</v>
+      <c r="A4717" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4717" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4717" s="6" t="n">
         <v>7752</v>
       </c>
     </row>
     <row r="4718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4718" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4718" s="58" t="s">
-        <v>403</v>
+      <c r="A4718" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4718" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4718" s="6" t="n">
         <v>7749</v>
       </c>
     </row>
     <row r="4719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4719" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4719" s="58" t="s">
-        <v>403</v>
+      <c r="A4719" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4719" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="C4719" s="6" t="n">
         <v>7750</v>
       </c>
     </row>
     <row r="4720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4720" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4720" s="59" t="s">
-        <v>405</v>
+      <c r="A4720" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4720" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4720" s="6" t="n">
         <v>11517</v>
       </c>
     </row>
     <row r="4721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4721" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4721" s="59" t="s">
-        <v>405</v>
+      <c r="A4721" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4721" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4721" s="6" t="n">
         <v>11518</v>
       </c>
     </row>
     <row r="4722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4722" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4722" s="59" t="s">
-        <v>405</v>
+      <c r="A4722" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4722" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4722" s="6" t="n">
         <v>11519</v>
       </c>
     </row>
     <row r="4723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4723" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4723" s="59" t="s">
-        <v>405</v>
+      <c r="A4723" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4723" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4723" s="6" t="n">
         <v>11561</v>
       </c>
     </row>
     <row r="4724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4724" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4724" s="59" t="s">
-        <v>405</v>
+      <c r="A4724" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4724" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4724" s="6" t="n">
         <v>11809</v>
       </c>
     </row>
     <row r="4725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4725" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4725" s="59" t="s">
-        <v>405</v>
+      <c r="A4725" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4725" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4725" s="6" t="n">
         <v>11633</v>
       </c>
     </row>
     <row r="4726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4726" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4726" s="59" t="s">
-        <v>405</v>
+      <c r="A4726" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4726" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4726" s="6" t="n">
         <v>11353</v>
       </c>
     </row>
     <row r="4727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4727" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4727" s="59" t="s">
-        <v>405</v>
+      <c r="A4727" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4727" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4727" s="6" t="n">
         <v>11817</v>
       </c>
     </row>
     <row r="4728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4728" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4728" s="59" t="s">
-        <v>405</v>
+      <c r="A4728" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4728" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4728" s="6" t="n">
         <v>11354</v>
       </c>
     </row>
     <row r="4729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4729" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4729" s="59" t="s">
-        <v>405</v>
+      <c r="A4729" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4729" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4729" s="6" t="n">
         <v>11544</v>
       </c>
     </row>
     <row r="4730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4730" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4730" s="59" t="s">
-        <v>405</v>
+      <c r="A4730" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4730" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4730" s="6" t="n">
         <v>11562</v>
       </c>
     </row>
     <row r="4731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4731" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4731" s="59" t="s">
-        <v>405</v>
+      <c r="A4731" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4731" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4731" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4732" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4732" s="59" t="s">
-        <v>405</v>
+      <c r="A4732" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4732" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4732" s="6" t="n">
         <v>11550</v>
       </c>
     </row>
     <row r="4733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4733" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4733" s="59" t="s">
-        <v>405</v>
+      <c r="A4733" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4733" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4733" s="6" t="n">
         <v>11553</v>
       </c>
     </row>
     <row r="4734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4734" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4734" s="59" t="s">
-        <v>405</v>
+      <c r="A4734" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4734" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4734" s="6" t="n">
         <v>11563</v>
       </c>
     </row>
     <row r="4735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4735" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4735" s="59" t="s">
-        <v>405</v>
+      <c r="A4735" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4735" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4735" s="6" t="n">
         <v>11551</v>
       </c>
     </row>
     <row r="4736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4736" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4736" s="59" t="s">
-        <v>405</v>
+      <c r="A4736" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4736" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4736" s="6" t="n">
         <v>11552</v>
       </c>
     </row>
     <row r="4737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4737" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4737" s="59" t="s">
-        <v>405</v>
+      <c r="A4737" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4737" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4737" s="6" t="n">
         <v>11554</v>
       </c>
     </row>
     <row r="4738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4738" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4738" s="59" t="s">
-        <v>405</v>
+      <c r="A4738" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4738" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4738" s="6" t="n">
         <v>11369</v>
       </c>
     </row>
     <row r="4739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4739" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4739" s="59" t="s">
-        <v>405</v>
+      <c r="A4739" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4739" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4739" s="6" t="n">
         <v>11370</v>
       </c>
     </row>
     <row r="4740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4740" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4740" s="59" t="s">
-        <v>405</v>
+      <c r="A4740" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4740" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4740" s="6" t="n">
         <v>11726</v>
       </c>
     </row>
     <row r="4741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4741" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4741" s="59" t="s">
-        <v>405</v>
+      <c r="A4741" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4741" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4741" s="6" t="n">
         <v>11820</v>
       </c>
     </row>
     <row r="4742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4742" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4742" s="59" t="s">
-        <v>405</v>
+      <c r="A4742" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4742" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4742" s="6" t="n">
         <v>11371</v>
       </c>
     </row>
     <row r="4743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4743" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4743" s="59" t="s">
-        <v>405</v>
+      <c r="A4743" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4743" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4743" s="6" t="n">
         <v>11372</v>
       </c>
     </row>
     <row r="4744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4744" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4744" s="59" t="s">
-        <v>405</v>
+      <c r="A4744" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4744" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4744" s="6" t="n">
         <v>11373</v>
       </c>
     </row>
     <row r="4745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4745" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4745" s="59" t="s">
-        <v>405</v>
+      <c r="A4745" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4745" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4745" s="6" t="n">
         <v>11381</v>
       </c>
     </row>
     <row r="4746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4746" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4746" s="59" t="s">
-        <v>405</v>
+      <c r="A4746" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4746" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4746" s="6" t="n">
         <v>11382</v>
       </c>
     </row>
     <row r="4747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4747" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4747" s="59" t="s">
-        <v>405</v>
+      <c r="A4747" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4747" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4747" s="6" t="n">
         <v>11383</v>
       </c>
     </row>
     <row r="4748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4748" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4748" s="59" t="s">
-        <v>405</v>
+      <c r="A4748" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4748" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4748" s="6" t="n">
         <v>11630</v>
       </c>
     </row>
     <row r="4749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4749" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4749" s="59" t="s">
-        <v>405</v>
+      <c r="A4749" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4749" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4749" s="6" t="n">
         <v>11507</v>
       </c>
     </row>
     <row r="4750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4750" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4750" s="59" t="s">
-        <v>405</v>
+      <c r="A4750" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4750" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4750" s="6" t="n">
         <v>11812</v>
       </c>
     </row>
     <row r="4751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4751" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4751" s="59" t="s">
-        <v>405</v>
+      <c r="A4751" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4751" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4751" s="6" t="n">
         <v>11521</v>
       </c>
     </row>
     <row r="4752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4752" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4752" s="59" t="s">
-        <v>405</v>
+      <c r="A4752" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4752" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4752" s="6" t="n">
         <v>11631</v>
       </c>
     </row>
     <row r="4753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4753" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4753" s="59" t="s">
-        <v>405</v>
+      <c r="A4753" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4753" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4753" s="6" t="n">
         <v>11520</v>
       </c>
     </row>
     <row r="4754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4754" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4754" s="59" t="s">
-        <v>405</v>
+      <c r="A4754" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4754" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4754" s="6" t="n">
         <v>11576</v>
       </c>
     </row>
     <row r="4755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4755" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4755" s="59" t="s">
-        <v>405</v>
+      <c r="A4755" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4755" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4755" s="6" t="n">
         <v>11725</v>
       </c>
     </row>
     <row r="4756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4756" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4756" s="59" t="s">
-        <v>405</v>
+      <c r="A4756" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4756" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4756" s="6" t="n">
         <v>11547</v>
       </c>
     </row>
     <row r="4757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4757" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4757" s="59" t="s">
-        <v>405</v>
+      <c r="A4757" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4757" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4757" s="6" t="n">
         <v>11376</v>
       </c>
     </row>
     <row r="4758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4758" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4758" s="59" t="s">
-        <v>405</v>
+      <c r="A4758" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4758" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4758" s="6" t="n">
         <v>11509</v>
       </c>
     </row>
     <row r="4759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4759" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4759" s="59" t="s">
-        <v>405</v>
+      <c r="A4759" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4759" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4759" s="6" t="n">
         <v>11514</v>
       </c>
     </row>
     <row r="4760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4760" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4760" s="59" t="s">
-        <v>405</v>
+      <c r="A4760" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4760" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4760" s="6" t="n">
         <v>11537</v>
       </c>
     </row>
     <row r="4761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4761" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4761" s="59" t="s">
-        <v>405</v>
+      <c r="A4761" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4761" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4761" s="6" t="n">
         <v>11803</v>
       </c>
     </row>
     <row r="4762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4762" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4762" s="59" t="s">
-        <v>405</v>
+      <c r="A4762" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4762" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4762" s="6" t="n">
         <v>11743</v>
       </c>
     </row>
     <row r="4763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4763" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4763" s="59" t="s">
-        <v>405</v>
+      <c r="A4763" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4763" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4763" s="6" t="n">
         <v>11788</v>
       </c>
     </row>
     <row r="4764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4764" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4764" s="59" t="s">
-        <v>405</v>
+      <c r="A4764" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4764" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4764" s="6" t="n">
         <v>11542</v>
       </c>
     </row>
     <row r="4765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4765" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4765" s="59" t="s">
-        <v>405</v>
+      <c r="A4765" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4765" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4765" s="6" t="n">
         <v>11543</v>
       </c>
     </row>
     <row r="4766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4766" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4766" s="59" t="s">
-        <v>405</v>
+      <c r="A4766" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4766" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4766" s="6" t="n">
         <v>11724</v>
       </c>
     </row>
     <row r="4767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4767" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4767" s="59" t="s">
-        <v>405</v>
+      <c r="A4767" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4767" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4767" s="6" t="n">
         <v>11614</v>
       </c>
     </row>
     <row r="4768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4768" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4768" s="59" t="s">
-        <v>405</v>
+      <c r="A4768" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4768" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4768" s="6" t="n">
         <v>11377</v>
       </c>
     </row>
     <row r="4769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4769" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4769" s="59" t="s">
-        <v>405</v>
+      <c r="A4769" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4769" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4769" s="6" t="n">
         <v>11523</v>
       </c>
     </row>
     <row r="4770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4770" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4770" s="59" t="s">
-        <v>405</v>
+      <c r="A4770" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4770" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4770" s="6" t="n">
         <v>11526</v>
       </c>
     </row>
     <row r="4771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4771" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4771" s="59" t="s">
-        <v>405</v>
+      <c r="A4771" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4771" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4771" s="6" t="n">
         <v>11448</v>
       </c>
     </row>
     <row r="4772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4772" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4772" s="59" t="s">
-        <v>405</v>
+      <c r="A4772" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4772" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4772" s="6" t="n">
         <v>11447</v>
       </c>
     </row>
     <row r="4773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4773" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4773" s="59" t="s">
-        <v>405</v>
+      <c r="A4773" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4773" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4773" s="6" t="n">
         <v>11548</v>
       </c>
     </row>
     <row r="4774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4774" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4774" s="59" t="s">
-        <v>405</v>
+      <c r="A4774" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4774" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4774" s="6" t="n">
         <v>11527</v>
       </c>
     </row>
     <row r="4775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4775" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4775" s="59" t="s">
-        <v>405</v>
+      <c r="A4775" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4775" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4775" s="6" t="n">
         <v>11524</v>
       </c>
     </row>
     <row r="4776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4776" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4776" s="59" t="s">
-        <v>405</v>
+      <c r="A4776" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4776" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4776" s="6" t="n">
         <v>11525</v>
       </c>
     </row>
     <row r="4777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4777" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4777" s="59" t="s">
-        <v>405</v>
+      <c r="A4777" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4777" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4777" s="6" t="n">
         <v>11539</v>
       </c>
     </row>
     <row r="4778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4778" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4778" s="59" t="s">
-        <v>405</v>
+      <c r="A4778" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4778" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4778" s="6" t="n">
         <v>11813</v>
       </c>
     </row>
     <row r="4779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4779" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4779" s="59" t="s">
-        <v>405</v>
+      <c r="A4779" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4779" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4779" s="6" t="n">
         <v>11814</v>
       </c>
     </row>
     <row r="4780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4780" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4780" s="59" t="s">
-        <v>405</v>
+      <c r="A4780" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4780" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4780" s="6" t="n">
         <v>11815</v>
       </c>
     </row>
     <row r="4781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4781" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4781" s="59" t="s">
-        <v>405</v>
+      <c r="A4781" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4781" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4781" s="6" t="n">
         <v>11816</v>
       </c>
     </row>
     <row r="4782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4782" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4782" s="59" t="s">
-        <v>405</v>
+      <c r="A4782" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4782" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4782" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4783" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4783" s="59" t="s">
-        <v>405</v>
+      <c r="A4783" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4783" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4783" s="6" t="n">
         <v>11370</v>
       </c>
     </row>
     <row r="4784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4784" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4784" s="59" t="s">
-        <v>405</v>
+      <c r="A4784" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4784" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4784" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4785" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4785" s="59" t="s">
-        <v>405</v>
+      <c r="A4785" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4785" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4785" s="6" t="n">
         <v>11547</v>
       </c>
     </row>
     <row r="4786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4786" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4786" s="59" t="s">
-        <v>405</v>
+      <c r="A4786" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4786" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4786" s="6" t="n">
         <v>11448</v>
       </c>
     </row>
     <row r="4787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4787" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4787" s="59" t="s">
-        <v>405</v>
+      <c r="A4787" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4787" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4787" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4788" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4788" s="59" t="s">
-        <v>405</v>
+      <c r="A4788" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4788" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4788" s="6" t="n">
         <v>11542</v>
       </c>
     </row>
     <row r="4789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4789" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4789" s="59" t="s">
-        <v>405</v>
+      <c r="A4789" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4789" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4789" s="6" t="n">
         <v>11447</v>
       </c>
     </row>
     <row r="4790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4790" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4790" s="59" t="s">
-        <v>405</v>
+      <c r="A4790" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4790" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4790" s="6" t="n">
         <v>11441</v>
       </c>
     </row>
     <row r="4791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4791" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4791" s="59" t="s">
-        <v>405</v>
+      <c r="A4791" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4791" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4791" s="6" t="n">
         <v>11442</v>
       </c>
     </row>
     <row r="4792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4792" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4792" s="59" t="s">
-        <v>405</v>
+      <c r="A4792" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4792" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4792" s="6" t="n">
         <v>11443</v>
       </c>
     </row>
     <row r="4793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4793" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4793" s="59" t="s">
-        <v>405</v>
+      <c r="A4793" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4793" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4793" s="6" t="n">
         <v>11445</v>
       </c>
     </row>
     <row r="4794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4794" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4794" s="59" t="s">
-        <v>405</v>
+      <c r="A4794" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4794" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4794" s="6" t="n">
         <v>11625</v>
       </c>
     </row>
     <row r="4795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4795" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4795" s="59" t="s">
-        <v>405</v>
+      <c r="A4795" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4795" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4795" s="6" t="n">
         <v>11740</v>
       </c>
     </row>
     <row r="4796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4796" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4796" s="59" t="s">
-        <v>405</v>
+      <c r="A4796" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4796" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4796" s="6" t="n">
         <v>11626</v>
       </c>
     </row>
     <row r="4797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4797" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4797" s="59" t="s">
-        <v>405</v>
+      <c r="A4797" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4797" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4797" s="6" t="n">
         <v>11741</v>
       </c>
     </row>
     <row r="4798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4798" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4798" s="59" t="s">
-        <v>405</v>
+      <c r="A4798" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4798" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4798" s="6" t="n">
         <v>11627</v>
       </c>
     </row>
     <row r="4799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4799" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4799" s="59" t="s">
-        <v>405</v>
+      <c r="A4799" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4799" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4799" s="6" t="n">
         <v>11742</v>
       </c>
     </row>
     <row r="4800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4800" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4800" s="59" t="s">
-        <v>405</v>
+      <c r="A4800" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4800" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4800" s="6" t="n">
         <v>11564</v>
       </c>
     </row>
     <row r="4801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4801" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4801" s="59" t="s">
-        <v>405</v>
+      <c r="A4801" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4801" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4801" s="6" t="n">
         <v>11446</v>
       </c>
     </row>
     <row r="4802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4802" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4802" s="59" t="s">
-        <v>405</v>
+      <c r="A4802" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4802" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4802" s="6" t="n">
         <v>11565</v>
       </c>
     </row>
     <row r="4803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4803" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4803" s="59" t="s">
-        <v>405</v>
+      <c r="A4803" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4803" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4803" s="6" t="n">
         <v>11566</v>
       </c>
     </row>
     <row r="4804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4804" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4804" s="59" t="s">
-        <v>405</v>
+      <c r="A4804" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4804" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4804" s="6" t="n">
         <v>11568</v>
       </c>
     </row>
     <row r="4805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4805" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4805" s="59" t="s">
-        <v>405</v>
+      <c r="A4805" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4805" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4805" s="6" t="n">
         <v>11569</v>
       </c>
     </row>
     <row r="4806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4806" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4806" s="59" t="s">
-        <v>405</v>
+      <c r="A4806" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4806" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4806" s="6" t="n">
         <v>118211</v>
       </c>
     </row>
     <row r="4807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4807" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4807" s="59" t="s">
-        <v>405</v>
+      <c r="A4807" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4807" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4807" s="6" t="n">
         <v>118212</v>
       </c>
     </row>
     <row r="4808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4808" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4808" s="59" t="s">
-        <v>405</v>
+      <c r="A4808" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4808" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4808" s="6" t="n">
         <v>118213</v>
       </c>
     </row>
     <row r="4809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4809" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4809" s="59" t="s">
-        <v>405</v>
+      <c r="A4809" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4809" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4809" s="6" t="n">
         <v>118214</v>
       </c>
     </row>
     <row r="4810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4810" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4810" s="59" t="s">
-        <v>405</v>
+      <c r="A4810" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4810" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4810" s="6" t="n">
         <v>118215</v>
       </c>
     </row>
     <row r="4811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4811" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4811" s="59" t="s">
-        <v>405</v>
+      <c r="A4811" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4811" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4811" s="6" t="n">
         <v>118216</v>
       </c>
     </row>
     <row r="4812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4812" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4812" s="59" t="s">
-        <v>405</v>
+      <c r="A4812" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4812" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4812" s="6" t="n">
         <v>118217</v>
       </c>
     </row>
     <row r="4813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4813" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4813" s="59" t="s">
-        <v>405</v>
+      <c r="A4813" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4813" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4813" s="6" t="n">
         <v>118218</v>
       </c>
     </row>
     <row r="4814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4814" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4814" s="59" t="s">
-        <v>405</v>
+      <c r="A4814" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4814" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4814" s="6" t="n">
         <v>118219</v>
       </c>
     </row>
     <row r="4815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4815" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4815" s="59" t="s">
-        <v>405</v>
+      <c r="A4815" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4815" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4815" s="6" t="n">
         <v>118220</v>
       </c>
     </row>
     <row r="4816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4816" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4816" s="59" t="s">
-        <v>405</v>
+      <c r="A4816" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4816" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4816" s="6" t="n">
         <v>118221</v>
       </c>
     </row>
     <row r="4817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4817" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4817" s="59" t="s">
-        <v>405</v>
+      <c r="A4817" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4817" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4817" s="6" t="n">
         <v>118222</v>
       </c>
     </row>
     <row r="4818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4818" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4818" s="59" t="s">
-        <v>405</v>
+      <c r="A4818" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4818" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4818" s="6" t="n">
         <v>118223</v>
       </c>
     </row>
     <row r="4819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4819" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4819" s="59" t="s">
-        <v>405</v>
+      <c r="A4819" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4819" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4819" s="6" t="n">
         <v>11821</v>
       </c>
     </row>
     <row r="4820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4820" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4820" s="59" t="s">
-        <v>405</v>
+      <c r="A4820" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4820" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4820" s="6" t="n">
         <v>11822</v>
       </c>
     </row>
     <row r="4821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4821" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4821" s="59" t="s">
-        <v>405</v>
+      <c r="A4821" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4821" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4821" s="6" t="n">
         <v>11829</v>
       </c>
     </row>
     <row r="4822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4822" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4822" s="59" t="s">
-        <v>405</v>
+      <c r="A4822" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4822" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4822" s="6" t="n">
         <v>11830</v>
       </c>
     </row>
     <row r="4823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4823" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4823" s="59" t="s">
-        <v>405</v>
+      <c r="A4823" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4823" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4823" s="6" t="n">
         <v>11388</v>
       </c>
     </row>
     <row r="4824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4824" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4824" s="59" t="s">
-        <v>405</v>
+      <c r="A4824" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4824" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4824" s="6" t="n">
         <v>11389</v>
       </c>
     </row>
     <row r="4825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4825" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4825" s="59" t="s">
-        <v>405</v>
+      <c r="A4825" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4825" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4825" s="6" t="n">
         <v>11390</v>
       </c>
     </row>
     <row r="4826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4826" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4826" s="59" t="s">
-        <v>405</v>
+      <c r="A4826" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4826" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4826" s="6" t="n">
         <v>11538</v>
       </c>
     </row>
     <row r="4827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4827" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4827" s="59" t="s">
-        <v>405</v>
+      <c r="A4827" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4827" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4827" s="6" t="n">
         <v>11391</v>
       </c>
     </row>
     <row r="4828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4828" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4828" s="59" t="s">
-        <v>405</v>
+      <c r="A4828" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4828" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4828" s="6" t="n">
         <v>11583</v>
       </c>
     </row>
     <row r="4829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4829" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4829" s="59" t="s">
-        <v>405</v>
+      <c r="A4829" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4829" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4829" s="6" t="n">
         <v>11584</v>
       </c>
     </row>
     <row r="4830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4830" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4830" s="59" t="s">
-        <v>405</v>
+      <c r="A4830" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4830" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4830" s="6" t="n">
         <v>11585</v>
       </c>
     </row>
     <row r="4831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4831" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4831" s="59" t="s">
-        <v>405</v>
+      <c r="A4831" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4831" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4831" s="6" t="n">
         <v>11392</v>
       </c>
     </row>
     <row r="4832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4832" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4832" s="59" t="s">
-        <v>405</v>
+      <c r="A4832" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4832" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4832" s="6" t="n">
         <v>11394</v>
       </c>
     </row>
     <row r="4833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4833" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4833" s="59" t="s">
-        <v>405</v>
+      <c r="A4833" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4833" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4833" s="6" t="n">
         <v>11395</v>
       </c>
     </row>
     <row r="4834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4834" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4834" s="59" t="s">
-        <v>405</v>
+      <c r="A4834" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4834" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4834" s="6" t="n">
         <v>11385</v>
       </c>
     </row>
     <row r="4835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4835" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4835" s="59" t="s">
-        <v>405</v>
+      <c r="A4835" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4835" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4835" s="6" t="n">
         <v>11386</v>
       </c>
     </row>
     <row r="4836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4836" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4836" s="59" t="s">
-        <v>405</v>
+      <c r="A4836" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4836" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4836" s="6" t="n">
         <v>11413</v>
       </c>
     </row>
     <row r="4837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4837" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4837" s="59" t="s">
-        <v>405</v>
+      <c r="A4837" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4837" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4837" s="6" t="n">
         <v>11387</v>
       </c>
     </row>
     <row r="4838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4838" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4838" s="59" t="s">
-        <v>405</v>
+      <c r="A4838" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4838" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4838" s="6" t="n">
         <v>11570</v>
       </c>
     </row>
     <row r="4839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4839" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4839" s="59" t="s">
-        <v>405</v>
+      <c r="A4839" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4839" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4839" s="6" t="n">
         <v>11416</v>
       </c>
     </row>
     <row r="4840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4840" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4840" s="59" t="s">
-        <v>405</v>
+      <c r="A4840" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4840" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4840" s="6" t="n">
         <v>11528</v>
       </c>
     </row>
     <row r="4841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4841" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4841" s="59" t="s">
-        <v>405</v>
+      <c r="A4841" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4841" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4841" s="6" t="n">
         <v>11378</v>
       </c>
     </row>
     <row r="4842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4842" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4842" s="59" t="s">
-        <v>405</v>
+      <c r="A4842" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4842" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4842" s="6" t="n">
         <v>11556</v>
       </c>
     </row>
     <row r="4843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4843" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4843" s="59" t="s">
-        <v>405</v>
+      <c r="A4843" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4843" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4843" s="6" t="n">
         <v>11557</v>
       </c>
     </row>
     <row r="4844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4844" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4844" s="59" t="s">
-        <v>405</v>
+      <c r="A4844" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4844" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4844" s="6" t="n">
         <v>11545</v>
       </c>
     </row>
     <row r="4845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4845" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4845" s="59" t="s">
-        <v>405</v>
+      <c r="A4845" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4845" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="C4845" s="6" t="n">
         <v>11546</v>

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12687" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12773" uniqueCount="463">
   <si>
     <t xml:space="preserve">CATEGORY ES</t>
   </si>
@@ -1288,10 +1288,31 @@
     <t xml:space="preserve">POWER BANKS</t>
   </si>
   <si>
+    <t xml:space="preserve">10000mah,pd,wireless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000mah,pd,wireless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000mah,wireless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000mah,pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000mah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30000mah,wireless</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANILLOS DE LUZ LED</t>
   </si>
   <si>
     <t xml:space="preserve">LED RING LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimmable,cri90,3in1color1</t>
   </si>
   <si>
     <t xml:space="preserve">INSECT KILLER Y ROBOTS ASPIRADORES</t>
@@ -1306,13 +1327,10 @@
     <t xml:space="preserve">LED SMART BULBS</t>
   </si>
   <si>
-    <t xml:space="preserve">DICROICAS LED SMART</t>
+    <t xml:space="preserve">okgoogle,rgb3,alexa</t>
   </si>
   <si>
     <t xml:space="preserve">LED SMART SPOTLIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFONES LED SMART</t>
   </si>
   <si>
     <t xml:space="preserve">LED SMART DOME LIGHTS</t>
@@ -1330,10 +1348,19 @@
     <t xml:space="preserve">LED SMART STRIPLGHT KITS</t>
   </si>
   <si>
+    <t xml:space="preserve">okgoogle,rgb3,alexa,ip68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okgoogle,rgb3,alexa,ip65</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOCOS LED SMART</t>
   </si>
   <si>
     <t xml:space="preserve">LED SMART FLOODLIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okgoogle,rgb3,alexa,ip65,pirmotionsens</t>
   </si>
   <si>
     <t xml:space="preserve">LUCES DE JARDIN LED SMART</t>
@@ -1354,6 +1381,12 @@
     <t xml:space="preserve">LED SMART MAGNETIC TRACK LIGHTS</t>
   </si>
   <si>
+    <t xml:space="preserve">okgoogle,rgb3,alexa,3yr,dc48v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okgoogle,rgb3,alexa,3yr,dc48v,cri90</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACCESORIOS PARA LINEALES MAGNETICOS</t>
   </si>
   <si>
@@ -1361,6 +1394,15 @@
   </si>
   <si>
     <t xml:space="preserve">SMART HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okgoogle,alexa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okgoogle,alexa,2usbport5v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okgoogle,alexa,360laser</t>
   </si>
   <si>
     <t xml:space="preserve">LED SOLAR Y FOTOVOLTAICA</t>
@@ -2191,10 +2233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4845"/>
+  <dimension ref="A1:D4852"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4602" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4616" activeCellId="0" sqref="D4616"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4722" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4725" activeCellId="0" sqref="D4725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -61978,6 +62020,9 @@
       <c r="C4619" s="6" t="n">
         <v>7849</v>
       </c>
+      <c r="D4619" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="4620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4620" s="49" t="s">
@@ -61989,6 +62034,9 @@
       <c r="C4620" s="6" t="n">
         <v>7850</v>
       </c>
+      <c r="D4620" s="1" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="4621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4621" s="49" t="s">
@@ -62000,6 +62048,9 @@
       <c r="C4621" s="6" t="n">
         <v>7851</v>
       </c>
+      <c r="D4621" s="1" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="4622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4622" s="49" t="s">
@@ -62011,6 +62062,9 @@
       <c r="C4622" s="6" t="n">
         <v>23038</v>
       </c>
+      <c r="D4622" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="4623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4623" s="49" t="s">
@@ -62022,6 +62076,9 @@
       <c r="C4623" s="6" t="n">
         <v>23039</v>
       </c>
+      <c r="D4623" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="4624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4624" s="49" t="s">
@@ -62033,6 +62090,9 @@
       <c r="C4624" s="6" t="n">
         <v>23040</v>
       </c>
+      <c r="D4624" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="4625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4625" s="49" t="s">
@@ -62044,6 +62104,9 @@
       <c r="C4625" s="6" t="n">
         <v>7831</v>
       </c>
+      <c r="D4625" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="4626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4626" s="49" t="s">
@@ -62055,6 +62118,9 @@
       <c r="C4626" s="6" t="n">
         <v>7832</v>
       </c>
+      <c r="D4626" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="4627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4627" s="49" t="s">
@@ -62066,6 +62132,9 @@
       <c r="C4627" s="6" t="n">
         <v>7833</v>
       </c>
+      <c r="D4627" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="4628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4628" s="49" t="s">
@@ -62077,6 +62146,9 @@
       <c r="C4628" s="6" t="n">
         <v>7834</v>
       </c>
+      <c r="D4628" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="4629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4629" s="49" t="s">
@@ -62088,6 +62160,9 @@
       <c r="C4629" s="6" t="n">
         <v>23035</v>
       </c>
+      <c r="D4629" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="4630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4630" s="49" t="s">
@@ -62099,6 +62174,9 @@
       <c r="C4630" s="6" t="n">
         <v>23036</v>
       </c>
+      <c r="D4630" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="4631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4631" s="49" t="s">
@@ -62110,6 +62188,9 @@
       <c r="C4631" s="6" t="n">
         <v>23037</v>
       </c>
+      <c r="D4631" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="4632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4632" s="49" t="s">
@@ -62121,6 +62202,9 @@
       <c r="C4632" s="6" t="n">
         <v>7835</v>
       </c>
+      <c r="D4632" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="4633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4633" s="49" t="s">
@@ -62132,35 +62216,44 @@
       <c r="C4633" s="6" t="n">
         <v>7836</v>
       </c>
+      <c r="D4633" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="4634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4634" s="50" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B4634" s="50" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C4634" s="6" t="n">
         <v>23048</v>
       </c>
+      <c r="D4634" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="4635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4635" s="50" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B4635" s="50" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C4635" s="6" t="n">
         <v>23047</v>
       </c>
+      <c r="D4635" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="4636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4636" s="38" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B4636" s="38" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C4636" s="6" t="n">
         <v>11179</v>
@@ -62168,10 +62261,10 @@
     </row>
     <row r="4637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4637" s="38" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B4637" s="38" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C4637" s="6" t="n">
         <v>11180</v>
@@ -62179,10 +62272,10 @@
     </row>
     <row r="4638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4638" s="38" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B4638" s="38" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C4638" s="6" t="n">
         <v>11181</v>
@@ -62190,10 +62283,10 @@
     </row>
     <row r="4639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4639" s="38" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B4639" s="38" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C4639" s="6" t="n">
         <v>11182</v>
@@ -62201,10 +62294,10 @@
     </row>
     <row r="4640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4640" s="38" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B4640" s="38" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C4640" s="6" t="n">
         <v>8659</v>
@@ -62212,10 +62305,10 @@
     </row>
     <row r="4641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4641" s="38" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B4641" s="38" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C4641" s="6" t="n">
         <v>8660</v>
@@ -62223,10 +62316,10 @@
     </row>
     <row r="4642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4642" s="37" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B4642" s="37" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C4642" s="45" t="n">
         <v>2998</v>
@@ -62234,2234 +62327,2490 @@
     </row>
     <row r="4643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4643" s="37" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B4643" s="37" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C4643" s="45" t="n">
-        <v>2998</v>
+        <v>2754</v>
+      </c>
+      <c r="D4643" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="4644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4644" s="37" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B4644" s="37" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C4644" s="45" t="n">
-        <v>2998</v>
+        <v>212754</v>
+      </c>
+      <c r="D4644" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="4645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4645" s="37" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B4645" s="37" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C4645" s="45" t="n">
-        <v>2998</v>
+        <v>2755</v>
+      </c>
+      <c r="D4645" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="4646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4646" s="37" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B4646" s="37" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C4646" s="45" t="n">
-        <v>2998</v>
+        <v>2756</v>
+      </c>
+      <c r="D4646" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="4647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4647" s="37" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B4647" s="37" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C4647" s="45" t="n">
-        <v>2998</v>
+        <v>212756</v>
+      </c>
+      <c r="D4647" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="4648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4648" s="37" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B4648" s="37" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C4648" s="45" t="n">
+        <v>2791</v>
+      </c>
+      <c r="D4648" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4649" s="37"/>
+      <c r="B4649" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4649" s="45" t="n">
         <v>2998</v>
       </c>
-    </row>
-    <row r="4649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4649" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="B4649" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4649" s="45" t="n">
+      <c r="D4649" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4650" s="37"/>
+      <c r="B4650" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4650" s="45" t="n">
+        <v>2751</v>
+      </c>
+      <c r="D4650" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4651" s="37"/>
+      <c r="B4651" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4651" s="45" t="n">
+        <v>2752</v>
+      </c>
+      <c r="D4651" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4652" s="37"/>
+      <c r="B4652" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4652" s="45" t="n">
+        <v>212752</v>
+      </c>
+      <c r="D4652" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4653" s="37"/>
+      <c r="B4653" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4653" s="45" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D4653" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4654" s="37"/>
+      <c r="B4654" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4654" s="45" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D4654" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4655" s="37"/>
+      <c r="B4655" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4655" s="45" t="n">
+        <v>3001</v>
+      </c>
+      <c r="D4655" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4656" s="37"/>
+      <c r="B4656" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4656" s="45" t="n">
         <v>2750</v>
       </c>
-    </row>
-    <row r="4650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4650" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="B4650" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4650" s="45" t="n">
+      <c r="D4656" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4657" s="37"/>
+      <c r="B4657" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4657" s="45" t="n">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4651" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="B4651" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4651" s="45" t="n">
+      <c r="D4657" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4658" s="37"/>
+      <c r="B4658" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4658" s="45" t="n">
         <v>2757</v>
       </c>
-    </row>
-    <row r="4652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4652" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4652" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4652" s="45" t="n">
+      <c r="D4658" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4659" s="37"/>
+      <c r="B4659" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4659" s="45" t="n">
         <v>7694</v>
       </c>
-    </row>
-    <row r="4653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4653" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4653" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4653" s="45" t="n">
+      <c r="D4659" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4660" s="37"/>
+      <c r="B4660" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4660" s="45" t="n">
         <v>7695</v>
       </c>
-    </row>
-    <row r="4654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4654" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4654" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4654" s="45" t="n">
+      <c r="D4660" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4661" s="37"/>
+      <c r="B4661" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4661" s="45" t="n">
         <v>1497</v>
       </c>
-    </row>
-    <row r="4655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4655" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4655" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4655" s="45" t="n">
+      <c r="D4661" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4662" s="37"/>
+      <c r="B4662" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4662" s="45" t="n">
         <v>1498</v>
       </c>
-    </row>
-    <row r="4656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4656" s="54" t="s">
-        <v>432</v>
-      </c>
-      <c r="B4656" s="54" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4656" s="45" t="n">
+      <c r="D4662" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4663" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4663" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4663" s="45" t="n">
         <v>8080</v>
       </c>
-    </row>
-    <row r="4657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4657" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4657" s="55" t="s">
+      <c r="D4663" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C4657" s="45" t="n">
+    </row>
+    <row r="4664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4664" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4664" s="55" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4664" s="45" t="n">
         <v>3005</v>
       </c>
-    </row>
-    <row r="4658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4658" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4658" s="55" t="s">
+      <c r="D4664" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4665" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4665" s="55" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4665" s="45" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D4665" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4666" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4666" s="55" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4666" s="45" t="n">
+        <v>2910</v>
+      </c>
+      <c r="D4666" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4667" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4667" s="55" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4667" s="45" t="n">
+        <v>2628</v>
+      </c>
+      <c r="D4667" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4668" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4668" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4668" s="45" t="n">
+        <v>3006</v>
+      </c>
+      <c r="D4668" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4669" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4669" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4669" s="45" t="n">
+        <v>3025</v>
+      </c>
+      <c r="D4669" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4670" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4670" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4670" s="45" t="n">
+        <v>3026</v>
+      </c>
+      <c r="D4670" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4671" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4671" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4671" s="45" t="n">
+        <v>3027</v>
+      </c>
+      <c r="D4671" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4672" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4672" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4672" s="45" t="n">
+        <v>3010</v>
+      </c>
+      <c r="D4672" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4673" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4673" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4673" s="45" t="n">
+        <v>3014</v>
+      </c>
+      <c r="D4673" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4674" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4674" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4674" s="45" t="n">
+        <v>3015</v>
+      </c>
+      <c r="D4674" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4675" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4675" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4675" s="45" t="n">
+        <v>405851</v>
+      </c>
+      <c r="D4675" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C4658" s="45" t="n">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="4659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4659" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4659" s="55" t="s">
+    </row>
+    <row r="4676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4676" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4676" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4676" s="45" t="n">
+        <v>405861</v>
+      </c>
+      <c r="D4676" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C4659" s="45" t="n">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="4660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4660" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4660" s="55" t="s">
+    </row>
+    <row r="4677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4677" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4677" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4677" s="45" t="n">
+        <v>405871</v>
+      </c>
+      <c r="D4677" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C4660" s="45" t="n">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="4661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4661" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4661" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4661" s="45" t="n">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="4662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4662" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4662" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4662" s="45" t="n">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="4663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4663" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4663" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4663" s="45" t="n">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="4664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4664" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4664" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4664" s="45" t="n">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="4665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4665" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4665" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4665" s="45" t="n">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="4666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4666" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4666" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4666" s="45" t="n">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="4667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4667" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4667" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4667" s="45" t="n">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="4668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4668" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4668" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C4668" s="45" t="n">
-        <v>405851</v>
-      </c>
-    </row>
-    <row r="4669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4669" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4669" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C4669" s="45" t="n">
-        <v>405861</v>
-      </c>
-    </row>
-    <row r="4670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4670" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4670" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C4670" s="45" t="n">
-        <v>405871</v>
-      </c>
-    </row>
-    <row r="4671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4671" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4671" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4671" s="6" t="n">
-        <v>10275</v>
-      </c>
-    </row>
-    <row r="4672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4672" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4672" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4672" s="6" t="n">
-        <v>10276</v>
-      </c>
-    </row>
-    <row r="4673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4673" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4673" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4673" s="6" t="n">
-        <v>6882</v>
-      </c>
-    </row>
-    <row r="4674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4674" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4674" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4674" s="6" t="n">
-        <v>6883</v>
-      </c>
-    </row>
-    <row r="4675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4675" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4675" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4675" s="6" t="n">
-        <v>6884</v>
-      </c>
-    </row>
-    <row r="4676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4676" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4676" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4676" s="6" t="n">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="4677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4677" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4677" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4677" s="6" t="n">
-        <v>6888</v>
       </c>
     </row>
     <row r="4678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4678" s="56" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B4678" s="56" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C4678" s="6" t="n">
-        <v>6886</v>
+        <v>10275</v>
+      </c>
+      <c r="D4678" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="4679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4679" s="56" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B4679" s="56" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C4679" s="6" t="n">
-        <v>6887</v>
+        <v>10276</v>
+      </c>
+      <c r="D4679" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="4680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4680" s="56" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B4680" s="56" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C4680" s="6" t="n">
+        <v>6882</v>
+      </c>
+      <c r="D4680" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4681" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4681" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4681" s="6" t="n">
+        <v>6883</v>
+      </c>
+      <c r="D4681" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4682" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4682" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4682" s="6" t="n">
+        <v>6884</v>
+      </c>
+      <c r="D4682" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4683" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4683" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4683" s="6" t="n">
+        <v>6885</v>
+      </c>
+      <c r="D4683" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4684" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4684" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4684" s="6" t="n">
+        <v>6888</v>
+      </c>
+      <c r="D4684" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4685" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4685" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4685" s="6" t="n">
+        <v>6886</v>
+      </c>
+      <c r="D4685" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4686" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4686" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4686" s="6" t="n">
+        <v>6887</v>
+      </c>
+      <c r="D4686" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4687" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4687" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4687" s="6" t="n">
         <v>6889</v>
       </c>
-    </row>
-    <row r="4681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4681" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4681" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4681" s="6" t="n">
-        <v>6890</v>
-      </c>
-    </row>
-    <row r="4682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4682" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4682" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4682" s="6" t="n">
-        <v>6891</v>
-      </c>
-    </row>
-    <row r="4683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4683" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4683" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4683" s="6" t="n">
-        <v>6892</v>
-      </c>
-    </row>
-    <row r="4684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4684" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4684" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4684" s="6" t="n">
-        <v>6893</v>
-      </c>
-    </row>
-    <row r="4685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4685" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4685" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4685" s="6" t="n">
-        <v>6894</v>
-      </c>
-    </row>
-    <row r="4686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4686" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4686" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4686" s="6" t="n">
-        <v>6896</v>
-      </c>
-    </row>
-    <row r="4687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4687" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4687" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4687" s="6" t="n">
-        <v>6897</v>
+      <c r="D4687" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="4688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4688" s="9" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B4688" s="9" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C4688" s="6" t="n">
-        <v>6898</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="4689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4689" s="9" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B4689" s="9" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C4689" s="6" t="n">
-        <v>6899</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="4690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4690" s="9" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B4690" s="9" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C4690" s="6" t="n">
-        <v>6900</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="4691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4691" s="9" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B4691" s="9" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C4691" s="6" t="n">
-        <v>6901</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="4692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4692" s="9" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B4692" s="9" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C4692" s="6" t="n">
-        <v>6902</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="4693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4693" s="9" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B4693" s="9" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C4693" s="6" t="n">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="4694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4694" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4694" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4694" s="6" t="n">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="4695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4695" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4695" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4695" s="6" t="n">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="4696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4696" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4696" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4696" s="6" t="n">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="4697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4697" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4697" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4697" s="6" t="n">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="4698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4698" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4698" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4698" s="6" t="n">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="4699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4699" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4699" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4699" s="6" t="n">
+        <v>6902</v>
+      </c>
+    </row>
+    <row r="4700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4700" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4700" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4700" s="6" t="n">
         <v>6895</v>
-      </c>
-    </row>
-    <row r="4694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4694" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4694" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4694" s="6" t="n">
-        <v>8651</v>
-      </c>
-    </row>
-    <row r="4695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4695" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4695" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4695" s="6" t="n">
-        <v>11412</v>
-      </c>
-    </row>
-    <row r="4696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4696" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4696" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4696" s="6" t="n">
-        <v>6781</v>
-      </c>
-    </row>
-    <row r="4697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4697" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4697" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4697" s="6" t="n">
-        <v>6782</v>
-      </c>
-    </row>
-    <row r="4698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4698" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4698" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4698" s="6" t="n">
-        <v>7696</v>
-      </c>
-    </row>
-    <row r="4699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4699" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4699" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4699" s="6" t="n">
-        <v>7698</v>
-      </c>
-    </row>
-    <row r="4700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4700" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4700" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4700" s="6" t="n">
-        <v>7697</v>
       </c>
     </row>
     <row r="4701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4701" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4701" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4701" s="6" t="n">
-        <v>8415</v>
+        <v>8651</v>
+      </c>
+      <c r="D4701" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4702" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4702" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4702" s="6" t="n">
-        <v>8427</v>
+        <v>11412</v>
+      </c>
+      <c r="D4702" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4703" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4703" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4703" s="6" t="n">
-        <v>8416</v>
+        <v>6781</v>
+      </c>
+      <c r="D4703" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4704" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4704" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4704" s="6" t="n">
-        <v>8428</v>
+        <v>6782</v>
+      </c>
+      <c r="D4704" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4705" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4705" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4705" s="6" t="n">
-        <v>8421</v>
+        <v>7696</v>
+      </c>
+      <c r="D4705" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4706" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4706" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4706" s="6" t="n">
-        <v>8797</v>
+        <v>7698</v>
+      </c>
+      <c r="D4706" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4707" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4707" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4707" s="6" t="n">
-        <v>8798</v>
+        <v>7697</v>
+      </c>
+      <c r="D4707" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4708" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4708" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4708" s="6" t="n">
-        <v>8446</v>
+        <v>8415</v>
+      </c>
+      <c r="D4708" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4709" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4709" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4709" s="6" t="n">
-        <v>8467</v>
+        <v>8427</v>
+      </c>
+      <c r="D4709" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4710" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4710" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4710" s="6" t="n">
-        <v>8469</v>
+        <v>8416</v>
+      </c>
+      <c r="D4710" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4711" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4711" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4711" s="6" t="n">
-        <v>8468</v>
+        <v>8428</v>
+      </c>
+      <c r="D4711" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4712" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4712" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4712" s="6" t="n">
-        <v>7908</v>
+        <v>8421</v>
+      </c>
+      <c r="D4712" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4713" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4713" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4713" s="6" t="n">
-        <v>7927</v>
+        <v>8797</v>
+      </c>
+      <c r="D4713" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4714" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4714" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4714" s="6" t="n">
-        <v>7928</v>
+        <v>8798</v>
+      </c>
+      <c r="D4714" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4715" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4715" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4715" s="6" t="n">
-        <v>8466</v>
+        <v>8446</v>
+      </c>
+      <c r="D4715" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="4716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4716" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4716" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4716" s="6" t="n">
-        <v>7751</v>
+        <v>8467</v>
+      </c>
+      <c r="D4716" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4717" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4717" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4717" s="6" t="n">
-        <v>7752</v>
+        <v>8469</v>
+      </c>
+      <c r="D4717" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4718" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4718" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4718" s="6" t="n">
-        <v>7749</v>
+        <v>8468</v>
+      </c>
+      <c r="D4718" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4719" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B4719" s="57" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C4719" s="6" t="n">
+        <v>7908</v>
+      </c>
+      <c r="D4719" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4720" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4720" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4720" s="6" t="n">
+        <v>7927</v>
+      </c>
+      <c r="D4720" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4721" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4721" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4721" s="6" t="n">
+        <v>7928</v>
+      </c>
+      <c r="D4721" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4722" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4722" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4722" s="6" t="n">
+        <v>8466</v>
+      </c>
+      <c r="D4722" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4723" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4723" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4723" s="6" t="n">
+        <v>7751</v>
+      </c>
+    </row>
+    <row r="4724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4724" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4724" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4724" s="6" t="n">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="4725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4725" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4725" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4725" s="6" t="n">
+        <v>7749</v>
+      </c>
+      <c r="D4725" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4726" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4726" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4726" s="6" t="n">
         <v>7750</v>
       </c>
-    </row>
-    <row r="4720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4720" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4720" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4720" s="6" t="n">
-        <v>11517</v>
-      </c>
-    </row>
-    <row r="4721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4721" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4721" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4721" s="6" t="n">
-        <v>11518</v>
-      </c>
-    </row>
-    <row r="4722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4722" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4722" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4722" s="6" t="n">
-        <v>11519</v>
-      </c>
-    </row>
-    <row r="4723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4723" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4723" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4723" s="6" t="n">
-        <v>11561</v>
-      </c>
-    </row>
-    <row r="4724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4724" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4724" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4724" s="6" t="n">
-        <v>11809</v>
-      </c>
-    </row>
-    <row r="4725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4725" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4725" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4725" s="6" t="n">
-        <v>11633</v>
-      </c>
-    </row>
-    <row r="4726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4726" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4726" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4726" s="6" t="n">
-        <v>11353</v>
+      <c r="D4726" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="4727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4727" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4727" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4727" s="6" t="n">
-        <v>11817</v>
+        <v>11517</v>
       </c>
     </row>
     <row r="4728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4728" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4728" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4728" s="6" t="n">
-        <v>11354</v>
+        <v>11518</v>
       </c>
     </row>
     <row r="4729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4729" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4729" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4729" s="6" t="n">
-        <v>11544</v>
+        <v>11519</v>
       </c>
     </row>
     <row r="4730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4730" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4730" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4730" s="6" t="n">
-        <v>11562</v>
+        <v>11561</v>
       </c>
     </row>
     <row r="4731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4731" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4731" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4731" s="6" t="n">
-        <v>11549</v>
+        <v>11809</v>
       </c>
     </row>
     <row r="4732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4732" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4732" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4732" s="6" t="n">
-        <v>11550</v>
+        <v>11633</v>
       </c>
     </row>
     <row r="4733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4733" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4733" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4733" s="6" t="n">
-        <v>11553</v>
+        <v>11353</v>
       </c>
     </row>
     <row r="4734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4734" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4734" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4734" s="6" t="n">
-        <v>11563</v>
+        <v>11817</v>
       </c>
     </row>
     <row r="4735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4735" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4735" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4735" s="6" t="n">
-        <v>11551</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="4736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4736" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4736" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4736" s="6" t="n">
-        <v>11552</v>
+        <v>11544</v>
       </c>
     </row>
     <row r="4737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4737" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4737" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4737" s="6" t="n">
-        <v>11554</v>
+        <v>11562</v>
       </c>
     </row>
     <row r="4738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4738" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4738" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4738" s="6" t="n">
-        <v>11369</v>
+        <v>11549</v>
       </c>
     </row>
     <row r="4739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4739" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4739" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4739" s="6" t="n">
-        <v>11370</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="4740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4740" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4740" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4740" s="6" t="n">
-        <v>11726</v>
+        <v>11553</v>
       </c>
     </row>
     <row r="4741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4741" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4741" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4741" s="6" t="n">
-        <v>11820</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="4742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4742" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4742" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4742" s="6" t="n">
-        <v>11371</v>
+        <v>11551</v>
       </c>
     </row>
     <row r="4743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4743" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4743" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4743" s="6" t="n">
-        <v>11372</v>
+        <v>11552</v>
       </c>
     </row>
     <row r="4744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4744" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4744" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4744" s="6" t="n">
-        <v>11373</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="4745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4745" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4745" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4745" s="6" t="n">
-        <v>11381</v>
+        <v>11369</v>
       </c>
     </row>
     <row r="4746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4746" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4746" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4746" s="6" t="n">
-        <v>11382</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="4747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4747" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4747" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4747" s="6" t="n">
-        <v>11383</v>
+        <v>11726</v>
       </c>
     </row>
     <row r="4748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4748" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4748" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4748" s="6" t="n">
-        <v>11630</v>
+        <v>11820</v>
       </c>
     </row>
     <row r="4749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4749" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4749" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4749" s="6" t="n">
-        <v>11507</v>
+        <v>11371</v>
       </c>
     </row>
     <row r="4750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4750" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4750" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4750" s="6" t="n">
-        <v>11812</v>
+        <v>11372</v>
       </c>
     </row>
     <row r="4751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4751" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4751" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4751" s="6" t="n">
-        <v>11521</v>
+        <v>11373</v>
       </c>
     </row>
     <row r="4752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4752" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4752" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4752" s="6" t="n">
-        <v>11631</v>
+        <v>11381</v>
       </c>
     </row>
     <row r="4753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4753" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4753" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4753" s="6" t="n">
-        <v>11520</v>
+        <v>11382</v>
       </c>
     </row>
     <row r="4754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4754" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4754" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4754" s="6" t="n">
-        <v>11576</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="4755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4755" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4755" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4755" s="6" t="n">
-        <v>11725</v>
+        <v>11630</v>
       </c>
     </row>
     <row r="4756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4756" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4756" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4756" s="6" t="n">
-        <v>11547</v>
+        <v>11507</v>
       </c>
     </row>
     <row r="4757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4757" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4757" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4757" s="6" t="n">
-        <v>11376</v>
+        <v>11812</v>
       </c>
     </row>
     <row r="4758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4758" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4758" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4758" s="6" t="n">
-        <v>11509</v>
+        <v>11521</v>
       </c>
     </row>
     <row r="4759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4759" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4759" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4759" s="6" t="n">
-        <v>11514</v>
+        <v>11631</v>
       </c>
     </row>
     <row r="4760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4760" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4760" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4760" s="6" t="n">
-        <v>11537</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="4761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4761" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4761" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4761" s="6" t="n">
-        <v>11803</v>
+        <v>11576</v>
       </c>
     </row>
     <row r="4762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4762" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4762" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4762" s="6" t="n">
-        <v>11743</v>
+        <v>11725</v>
       </c>
     </row>
     <row r="4763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4763" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4763" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4763" s="6" t="n">
-        <v>11788</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="4764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4764" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4764" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4764" s="6" t="n">
-        <v>11542</v>
+        <v>11376</v>
       </c>
     </row>
     <row r="4765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4765" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4765" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4765" s="6" t="n">
-        <v>11543</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="4766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4766" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4766" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4766" s="6" t="n">
-        <v>11724</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="4767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4767" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4767" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4767" s="6" t="n">
-        <v>11614</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="4768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4768" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4768" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4768" s="6" t="n">
-        <v>11377</v>
+        <v>11803</v>
       </c>
     </row>
     <row r="4769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4769" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4769" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4769" s="6" t="n">
-        <v>11523</v>
+        <v>11743</v>
       </c>
     </row>
     <row r="4770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4770" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4770" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4770" s="6" t="n">
-        <v>11526</v>
+        <v>11788</v>
       </c>
     </row>
     <row r="4771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4771" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4771" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4771" s="6" t="n">
-        <v>11448</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="4772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4772" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4772" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4772" s="6" t="n">
-        <v>11447</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="4773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4773" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4773" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4773" s="6" t="n">
-        <v>11548</v>
+        <v>11724</v>
       </c>
     </row>
     <row r="4774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4774" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4774" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4774" s="6" t="n">
-        <v>11527</v>
+        <v>11614</v>
       </c>
     </row>
     <row r="4775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4775" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4775" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4775" s="6" t="n">
-        <v>11524</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="4776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4776" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4776" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4776" s="6" t="n">
-        <v>11525</v>
+        <v>11523</v>
       </c>
     </row>
     <row r="4777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4777" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4777" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4777" s="6" t="n">
-        <v>11539</v>
+        <v>11526</v>
       </c>
     </row>
     <row r="4778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4778" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4778" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4778" s="6" t="n">
-        <v>11813</v>
+        <v>11448</v>
       </c>
     </row>
     <row r="4779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4779" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4779" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4779" s="6" t="n">
-        <v>11814</v>
+        <v>11447</v>
       </c>
     </row>
     <row r="4780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4780" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4780" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4780" s="6" t="n">
-        <v>11815</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="4781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4781" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4781" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4781" s="6" t="n">
-        <v>11816</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="4782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4782" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4782" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4782" s="6" t="n">
-        <v>11549</v>
+        <v>11524</v>
       </c>
     </row>
     <row r="4783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4783" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4783" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4783" s="6" t="n">
-        <v>11370</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="4784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4784" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4784" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4784" s="6" t="n">
-        <v>11549</v>
+        <v>11539</v>
       </c>
     </row>
     <row r="4785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4785" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4785" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4785" s="6" t="n">
-        <v>11547</v>
+        <v>11813</v>
       </c>
     </row>
     <row r="4786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4786" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4786" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4786" s="6" t="n">
-        <v>11448</v>
+        <v>11814</v>
       </c>
     </row>
     <row r="4787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4787" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4787" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4787" s="6" t="n">
-        <v>11549</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="4788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4788" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4788" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4788" s="6" t="n">
-        <v>11542</v>
+        <v>11816</v>
       </c>
     </row>
     <row r="4789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4789" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4789" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4789" s="6" t="n">
-        <v>11447</v>
+        <v>11549</v>
       </c>
     </row>
     <row r="4790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4790" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4790" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4790" s="6" t="n">
-        <v>11441</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="4791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4791" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4791" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4791" s="6" t="n">
-        <v>11442</v>
+        <v>11549</v>
       </c>
     </row>
     <row r="4792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4792" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4792" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4792" s="6" t="n">
-        <v>11443</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="4793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4793" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4793" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4793" s="6" t="n">
-        <v>11445</v>
+        <v>11448</v>
       </c>
     </row>
     <row r="4794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4794" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4794" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4794" s="6" t="n">
-        <v>11625</v>
+        <v>11549</v>
       </c>
     </row>
     <row r="4795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4795" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4795" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4795" s="6" t="n">
-        <v>11740</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="4796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4796" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4796" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4796" s="6" t="n">
-        <v>11626</v>
+        <v>11447</v>
       </c>
     </row>
     <row r="4797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4797" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4797" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4797" s="6" t="n">
-        <v>11741</v>
+        <v>11441</v>
       </c>
     </row>
     <row r="4798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4798" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4798" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4798" s="6" t="n">
-        <v>11627</v>
+        <v>11442</v>
       </c>
     </row>
     <row r="4799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4799" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4799" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4799" s="6" t="n">
-        <v>11742</v>
+        <v>11443</v>
       </c>
     </row>
     <row r="4800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4800" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4800" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4800" s="6" t="n">
-        <v>11564</v>
+        <v>11445</v>
       </c>
     </row>
     <row r="4801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4801" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4801" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4801" s="6" t="n">
-        <v>11446</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="4802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4802" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4802" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4802" s="6" t="n">
-        <v>11565</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="4803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4803" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4803" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4803" s="6" t="n">
-        <v>11566</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="4804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4804" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4804" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4804" s="6" t="n">
-        <v>11568</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="4805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4805" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4805" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4805" s="6" t="n">
-        <v>11569</v>
+        <v>11627</v>
       </c>
     </row>
     <row r="4806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4806" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4806" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4806" s="6" t="n">
-        <v>118211</v>
+        <v>11742</v>
       </c>
     </row>
     <row r="4807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4807" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4807" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4807" s="6" t="n">
-        <v>118212</v>
+        <v>11564</v>
       </c>
     </row>
     <row r="4808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4808" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4808" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4808" s="6" t="n">
-        <v>118213</v>
+        <v>11446</v>
       </c>
     </row>
     <row r="4809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4809" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4809" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4809" s="6" t="n">
-        <v>118214</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="4810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4810" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4810" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4810" s="6" t="n">
-        <v>118215</v>
+        <v>11566</v>
       </c>
     </row>
     <row r="4811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4811" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4811" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4811" s="6" t="n">
-        <v>118216</v>
+        <v>11568</v>
       </c>
     </row>
     <row r="4812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4812" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4812" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4812" s="6" t="n">
-        <v>118217</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="4813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4813" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4813" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4813" s="6" t="n">
-        <v>118218</v>
+        <v>118211</v>
       </c>
     </row>
     <row r="4814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4814" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4814" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4814" s="6" t="n">
-        <v>118219</v>
+        <v>118212</v>
       </c>
     </row>
     <row r="4815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4815" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4815" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4815" s="6" t="n">
-        <v>118220</v>
+        <v>118213</v>
       </c>
     </row>
     <row r="4816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4816" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4816" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4816" s="6" t="n">
-        <v>118221</v>
+        <v>118214</v>
       </c>
     </row>
     <row r="4817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4817" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4817" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4817" s="6" t="n">
-        <v>118222</v>
+        <v>118215</v>
       </c>
     </row>
     <row r="4818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4818" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4818" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4818" s="6" t="n">
-        <v>118223</v>
+        <v>118216</v>
       </c>
     </row>
     <row r="4819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4819" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4819" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4819" s="6" t="n">
-        <v>11821</v>
+        <v>118217</v>
       </c>
     </row>
     <row r="4820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4820" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4820" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4820" s="6" t="n">
-        <v>11822</v>
+        <v>118218</v>
       </c>
     </row>
     <row r="4821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4821" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4821" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4821" s="6" t="n">
-        <v>11829</v>
+        <v>118219</v>
       </c>
     </row>
     <row r="4822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4822" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4822" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4822" s="6" t="n">
-        <v>11830</v>
+        <v>118220</v>
       </c>
     </row>
     <row r="4823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4823" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4823" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4823" s="6" t="n">
-        <v>11388</v>
+        <v>118221</v>
       </c>
     </row>
     <row r="4824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4824" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4824" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4824" s="6" t="n">
-        <v>11389</v>
+        <v>118222</v>
       </c>
     </row>
     <row r="4825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4825" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4825" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4825" s="6" t="n">
-        <v>11390</v>
+        <v>118223</v>
       </c>
     </row>
     <row r="4826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4826" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4826" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4826" s="6" t="n">
-        <v>11538</v>
+        <v>11821</v>
       </c>
     </row>
     <row r="4827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4827" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4827" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4827" s="6" t="n">
-        <v>11391</v>
+        <v>11822</v>
       </c>
     </row>
     <row r="4828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4828" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4828" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4828" s="6" t="n">
-        <v>11583</v>
+        <v>11829</v>
       </c>
     </row>
     <row r="4829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4829" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4829" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4829" s="6" t="n">
-        <v>11584</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="4830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4830" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4830" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4830" s="6" t="n">
-        <v>11585</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="4831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4831" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4831" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4831" s="6" t="n">
-        <v>11392</v>
+        <v>11389</v>
       </c>
     </row>
     <row r="4832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4832" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4832" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4832" s="6" t="n">
-        <v>11394</v>
+        <v>11390</v>
       </c>
     </row>
     <row r="4833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4833" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4833" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4833" s="6" t="n">
-        <v>11395</v>
+        <v>11538</v>
       </c>
     </row>
     <row r="4834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4834" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4834" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4834" s="6" t="n">
-        <v>11385</v>
+        <v>11391</v>
       </c>
     </row>
     <row r="4835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4835" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4835" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4835" s="6" t="n">
-        <v>11386</v>
+        <v>11583</v>
       </c>
     </row>
     <row r="4836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4836" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4836" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4836" s="6" t="n">
-        <v>11413</v>
+        <v>11584</v>
       </c>
     </row>
     <row r="4837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4837" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4837" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4837" s="6" t="n">
-        <v>11387</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="4838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4838" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4838" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4838" s="6" t="n">
-        <v>11570</v>
+        <v>11392</v>
       </c>
     </row>
     <row r="4839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4839" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4839" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4839" s="6" t="n">
-        <v>11416</v>
+        <v>11394</v>
       </c>
     </row>
     <row r="4840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4840" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4840" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4840" s="6" t="n">
-        <v>11528</v>
+        <v>11395</v>
       </c>
     </row>
     <row r="4841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4841" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4841" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4841" s="6" t="n">
-        <v>11378</v>
+        <v>11385</v>
       </c>
     </row>
     <row r="4842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4842" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4842" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4842" s="6" t="n">
-        <v>11556</v>
+        <v>11386</v>
       </c>
     </row>
     <row r="4843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4843" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4843" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4843" s="6" t="n">
-        <v>11557</v>
+        <v>11413</v>
       </c>
     </row>
     <row r="4844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4844" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4844" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4844" s="6" t="n">
-        <v>11545</v>
+        <v>11387</v>
       </c>
     </row>
     <row r="4845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4845" s="58" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B4845" s="58" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C4845" s="6" t="n">
+        <v>11570</v>
+      </c>
+    </row>
+    <row r="4846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4846" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4846" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4846" s="6" t="n">
+        <v>11416</v>
+      </c>
+    </row>
+    <row r="4847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4847" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4847" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4847" s="6" t="n">
+        <v>11528</v>
+      </c>
+    </row>
+    <row r="4848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4848" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4848" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4848" s="6" t="n">
+        <v>11378</v>
+      </c>
+    </row>
+    <row r="4849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4849" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4849" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4849" s="6" t="n">
+        <v>11556</v>
+      </c>
+    </row>
+    <row r="4850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4850" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4850" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4850" s="6" t="n">
+        <v>11557</v>
+      </c>
+    </row>
+    <row r="4851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4851" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4851" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4851" s="6" t="n">
+        <v>11545</v>
+      </c>
+    </row>
+    <row r="4852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4852" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4852" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4852" s="6" t="n">
         <v>11546</v>
       </c>
     </row>

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12773" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12836" uniqueCount="469">
   <si>
     <t xml:space="preserve">CATEGORY ES</t>
   </si>
@@ -1084,10 +1084,13 @@
     <t xml:space="preserve">batteryrechargeable</t>
   </si>
   <si>
-    <t xml:space="preserve">touchdim,updown2</t>
+    <t xml:space="preserve">ip20,2yr</t>
   </si>
   <si>
-    <t xml:space="preserve">knob,updown2</t>
+    <t xml:space="preserve">updown2,touchdim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updown2,knob</t>
   </si>
   <si>
     <t xml:space="preserve">fastcharge</t>
@@ -1096,10 +1099,19 @@
     <t xml:space="preserve">touchdim,batteryrechargeable</t>
   </si>
   <si>
-    <t xml:space="preserve">height,adapter</t>
+    <t xml:space="preserve">adapter,height</t>
   </si>
   <si>
-    <t xml:space="preserve">batteryrechargeable,adapter</t>
+    <t xml:space="preserve">cordless,aabatteries,3xmagnifying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cordless,aabatteries,10xmagnifying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adapter,batteryrechargeable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smartdevice,handfree</t>
   </si>
   <si>
     <t xml:space="preserve">LAMPARAS LED DE TECHO</t>
@@ -1126,16 +1138,13 @@
     <t xml:space="preserve">SMART CAMERAS</t>
   </si>
   <si>
-    <t xml:space="preserve">ip65,4g</t>
-  </si>
-  <si>
     <t xml:space="preserve">APARATOS SMART</t>
   </si>
   <si>
     <t xml:space="preserve">SMART SWITCHES</t>
   </si>
   <si>
-    <t xml:space="preserve">alexa,okgoogle</t>
+    <t xml:space="preserve">okgoogle,alexa</t>
   </si>
   <si>
     <t xml:space="preserve">ENCHUFES Y ADAPTADORES</t>
@@ -1327,7 +1336,28 @@
     <t xml:space="preserve">LED SMART BULBS</t>
   </si>
   <si>
-    <t xml:space="preserve">okgoogle,rgb3,alexa</t>
+    <t xml:space="preserve">okgoogle,alexa,rgb3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">okgoogle,alexa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,rgb3</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">LED SMART SPOTLIGHTS</t>
@@ -1348,10 +1378,28 @@
     <t xml:space="preserve">LED SMART STRIPLGHT KITS</t>
   </si>
   <si>
-    <t xml:space="preserve">okgoogle,rgb3,alexa,ip68</t>
+    <t xml:space="preserve">okgoogle,alexa,ip68,rgb3</t>
   </si>
   <si>
-    <t xml:space="preserve">okgoogle,rgb3,alexa,ip65</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">okgoogle,alexa,ip65,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rgb3</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">FOCOS LED SMART</t>
@@ -1360,7 +1408,25 @@
     <t xml:space="preserve">LED SMART FLOODLIGHTS</t>
   </si>
   <si>
-    <t xml:space="preserve">okgoogle,rgb3,alexa,ip65,pirmotionsens</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">okgoogle,alexa,ip65,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rgb3,pirmotionsens</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">LUCES DE JARDIN LED SMART</t>
@@ -1375,16 +1441,19 @@
     <t xml:space="preserve">LED SMART AMBIENCE LAMPS</t>
   </si>
   <si>
+    <t xml:space="preserve">okgoogle,alexa,rbg3</t>
+  </si>
+  <si>
     <t xml:space="preserve">LINEALES MAGNETICOS LED SMART</t>
   </si>
   <si>
     <t xml:space="preserve">LED SMART MAGNETIC TRACK LIGHTS</t>
   </si>
   <si>
-    <t xml:space="preserve">okgoogle,rgb3,alexa,3yr,dc48v</t>
+    <t xml:space="preserve">3yr,rgb3,alexa,okgoogle,dc48v</t>
   </si>
   <si>
-    <t xml:space="preserve">okgoogle,rgb3,alexa,3yr,dc48v,cri90</t>
+    <t xml:space="preserve">3yr,rgb3,alexa,okgoogle,dc48v,cri90</t>
   </si>
   <si>
     <t xml:space="preserve">ACCESORIOS PARA LINEALES MAGNETICOS</t>
@@ -1396,19 +1465,58 @@
     <t xml:space="preserve">SMART HOME</t>
   </si>
   <si>
-    <t xml:space="preserve">okgoogle,alexa</t>
+    <t xml:space="preserve">okgoogle,alexa,2000pa,360laser</t>
   </si>
   <si>
-    <t xml:space="preserve">okgoogle,alexa,2usbport5v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okgoogle,alexa,360laser</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">okgoogle,alexa,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2000pa,360laser</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">LED SOLAR Y FOTOVOLTAICA</t>
   </si>
   <si>
     <t xml:space="preserve">SOLAR ENERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10yr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5yr,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ip65</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1418,7 +1526,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1454,6 +1562,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1813,7 +1927,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2022,6 +2136,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="46" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2046,7 +2164,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2233,10 +2351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4852"/>
+  <dimension ref="A1:D4854"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4722" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4725" activeCellId="0" sqref="D4725"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4803" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4814" activeCellId="0" sqref="D4814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57520,6 +57638,9 @@
       <c r="C4244" s="6" t="n">
         <v>10572</v>
       </c>
+      <c r="D4244" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="4245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4245" s="18" t="s">
@@ -57531,6 +57652,9 @@
       <c r="C4245" s="6" t="n">
         <v>10573</v>
       </c>
+      <c r="D4245" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="4246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4246" s="18" t="s">
@@ -57542,6 +57666,9 @@
       <c r="C4246" s="6" t="n">
         <v>10574</v>
       </c>
+      <c r="D4246" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="4247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4247" s="18" t="s">
@@ -57553,6 +57680,9 @@
       <c r="C4247" s="6" t="n">
         <v>10575</v>
       </c>
+      <c r="D4247" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="4248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4248" s="18" t="s">
@@ -57564,6 +57694,9 @@
       <c r="C4248" s="6" t="n">
         <v>10576</v>
       </c>
+      <c r="D4248" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="4249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4249" s="18" t="s">
@@ -57576,7 +57709,7 @@
         <v>8521</v>
       </c>
       <c r="D4249" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57590,7 +57723,7 @@
         <v>8522</v>
       </c>
       <c r="D4250" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57604,7 +57737,7 @@
         <v>8523</v>
       </c>
       <c r="D4251" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57618,7 +57751,7 @@
         <v>8524</v>
       </c>
       <c r="D4252" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57632,7 +57765,7 @@
         <v>8525</v>
       </c>
       <c r="D4253" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57646,7 +57779,7 @@
         <v>8526</v>
       </c>
       <c r="D4254" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57660,7 +57793,7 @@
         <v>218604</v>
       </c>
       <c r="D4255" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57674,7 +57807,7 @@
         <v>8605</v>
       </c>
       <c r="D4256" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57688,7 +57821,7 @@
         <v>218605</v>
       </c>
       <c r="D4257" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57702,7 +57835,7 @@
         <v>218602</v>
       </c>
       <c r="D4258" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57716,7 +57849,7 @@
         <v>218603</v>
       </c>
       <c r="D4259" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57730,7 +57863,7 @@
         <v>218600</v>
       </c>
       <c r="D4260" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57744,7 +57877,7 @@
         <v>8601</v>
       </c>
       <c r="D4261" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57758,7 +57891,7 @@
         <v>218601</v>
       </c>
       <c r="D4262" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57822,7 +57955,7 @@
         <v>8520</v>
       </c>
       <c r="D4267" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57836,7 +57969,7 @@
         <v>7098</v>
       </c>
       <c r="D4268" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57850,7 +57983,7 @@
         <v>7099</v>
       </c>
       <c r="D4269" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57864,7 +57997,7 @@
         <v>8500</v>
       </c>
       <c r="D4270" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57878,7 +58011,7 @@
         <v>8672</v>
       </c>
       <c r="D4271" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57892,7 +58025,7 @@
         <v>8671</v>
       </c>
       <c r="D4272" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57905,6 +58038,9 @@
       <c r="C4273" s="6" t="n">
         <v>6629</v>
       </c>
+      <c r="D4273" s="1" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="4274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4274" s="18" t="s">
@@ -57916,6 +58052,9 @@
       <c r="C4274" s="6" t="n">
         <v>6628</v>
       </c>
+      <c r="D4274" s="1" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="4275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4275" s="18" t="s">
@@ -57927,6 +58066,9 @@
       <c r="C4275" s="6" t="n">
         <v>6630</v>
       </c>
+      <c r="D4275" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="4276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4276" s="18" t="s">
@@ -57939,7 +58081,7 @@
         <v>8931</v>
       </c>
       <c r="D4276" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57953,7 +58095,7 @@
         <v>8670</v>
       </c>
       <c r="D4277" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57999,6 +58141,9 @@
       <c r="C4281" s="6" t="n">
         <v>8570</v>
       </c>
+      <c r="D4281" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="4282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4282" s="18" t="s">
@@ -58010,6 +58155,9 @@
       <c r="C4282" s="6" t="n">
         <v>8571</v>
       </c>
+      <c r="D4282" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="4283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4283" s="18" t="s">
@@ -58021,6 +58169,9 @@
       <c r="C4283" s="6" t="n">
         <v>8569</v>
       </c>
+      <c r="D4283" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="4284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4284" s="18" t="s">
@@ -58090,52 +58241,52 @@
     </row>
     <row r="4290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4290" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4290" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4290" s="6" t="n">
         <v>8974</v>
       </c>
       <c r="D4290" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4291" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4291" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4291" s="6" t="n">
         <v>8975</v>
       </c>
       <c r="D4291" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4292" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4292" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4292" s="6" t="n">
         <v>8971</v>
       </c>
       <c r="D4292" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4293" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4293" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4293" s="6" t="n">
         <v>8970</v>
@@ -58146,10 +58297,10 @@
     </row>
     <row r="4294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4294" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4294" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4294" s="6" t="n">
         <v>8972</v>
@@ -58160,10 +58311,10 @@
     </row>
     <row r="4295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4295" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4295" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4295" s="6" t="n">
         <v>8973</v>
@@ -58174,10 +58325,10 @@
     </row>
     <row r="4296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4296" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4296" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4296" s="6" t="n">
         <v>40561</v>
@@ -58185,10 +58336,10 @@
     </row>
     <row r="4297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4297" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4297" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4297" s="6" t="n">
         <v>40511</v>
@@ -58196,10 +58347,10 @@
     </row>
     <row r="4298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4298" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4298" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4298" s="6" t="n">
         <v>40571</v>
@@ -58207,10 +58358,10 @@
     </row>
     <row r="4299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4299" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4299" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4299" s="6" t="n">
         <v>40521</v>
@@ -58218,10 +58369,10 @@
     </row>
     <row r="4300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4300" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4300" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4300" s="6" t="n">
         <v>40501</v>
@@ -58229,10 +58380,10 @@
     </row>
     <row r="4301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4301" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4301" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4301" s="6" t="n">
         <v>40531</v>
@@ -58240,10 +58391,10 @@
     </row>
     <row r="4302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4302" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4302" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4302" s="6" t="n">
         <v>40541</v>
@@ -58251,10 +58402,10 @@
     </row>
     <row r="4303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4303" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4303" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4303" s="6" t="n">
         <v>3880</v>
@@ -58262,10 +58413,10 @@
     </row>
     <row r="4304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4304" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4304" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4304" s="6" t="n">
         <v>40551</v>
@@ -58273,10 +58424,10 @@
     </row>
     <row r="4305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4305" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4305" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4305" s="6" t="n">
         <v>3882</v>
@@ -58284,10 +58435,10 @@
     </row>
     <row r="4306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4306" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4306" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4306" s="6" t="n">
         <v>3879</v>
@@ -58295,10 +58446,10 @@
     </row>
     <row r="4307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4307" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4307" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4307" s="6" t="n">
         <v>3881</v>
@@ -58306,10 +58457,10 @@
     </row>
     <row r="4308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4308" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4308" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4308" s="6" t="n">
         <v>3887</v>
@@ -58317,10 +58468,10 @@
     </row>
     <row r="4309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4309" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4309" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4309" s="6" t="n">
         <v>3867</v>
@@ -58328,10 +58479,10 @@
     </row>
     <row r="4310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4310" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4310" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4310" s="6" t="n">
         <v>3888</v>
@@ -58339,10 +58490,10 @@
     </row>
     <row r="4311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4311" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4311" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4311" s="6" t="n">
         <v>3878</v>
@@ -58350,10 +58501,10 @@
     </row>
     <row r="4312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4312" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4312" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4312" s="6" t="n">
         <v>3865</v>
@@ -58361,10 +58512,10 @@
     </row>
     <row r="4313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4313" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4313" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4313" s="6" t="n">
         <v>3876</v>
@@ -58372,10 +58523,10 @@
     </row>
     <row r="4314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4314" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4314" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4314" s="6" t="n">
         <v>3884</v>
@@ -58383,10 +58534,10 @@
     </row>
     <row r="4315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4315" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4315" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4315" s="6" t="n">
         <v>3736</v>
@@ -58394,10 +58545,10 @@
     </row>
     <row r="4316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4316" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4316" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4316" s="6" t="n">
         <v>3885</v>
@@ -58405,10 +58556,10 @@
     </row>
     <row r="4317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4317" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4317" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4317" s="6" t="n">
         <v>3735</v>
@@ -58416,10 +58567,10 @@
     </row>
     <row r="4318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4318" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4318" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4318" s="6" t="n">
         <v>3730</v>
@@ -58427,10 +58578,10 @@
     </row>
     <row r="4319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4319" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4319" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4319" s="6" t="n">
         <v>3738</v>
@@ -58438,10 +58589,10 @@
     </row>
     <row r="4320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4320" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4320" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4320" s="6" t="n">
         <v>3737</v>
@@ -58449,10 +58600,10 @@
     </row>
     <row r="4321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4321" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4321" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4321" s="6" t="n">
         <v>3727</v>
@@ -58460,10 +58611,10 @@
     </row>
     <row r="4322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4322" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4322" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4322" s="6" t="n">
         <v>3732</v>
@@ -58471,10 +58622,10 @@
     </row>
     <row r="4323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4323" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4323" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4323" s="6" t="n">
         <v>40111</v>
@@ -58482,10 +58633,10 @@
     </row>
     <row r="4324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4324" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4324" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4324" s="6" t="n">
         <v>3726</v>
@@ -58493,10 +58644,10 @@
     </row>
     <row r="4325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4325" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4325" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4325" s="6" t="n">
         <v>40121</v>
@@ -58504,10 +58655,10 @@
     </row>
     <row r="4326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4326" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4326" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4326" s="6" t="n">
         <v>40131</v>
@@ -58515,10 +58666,10 @@
     </row>
     <row r="4327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4327" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4327" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4327" s="6" t="n">
         <v>3822</v>
@@ -58526,10 +58677,10 @@
     </row>
     <row r="4328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4328" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4328" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4328" s="6" t="n">
         <v>3728</v>
@@ -58537,10 +58688,10 @@
     </row>
     <row r="4329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4329" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4329" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4329" s="6" t="n">
         <v>3821</v>
@@ -58548,10 +58699,10 @@
     </row>
     <row r="4330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4330" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4330" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4330" s="6" t="n">
         <v>3729</v>
@@ -58559,10 +58710,10 @@
     </row>
     <row r="4331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4331" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4331" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4331" s="6" t="n">
         <v>3823</v>
@@ -58570,10 +58721,10 @@
     </row>
     <row r="4332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4332" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4332" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4332" s="6" t="n">
         <v>3824</v>
@@ -58581,10 +58732,10 @@
     </row>
     <row r="4333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4333" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4333" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4333" s="6" t="n">
         <v>3827</v>
@@ -58592,10 +58743,10 @@
     </row>
     <row r="4334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4334" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4334" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4334" s="6" t="n">
         <v>3825</v>
@@ -58603,10 +58754,10 @@
     </row>
     <row r="4335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4335" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4335" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4335" s="6" t="n">
         <v>3828</v>
@@ -58614,10 +58765,10 @@
     </row>
     <row r="4336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4336" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4336" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4336" s="6" t="n">
         <v>3826</v>
@@ -58625,10 +58776,10 @@
     </row>
     <row r="4337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4337" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4337" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4337" s="6" t="n">
         <v>3829</v>
@@ -58636,10 +58787,10 @@
     </row>
     <row r="4338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4338" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4338" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4338" s="6" t="n">
         <v>3859</v>
@@ -58647,10 +58798,10 @@
     </row>
     <row r="4339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4339" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4339" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4339" s="6" t="n">
         <v>3710</v>
@@ -58658,10 +58809,10 @@
     </row>
     <row r="4340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4340" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4340" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4340" s="6" t="n">
         <v>3860</v>
@@ -58669,10 +58820,10 @@
     </row>
     <row r="4341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4341" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4341" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4341" s="6" t="n">
         <v>3711</v>
@@ -58680,10 +58831,10 @@
     </row>
     <row r="4342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4342" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4342" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4342" s="6" t="n">
         <v>3713</v>
@@ -58691,10 +58842,10 @@
     </row>
     <row r="4343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4343" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4343" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4343" s="6" t="n">
         <v>3709</v>
@@ -58702,10 +58853,10 @@
     </row>
     <row r="4344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4344" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4344" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4344" s="6" t="n">
         <v>3712</v>
@@ -58713,10 +58864,10 @@
     </row>
     <row r="4345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4345" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4345" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4345" s="6" t="n">
         <v>3714</v>
@@ -58724,10 +58875,10 @@
     </row>
     <row r="4346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4346" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4346" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4346" s="6" t="n">
         <v>3707</v>
@@ -58735,10 +58886,10 @@
     </row>
     <row r="4347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4347" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4347" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4347" s="6" t="n">
         <v>3715</v>
@@ -58746,10 +58897,10 @@
     </row>
     <row r="4348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4348" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4348" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4348" s="6" t="n">
         <v>3708</v>
@@ -58757,10 +58908,10 @@
     </row>
     <row r="4349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4349" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4349" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4349" s="6" t="n">
         <v>3705</v>
@@ -58768,10 +58919,10 @@
     </row>
     <row r="4350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4350" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4350" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4350" s="6" t="n">
         <v>3706</v>
@@ -58779,10 +58930,10 @@
     </row>
     <row r="4351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4351" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4351" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4351" s="6" t="n">
         <v>3853</v>
@@ -58790,10 +58941,10 @@
     </row>
     <row r="4352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4352" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4352" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4352" s="6" t="n">
         <v>3716</v>
@@ -58801,10 +58952,10 @@
     </row>
     <row r="4353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4353" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4353" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4353" s="6" t="n">
         <v>3857</v>
@@ -58812,10 +58963,10 @@
     </row>
     <row r="4354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4354" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4354" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4354" s="6" t="n">
         <v>3717</v>
@@ -58823,10 +58974,10 @@
     </row>
     <row r="4355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4355" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4355" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4355" s="6" t="n">
         <v>3851</v>
@@ -58834,10 +58985,10 @@
     </row>
     <row r="4356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4356" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4356" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4356" s="6" t="n">
         <v>3852</v>
@@ -58845,10 +58996,10 @@
     </row>
     <row r="4357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4357" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4357" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4357" s="6" t="n">
         <v>3834</v>
@@ -58856,10 +59007,10 @@
     </row>
     <row r="4358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4358" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4358" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4358" s="6" t="n">
         <v>3831</v>
@@ -58867,10 +59018,10 @@
     </row>
     <row r="4359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4359" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4359" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4359" s="6" t="n">
         <v>3927</v>
@@ -58878,10 +59029,10 @@
     </row>
     <row r="4360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4360" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4360" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4360" s="6" t="n">
         <v>3832</v>
@@ -58889,10 +59040,10 @@
     </row>
     <row r="4361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4361" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4361" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4361" s="6" t="n">
         <v>3835</v>
@@ -58900,10 +59051,10 @@
     </row>
     <row r="4362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4362" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4362" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4362" s="6" t="n">
         <v>3836</v>
@@ -58911,10 +59062,10 @@
     </row>
     <row r="4363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4363" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4363" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4363" s="6" t="n">
         <v>3700</v>
@@ -58922,10 +59073,10 @@
     </row>
     <row r="4364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4364" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4364" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4364" s="6" t="n">
         <v>3837</v>
@@ -58933,10 +59084,10 @@
     </row>
     <row r="4365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4365" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4365" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4365" s="6" t="n">
         <v>3701</v>
@@ -58944,10 +59095,10 @@
     </row>
     <row r="4366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4366" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4366" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4366" s="6" t="n">
         <v>3838</v>
@@ -58955,10 +59106,10 @@
     </row>
     <row r="4367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4367" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4367" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4367" s="6" t="n">
         <v>3702</v>
@@ -58966,10 +59117,10 @@
     </row>
     <row r="4368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4368" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4368" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4368" s="6" t="n">
         <v>3756</v>
@@ -58977,10 +59128,10 @@
     </row>
     <row r="4369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4369" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4369" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4369" s="6" t="n">
         <v>3762</v>
@@ -58988,10 +59139,10 @@
     </row>
     <row r="4370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4370" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4370" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4370" s="6" t="n">
         <v>3757</v>
@@ -58999,10 +59150,10 @@
     </row>
     <row r="4371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4371" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4371" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4371" s="6" t="n">
         <v>3763</v>
@@ -59010,10 +59161,10 @@
     </row>
     <row r="4372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4372" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4372" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4372" s="6" t="n">
         <v>3761</v>
@@ -59021,10 +59172,10 @@
     </row>
     <row r="4373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4373" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4373" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4373" s="6" t="n">
         <v>3764</v>
@@ -59032,10 +59183,10 @@
     </row>
     <row r="4374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4374" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4374" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4374" s="6" t="n">
         <v>3765</v>
@@ -59043,10 +59194,10 @@
     </row>
     <row r="4375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4375" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4375" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4375" s="6" t="n">
         <v>3921</v>
@@ -59054,10 +59205,10 @@
     </row>
     <row r="4376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4376" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4376" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4376" s="6" t="n">
         <v>3766</v>
@@ -59065,10 +59216,10 @@
     </row>
     <row r="4377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4377" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4377" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4377" s="6" t="n">
         <v>3922</v>
@@ -59076,10 +59227,10 @@
     </row>
     <row r="4378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4378" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4378" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4378" s="6" t="n">
         <v>3920</v>
@@ -59087,10 +59238,10 @@
     </row>
     <row r="4379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4379" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4379" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4379" s="6" t="n">
         <v>3923</v>
@@ -59098,10 +59249,10 @@
     </row>
     <row r="4380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4380" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4380" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4380" s="6" t="n">
         <v>3924</v>
@@ -59109,10 +59260,10 @@
     </row>
     <row r="4381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4381" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4381" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4381" s="6" t="n">
         <v>3752</v>
@@ -59120,10 +59271,10 @@
     </row>
     <row r="4382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4382" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4382" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4382" s="6" t="n">
         <v>3925</v>
@@ -59131,10 +59282,10 @@
     </row>
     <row r="4383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4383" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4383" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4383" s="6" t="n">
         <v>3946</v>
@@ -59142,10 +59293,10 @@
     </row>
     <row r="4384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4384" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4384" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4384" s="6" t="n">
         <v>3751</v>
@@ -59153,10 +59304,10 @@
     </row>
     <row r="4385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4385" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4385" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4385" s="6" t="n">
         <v>3947</v>
@@ -59164,10 +59315,10 @@
     </row>
     <row r="4386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4386" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4386" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4386" s="6" t="n">
         <v>3948</v>
@@ -59175,10 +59326,10 @@
     </row>
     <row r="4387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4387" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4387" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4387" s="6" t="n">
         <v>3953</v>
@@ -59186,10 +59337,10 @@
     </row>
     <row r="4388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4388" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4388" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4388" s="6" t="n">
         <v>3950</v>
@@ -59197,10 +59348,10 @@
     </row>
     <row r="4389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4389" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4389" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4389" s="6" t="n">
         <v>3753</v>
@@ -59208,10 +59359,10 @@
     </row>
     <row r="4390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4390" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4390" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4390" s="6" t="n">
         <v>3952</v>
@@ -59219,10 +59370,10 @@
     </row>
     <row r="4391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4391" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4391" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4391" s="6" t="n">
         <v>3845</v>
@@ -59230,10 +59381,10 @@
     </row>
     <row r="4392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4392" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4392" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4392" s="6" t="n">
         <v>3754</v>
@@ -59241,10 +59392,10 @@
     </row>
     <row r="4393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4393" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4393" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4393" s="6" t="n">
         <v>3768</v>
@@ -59252,10 +59403,10 @@
     </row>
     <row r="4394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4394" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4394" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4394" s="6" t="n">
         <v>3839</v>
@@ -59263,10 +59414,10 @@
     </row>
     <row r="4395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4395" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4395" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4395" s="6" t="n">
         <v>3769</v>
@@ -59274,10 +59425,10 @@
     </row>
     <row r="4396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4396" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4396" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4396" s="6" t="n">
         <v>3767</v>
@@ -59285,10 +59436,10 @@
     </row>
     <row r="4397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4397" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4397" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4397" s="6" t="n">
         <v>3770</v>
@@ -59296,10 +59447,10 @@
     </row>
     <row r="4398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4398" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4398" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4398" s="6" t="n">
         <v>3771</v>
@@ -59307,10 +59458,10 @@
     </row>
     <row r="4399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4399" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4399" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4399" s="6" t="n">
         <v>3774</v>
@@ -59318,10 +59469,10 @@
     </row>
     <row r="4400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4400" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4400" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4400" s="6" t="n">
         <v>3772</v>
@@ -59329,10 +59480,10 @@
     </row>
     <row r="4401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4401" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4401" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4401" s="6" t="n">
         <v>3775</v>
@@ -59340,10 +59491,10 @@
     </row>
     <row r="4402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4402" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4402" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4402" s="6" t="n">
         <v>3773</v>
@@ -59351,10 +59502,10 @@
     </row>
     <row r="4403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4403" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4403" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4403" s="6" t="n">
         <v>3776</v>
@@ -59362,10 +59513,10 @@
     </row>
     <row r="4404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4404" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4404" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4404" s="6" t="n">
         <v>3841</v>
@@ -59373,10 +59524,10 @@
     </row>
     <row r="4405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4405" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4405" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4405" s="6" t="n">
         <v>3722</v>
@@ -59384,10 +59535,10 @@
     </row>
     <row r="4406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4406" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4406" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4406" s="6" t="n">
         <v>3804</v>
@@ -59395,10 +59546,10 @@
     </row>
     <row r="4407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4407" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4407" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4407" s="6" t="n">
         <v>3809</v>
@@ -59406,10 +59557,10 @@
     </row>
     <row r="4408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4408" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4408" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4408" s="6" t="n">
         <v>3842</v>
@@ -59417,10 +59568,10 @@
     </row>
     <row r="4409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4409" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4409" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4409" s="6" t="n">
         <v>3723</v>
@@ -59428,10 +59579,10 @@
     </row>
     <row r="4410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4410" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4410" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4410" s="6" t="n">
         <v>3805</v>
@@ -59439,10 +59590,10 @@
     </row>
     <row r="4411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4411" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4411" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4411" s="6" t="n">
         <v>3810</v>
@@ -59450,10 +59601,10 @@
     </row>
     <row r="4412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4412" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4412" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4412" s="6" t="n">
         <v>3843</v>
@@ -59461,10 +59612,10 @@
     </row>
     <row r="4413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4413" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4413" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4413" s="6" t="n">
         <v>3724</v>
@@ -59472,10 +59623,10 @@
     </row>
     <row r="4414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4414" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4414" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4414" s="6" t="n">
         <v>3806</v>
@@ -59483,10 +59634,10 @@
     </row>
     <row r="4415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4415" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4415" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4415" s="6" t="n">
         <v>3795</v>
@@ -59494,10 +59645,10 @@
     </row>
     <row r="4416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4416" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4416" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4416" s="6" t="n">
         <v>3844</v>
@@ -59505,10 +59656,10 @@
     </row>
     <row r="4417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4417" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4417" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4417" s="6" t="n">
         <v>3725</v>
@@ -59516,10 +59667,10 @@
     </row>
     <row r="4418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4418" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4418" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4418" s="6" t="n">
         <v>3807</v>
@@ -59527,10 +59678,10 @@
     </row>
     <row r="4419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4419" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4419" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4419" s="6" t="n">
         <v>3796</v>
@@ -59538,10 +59689,10 @@
     </row>
     <row r="4420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4420" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4420" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4420" s="6" t="n">
         <v>3720</v>
@@ -59549,10 +59700,10 @@
     </row>
     <row r="4421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4421" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4421" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4421" s="6" t="n">
         <v>3803</v>
@@ -59560,10 +59711,10 @@
     </row>
     <row r="4422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4422" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4422" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4422" s="6" t="n">
         <v>3808</v>
@@ -59571,10 +59722,10 @@
     </row>
     <row r="4423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4423" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4423" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4423" s="6" t="n">
         <v>3797</v>
@@ -59582,10 +59733,10 @@
     </row>
     <row r="4424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4424" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4424" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4424" s="6" t="n">
         <v>3798</v>
@@ -59593,10 +59744,10 @@
     </row>
     <row r="4425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4425" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4425" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4425" s="6" t="n">
         <v>3742</v>
@@ -59604,10 +59755,10 @@
     </row>
     <row r="4426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4426" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4426" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4426" s="6" t="n">
         <v>3749</v>
@@ -59615,10 +59766,10 @@
     </row>
     <row r="4427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4427" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4427" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4427" s="6" t="n">
         <v>3784</v>
@@ -59626,10 +59777,10 @@
     </row>
     <row r="4428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4428" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4428" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4428" s="6" t="n">
         <v>3799</v>
@@ -59637,10 +59788,10 @@
     </row>
     <row r="4429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4429" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4429" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4429" s="6" t="n">
         <v>3743</v>
@@ -59648,10 +59799,10 @@
     </row>
     <row r="4430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4430" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4430" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4430" s="6" t="n">
         <v>3750</v>
@@ -59659,10 +59810,10 @@
     </row>
     <row r="4431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4431" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4431" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4431" s="6" t="n">
         <v>3785</v>
@@ -59670,10 +59821,10 @@
     </row>
     <row r="4432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4432" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4432" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4432" s="6" t="n">
         <v>3800</v>
@@ -59681,10 +59832,10 @@
     </row>
     <row r="4433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4433" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4433" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4433" s="6" t="n">
         <v>3744</v>
@@ -59692,10 +59843,10 @@
     </row>
     <row r="4434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4434" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4434" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4434" s="6" t="n">
         <v>3777</v>
@@ -59703,10 +59854,10 @@
     </row>
     <row r="4435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4435" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4435" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4435" s="6" t="n">
         <v>3786</v>
@@ -59714,10 +59865,10 @@
     </row>
     <row r="4436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4436" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4436" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4436" s="6" t="n">
         <v>3801</v>
@@ -59725,10 +59876,10 @@
     </row>
     <row r="4437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4437" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4437" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4437" s="6" t="n">
         <v>3745</v>
@@ -59736,10 +59887,10 @@
     </row>
     <row r="4438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4438" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4438" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4438" s="6" t="n">
         <v>3755</v>
@@ -59747,10 +59898,10 @@
     </row>
     <row r="4439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4439" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4439" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4439" s="6" t="n">
         <v>3787</v>
@@ -59758,10 +59909,10 @@
     </row>
     <row r="4440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4440" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4440" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4440" s="6" t="n">
         <v>3802</v>
@@ -59769,10 +59920,10 @@
     </row>
     <row r="4441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4441" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4441" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4441" s="6" t="n">
         <v>3746</v>
@@ -59780,10 +59931,10 @@
     </row>
     <row r="4442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4442" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4442" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4442" s="6" t="n">
         <v>3783</v>
@@ -59791,10 +59942,10 @@
     </row>
     <row r="4443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4443" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4443" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4443" s="6" t="n">
         <v>3788</v>
@@ -59802,10 +59953,10 @@
     </row>
     <row r="4444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4444" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4444" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4444" s="6" t="n">
         <v>3789</v>
@@ -59813,10 +59964,10 @@
     </row>
     <row r="4445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4445" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4445" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4445" s="6" t="n">
         <v>3794</v>
@@ -59824,10 +59975,10 @@
     </row>
     <row r="4446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4446" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4446" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4446" s="6" t="n">
         <v>3480</v>
@@ -59835,10 +59986,10 @@
     </row>
     <row r="4447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4447" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4447" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4447" s="6" t="n">
         <v>3485</v>
@@ -59846,10 +59997,10 @@
     </row>
     <row r="4448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4448" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4448" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4448" s="6" t="n">
         <v>3790</v>
@@ -59857,10 +60008,10 @@
     </row>
     <row r="4449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4449" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4449" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4449" s="6" t="n">
         <v>3475</v>
@@ -59868,10 +60019,10 @@
     </row>
     <row r="4450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4450" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4450" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4450" s="6" t="n">
         <v>3481</v>
@@ -59879,10 +60030,10 @@
     </row>
     <row r="4451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4451" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4451" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4451" s="6" t="n">
         <v>3486</v>
@@ -59890,10 +60041,10 @@
     </row>
     <row r="4452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4452" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4452" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4452" s="6" t="n">
         <v>3791</v>
@@ -59901,10 +60052,10 @@
     </row>
     <row r="4453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4453" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4453" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4453" s="6" t="n">
         <v>3476</v>
@@ -59912,10 +60063,10 @@
     </row>
     <row r="4454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4454" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4454" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4454" s="6" t="n">
         <v>3482</v>
@@ -59923,10 +60074,10 @@
     </row>
     <row r="4455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4455" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4455" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4455" s="6" t="n">
         <v>3792</v>
@@ -59934,10 +60085,10 @@
     </row>
     <row r="4456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4456" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4456" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4456" s="6" t="n">
         <v>3477</v>
@@ -59945,10 +60096,10 @@
     </row>
     <row r="4457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4457" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4457" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4457" s="6" t="n">
         <v>3483</v>
@@ -59956,10 +60107,10 @@
     </row>
     <row r="4458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4458" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4458" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4458" s="6" t="n">
         <v>3793</v>
@@ -59967,10 +60118,10 @@
     </row>
     <row r="4459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4459" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4459" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4459" s="6" t="n">
         <v>3479</v>
@@ -59978,10 +60129,10 @@
     </row>
     <row r="4460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4460" s="46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4460" s="46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4460" s="6" t="n">
         <v>3484</v>
@@ -59989,10 +60140,10 @@
     </row>
     <row r="4461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4461" s="47" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4461" s="47" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C4461" s="6" t="n">
         <v>11109</v>
@@ -60000,10 +60151,10 @@
     </row>
     <row r="4462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4462" s="47" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4462" s="47" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C4462" s="6" t="n">
         <v>11079</v>
@@ -60011,10 +60162,10 @@
     </row>
     <row r="4463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4463" s="47" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4463" s="47" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C4463" s="6" t="n">
         <v>11077</v>
@@ -60022,10 +60173,10 @@
     </row>
     <row r="4464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4464" s="47" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4464" s="47" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C4464" s="6" t="n">
         <v>11078</v>
@@ -60033,24 +60184,24 @@
     </row>
     <row r="4465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4465" s="47" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4465" s="47" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C4465" s="6" t="n">
         <v>11088</v>
       </c>
       <c r="D4465" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4466" s="47" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4466" s="47" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C4466" s="6" t="n">
         <v>500082</v>
@@ -60058,10 +60209,10 @@
     </row>
     <row r="4467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4467" s="47" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4467" s="47" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C4467" s="6" t="n">
         <v>500081</v>
@@ -60069,38 +60220,38 @@
     </row>
     <row r="4468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4468" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4468" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4468" s="6" t="n">
         <v>11615</v>
       </c>
       <c r="D4468" s="1" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4469" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4469" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4469" s="6" t="n">
         <v>11616</v>
       </c>
       <c r="D4469" s="1" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4470" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4470" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4470" s="6" t="n">
         <v>11617</v>
@@ -60111,10 +60262,10 @@
     </row>
     <row r="4471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4471" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4471" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4471" s="6" t="n">
         <v>11618</v>
@@ -60125,10 +60276,10 @@
     </row>
     <row r="4472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4472" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4472" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4472" s="6" t="n">
         <v>8988</v>
@@ -60139,10 +60290,10 @@
     </row>
     <row r="4473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4473" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4473" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4473" s="6" t="n">
         <v>8478</v>
@@ -60150,10 +60301,10 @@
     </row>
     <row r="4474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4474" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4474" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4474" s="6" t="n">
         <v>8479</v>
@@ -60161,10 +60312,10 @@
     </row>
     <row r="4475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4475" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4475" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4475" s="6" t="n">
         <v>8460</v>
@@ -60172,10 +60323,10 @@
     </row>
     <row r="4476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4476" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4476" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4476" s="6" t="n">
         <v>8461</v>
@@ -60183,10 +60334,10 @@
     </row>
     <row r="4477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4477" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4477" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4477" s="6" t="n">
         <v>8462</v>
@@ -60194,10 +60345,10 @@
     </row>
     <row r="4478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4478" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4478" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4478" s="6" t="n">
         <v>8463</v>
@@ -60205,10 +60356,10 @@
     </row>
     <row r="4479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4479" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4479" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4479" s="6" t="n">
         <v>8458</v>
@@ -60216,24 +60367,24 @@
     </row>
     <row r="4480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4480" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4480" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4480" s="6" t="n">
         <v>8459</v>
       </c>
       <c r="D4480" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4481" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4481" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4481" s="6" t="n">
         <v>8401</v>
@@ -60241,10 +60392,10 @@
     </row>
     <row r="4482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4482" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4482" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4482" s="6" t="n">
         <v>8402</v>
@@ -60252,10 +60403,10 @@
     </row>
     <row r="4483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4483" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4483" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4483" s="6" t="n">
         <v>8399</v>
@@ -60263,10 +60414,10 @@
     </row>
     <row r="4484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4484" s="38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4484" s="38" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4484" s="6" t="n">
         <v>8379</v>
@@ -60274,66 +60425,66 @@
     </row>
     <row r="4485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4485" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4485" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4485" s="6" t="n">
         <v>6679</v>
       </c>
       <c r="D4485" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4486" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4486" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4486" s="6" t="n">
         <v>6677</v>
       </c>
       <c r="D4486" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4487" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4487" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4487" s="6" t="n">
         <v>6680</v>
       </c>
       <c r="D4487" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4488" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4488" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4488" s="6" t="n">
         <v>6678</v>
       </c>
       <c r="D4488" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4489" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4489" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4489" s="6" t="n">
         <v>8791</v>
@@ -60341,10 +60492,10 @@
     </row>
     <row r="4490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4490" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4490" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4490" s="6" t="n">
         <v>8792</v>
@@ -60352,514 +60503,514 @@
     </row>
     <row r="4491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4491" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4491" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4491" s="6" t="n">
         <v>8704</v>
       </c>
       <c r="D4491" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4492" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4492" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4492" s="6" t="n">
         <v>8793</v>
       </c>
       <c r="D4492" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4493" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4493" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4493" s="6" t="n">
         <v>8705</v>
       </c>
       <c r="D4493" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4494" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4494" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4494" s="6" t="n">
         <v>8794</v>
       </c>
       <c r="D4494" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4495" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4495" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4495" s="6" t="n">
         <v>8795</v>
       </c>
       <c r="D4495" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4496" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4496" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4496" s="6" t="n">
         <v>8796</v>
       </c>
       <c r="D4496" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4497" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4497" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4497" s="6" t="n">
         <v>8770</v>
       </c>
       <c r="D4497" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4498" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4498" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4498" s="6" t="n">
         <v>8800</v>
       </c>
       <c r="D4498" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4499" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4499" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4499" s="6" t="n">
         <v>8771</v>
       </c>
       <c r="D4499" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4500" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4500" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4500" s="6" t="n">
         <v>8799</v>
       </c>
       <c r="D4500" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4501" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4501" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4501" s="6" t="n">
         <v>8772</v>
       </c>
       <c r="D4501" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4502" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4502" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4502" s="6" t="n">
         <v>8773</v>
       </c>
       <c r="D4502" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4503" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4503" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4503" s="6" t="n">
         <v>8776</v>
       </c>
       <c r="D4503" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4504" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4504" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4504" s="6" t="n">
         <v>8774</v>
       </c>
       <c r="D4504" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4505" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4505" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4505" s="6" t="n">
         <v>8777</v>
       </c>
       <c r="D4505" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4506" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4506" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4506" s="6" t="n">
         <v>8775</v>
       </c>
       <c r="D4506" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4507" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4507" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4507" s="6" t="n">
         <v>8754</v>
       </c>
       <c r="D4507" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4508" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4508" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4508" s="6" t="n">
         <v>8755</v>
       </c>
       <c r="D4508" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4509" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4509" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4509" s="6" t="n">
         <v>8758</v>
       </c>
       <c r="D4509" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4510" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4510" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4510" s="6" t="n">
         <v>8756</v>
       </c>
       <c r="D4510" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4511" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4511" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4511" s="6" t="n">
         <v>8759</v>
       </c>
       <c r="D4511" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4512" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4512" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4512" s="6" t="n">
         <v>8757</v>
       </c>
       <c r="D4512" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4513" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4513" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4513" s="6" t="n">
         <v>8760</v>
       </c>
       <c r="D4513" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4514" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4514" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4514" s="6" t="n">
         <v>8761</v>
       </c>
       <c r="D4514" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4515" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4515" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4515" s="6" t="n">
         <v>8764</v>
       </c>
       <c r="D4515" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4516" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4516" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4516" s="6" t="n">
         <v>8762</v>
       </c>
       <c r="D4516" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4517" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4517" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4517" s="6" t="n">
         <v>8765</v>
       </c>
       <c r="D4517" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4518" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4518" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4518" s="6" t="n">
         <v>8763</v>
       </c>
       <c r="D4518" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4519" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4519" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4519" s="6" t="n">
         <v>8766</v>
       </c>
       <c r="D4519" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4520" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4520" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4520" s="6" t="n">
         <v>8767</v>
       </c>
       <c r="D4520" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4521" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4521" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4521" s="6" t="n">
         <v>8817</v>
       </c>
       <c r="D4521" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4522" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4522" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4522" s="6" t="n">
         <v>8768</v>
       </c>
       <c r="D4522" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4523" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4523" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4523" s="6" t="n">
         <v>8808</v>
       </c>
       <c r="D4523" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4524" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4524" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4524" s="6" t="n">
         <v>8769</v>
       </c>
       <c r="D4524" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4525" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4525" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4525" s="6" t="n">
         <v>8807</v>
       </c>
       <c r="D4525" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4526" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4526" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4526" s="6" t="n">
         <v>8818</v>
       </c>
       <c r="D4526" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4527" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4527" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4527" s="6" t="n">
         <v>8785</v>
@@ -60867,10 +61018,10 @@
     </row>
     <row r="4528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4528" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4528" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4528" s="6" t="n">
         <v>8783</v>
@@ -60878,10 +61029,10 @@
     </row>
     <row r="4529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4529" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4529" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4529" s="6" t="n">
         <v>8786</v>
@@ -60889,10 +61040,10 @@
     </row>
     <row r="4530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4530" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4530" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4530" s="6" t="n">
         <v>8784</v>
@@ -60900,10 +61051,10 @@
     </row>
     <row r="4531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4531" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4531" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4531" s="6" t="n">
         <v>8787</v>
@@ -60911,24 +61062,24 @@
     </row>
     <row r="4532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4532" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4532" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4532" s="6" t="n">
         <v>8788</v>
       </c>
       <c r="D4532" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4533" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4533" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4533" s="6" t="n">
         <v>8801</v>
@@ -60936,10 +61087,10 @@
     </row>
     <row r="4534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4534" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4534" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4534" s="6" t="n">
         <v>8789</v>
@@ -60947,10 +61098,10 @@
     </row>
     <row r="4535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4535" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4535" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4535" s="6" t="n">
         <v>8802</v>
@@ -60958,10 +61109,10 @@
     </row>
     <row r="4536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4536" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4536" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4536" s="6" t="n">
         <v>8790</v>
@@ -60969,10 +61120,10 @@
     </row>
     <row r="4537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4537" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4537" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4537" s="6" t="n">
         <v>8804</v>
@@ -60980,10 +61131,10 @@
     </row>
     <row r="4538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4538" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4538" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4538" s="6" t="n">
         <v>8805</v>
@@ -60991,24 +61142,24 @@
     </row>
     <row r="4539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4539" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4539" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4539" s="6" t="n">
         <v>8809</v>
       </c>
       <c r="D4539" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4540" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4540" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4540" s="6" t="n">
         <v>8803</v>
@@ -61016,24 +61167,24 @@
     </row>
     <row r="4541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4541" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4541" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4541" s="6" t="n">
         <v>8841</v>
       </c>
       <c r="D4541" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4542" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4542" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4542" s="6" t="n">
         <v>8806</v>
@@ -61041,80 +61192,80 @@
     </row>
     <row r="4543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4543" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4543" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4543" s="6" t="n">
         <v>8781</v>
       </c>
       <c r="D4543" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4544" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4544" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4544" s="6" t="n">
         <v>8782</v>
       </c>
       <c r="D4544" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4545" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4545" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4545" s="6" t="n">
         <v>8780</v>
       </c>
       <c r="D4545" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4546" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4546" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4546" s="6" t="n">
         <v>8778</v>
       </c>
       <c r="D4546" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4547" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4547" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4547" s="6" t="n">
         <v>8779</v>
       </c>
       <c r="D4547" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4548" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4548" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4548" s="6" t="n">
         <v>8812</v>
@@ -61122,66 +61273,66 @@
     </row>
     <row r="4549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4549" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4549" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4549" s="6" t="n">
         <v>8811</v>
       </c>
       <c r="D4549" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4550" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4550" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4550" s="6" t="n">
         <v>8814</v>
       </c>
       <c r="D4550" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4551" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4551" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4551" s="6" t="n">
         <v>8810</v>
       </c>
       <c r="D4551" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4552" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4552" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4552" s="6" t="n">
         <v>8813</v>
       </c>
       <c r="D4552" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4553" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4553" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4553" s="6" t="n">
         <v>8819</v>
@@ -61189,108 +61340,108 @@
     </row>
     <row r="4554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4554" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4554" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4554" s="6" t="n">
         <v>8816</v>
       </c>
       <c r="D4554" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4555" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4555" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4555" s="6" t="n">
         <v>8815</v>
       </c>
       <c r="D4555" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4556" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4556" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4556" s="6" t="n">
         <v>8822</v>
       </c>
       <c r="D4556" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4557" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4557" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4557" s="6" t="n">
         <v>8820</v>
       </c>
       <c r="D4557" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4558" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4558" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4558" s="6" t="n">
         <v>8706</v>
       </c>
       <c r="D4558" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4559" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4559" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4559" s="6" t="n">
         <v>8821</v>
       </c>
       <c r="D4559" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4560" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4560" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4560" s="6" t="n">
         <v>8707</v>
       </c>
       <c r="D4560" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4561" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4561" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4561" s="6" t="n">
         <v>11188</v>
@@ -61298,10 +61449,10 @@
     </row>
     <row r="4562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4562" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4562" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4562" s="6" t="n">
         <v>11189</v>
@@ -61309,10 +61460,10 @@
     </row>
     <row r="4563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4563" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4563" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4563" s="6" t="n">
         <v>11190</v>
@@ -61320,10 +61471,10 @@
     </row>
     <row r="4564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4564" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4564" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4564" s="6" t="n">
         <v>11191</v>
@@ -61331,178 +61482,178 @@
     </row>
     <row r="4565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4565" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4565" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4565" s="6" t="n">
         <v>11160</v>
       </c>
       <c r="D4565" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4566" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4566" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4566" s="6" t="n">
         <v>11162</v>
       </c>
       <c r="D4566" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4567" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4567" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4567" s="6" t="n">
         <v>11164</v>
       </c>
       <c r="D4567" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4568" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4568" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4568" s="6" t="n">
         <v>11166</v>
       </c>
       <c r="D4568" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4569" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4569" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4569" s="6" t="n">
         <v>11168</v>
       </c>
       <c r="D4569" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4570" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4570" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4570" s="6" t="n">
         <v>11169</v>
       </c>
       <c r="D4570" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4571" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4571" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4571" s="6" t="n">
         <v>11170</v>
       </c>
       <c r="D4571" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4572" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4572" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4572" s="6" t="n">
         <v>11172</v>
       </c>
       <c r="D4572" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4573" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4573" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4573" s="6" t="n">
         <v>11174</v>
       </c>
       <c r="D4573" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4574" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4574" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4574" s="6" t="n">
         <v>11176</v>
       </c>
       <c r="D4574" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4575" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4575" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4575" s="6" t="n">
         <v>11177</v>
       </c>
       <c r="D4575" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4576" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4576" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4576" s="6" t="n">
         <v>11178</v>
       </c>
       <c r="D4576" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4577" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4577" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4577" s="6" t="n">
         <v>11159</v>
@@ -61510,10 +61661,10 @@
     </row>
     <row r="4578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4578" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4578" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4578" s="6" t="n">
         <v>11161</v>
@@ -61521,10 +61672,10 @@
     </row>
     <row r="4579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4579" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4579" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4579" s="6" t="n">
         <v>11163</v>
@@ -61532,10 +61683,10 @@
     </row>
     <row r="4580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4580" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4580" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4580" s="6" t="n">
         <v>11165</v>
@@ -61543,10 +61694,10 @@
     </row>
     <row r="4581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4581" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4581" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4581" s="6" t="n">
         <v>11167</v>
@@ -61554,10 +61705,10 @@
     </row>
     <row r="4582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4582" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4582" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4582" s="6" t="n">
         <v>11171</v>
@@ -61565,10 +61716,10 @@
     </row>
     <row r="4583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4583" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4583" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4583" s="6" t="n">
         <v>11175</v>
@@ -61576,10 +61727,10 @@
     </row>
     <row r="4584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4584" s="38" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4584" s="38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4584" s="6" t="n">
         <v>11173</v>
@@ -61587,10 +61738,10 @@
     </row>
     <row r="4585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4585" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4585" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4585" s="6" t="n">
         <v>2866</v>
@@ -61598,10 +61749,10 @@
     </row>
     <row r="4586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4586" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4586" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4586" s="6" t="n">
         <v>2867</v>
@@ -61609,10 +61760,10 @@
     </row>
     <row r="4587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4587" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4587" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4587" s="6" t="n">
         <v>2868</v>
@@ -61620,10 +61771,10 @@
     </row>
     <row r="4588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4588" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4588" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4588" s="6" t="n">
         <v>7914</v>
@@ -61631,10 +61782,10 @@
     </row>
     <row r="4589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4589" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4589" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4589" s="6" t="n">
         <v>7921</v>
@@ -61642,10 +61793,10 @@
     </row>
     <row r="4590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4590" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4590" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4590" s="6" t="n">
         <v>7917</v>
@@ -61653,10 +61804,10 @@
     </row>
     <row r="4591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4591" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4591" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4591" s="6" t="n">
         <v>7915</v>
@@ -61664,10 +61815,10 @@
     </row>
     <row r="4592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4592" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4592" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4592" s="6" t="n">
         <v>7916</v>
@@ -61675,10 +61826,10 @@
     </row>
     <row r="4593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4593" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4593" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4593" s="6" t="n">
         <v>7913</v>
@@ -61686,10 +61837,10 @@
     </row>
     <row r="4594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4594" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4594" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4594" s="6" t="n">
         <v>7918</v>
@@ -61697,10 +61848,10 @@
     </row>
     <row r="4595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4595" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4595" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4595" s="6" t="n">
         <v>7919</v>
@@ -61708,10 +61859,10 @@
     </row>
     <row r="4596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4596" s="49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4596" s="49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C4596" s="6" t="n">
         <v>7920</v>
@@ -61719,66 +61870,66 @@
     </row>
     <row r="4597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4597" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B4597" s="50" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C4597" s="6" t="n">
         <v>7922</v>
       </c>
       <c r="D4597" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4598" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B4598" s="50" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C4598" s="6" t="n">
         <v>7923</v>
       </c>
       <c r="D4598" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4599" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B4599" s="50" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C4599" s="6" t="n">
         <v>7924</v>
       </c>
       <c r="D4599" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4600" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B4600" s="50" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C4600" s="6" t="n">
         <v>7925</v>
       </c>
       <c r="D4600" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4601" s="20" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4601" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C4601" s="6" t="n">
         <v>7929</v>
@@ -61786,24 +61937,24 @@
     </row>
     <row r="4602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4602" s="20" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4602" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C4602" s="6" t="n">
         <v>7936</v>
       </c>
       <c r="D4602" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4603" s="20" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4603" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C4603" s="6" t="n">
         <v>7934</v>
@@ -61811,10 +61962,10 @@
     </row>
     <row r="4604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4604" s="20" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4604" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C4604" s="6" t="n">
         <v>217934</v>
@@ -61822,10 +61973,10 @@
     </row>
     <row r="4605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4605" s="20" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4605" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C4605" s="6" t="n">
         <v>7935</v>
@@ -61833,10 +61984,10 @@
     </row>
     <row r="4606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4606" s="20" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4606" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C4606" s="6" t="n">
         <v>217935</v>
@@ -61844,416 +61995,416 @@
     </row>
     <row r="4607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4607" s="38" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B4607" s="38" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C4607" s="6" t="n">
         <v>7926</v>
       </c>
       <c r="D4607" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4608" s="38" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B4608" s="38" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C4608" s="6" t="n">
         <v>7900</v>
       </c>
       <c r="D4608" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4609" s="38" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B4609" s="38" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C4609" s="6" t="n">
         <v>7901</v>
       </c>
       <c r="D4609" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4610" s="38" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B4610" s="38" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C4610" s="6" t="n">
         <v>7902</v>
       </c>
       <c r="D4610" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4611" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4611" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C4611" s="6" t="n">
         <v>8990</v>
       </c>
       <c r="D4611" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4612" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4612" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C4612" s="6" t="n">
         <v>7677</v>
       </c>
       <c r="D4612" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4613" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4613" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C4613" s="6" t="n">
         <v>6663</v>
       </c>
       <c r="D4613" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4614" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4614" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C4614" s="6" t="n">
         <v>6664</v>
       </c>
       <c r="D4614" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4615" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4615" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C4615" s="6" t="n">
         <v>7676</v>
       </c>
       <c r="D4615" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4616" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4616" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C4616" s="6" t="n">
         <v>7736</v>
       </c>
       <c r="D4616" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4617" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4617" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C4617" s="6" t="n">
         <v>7737</v>
       </c>
       <c r="D4617" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4618" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4618" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C4618" s="6" t="n">
         <v>7738</v>
       </c>
       <c r="D4618" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4619" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4619" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4619" s="6" t="n">
         <v>7849</v>
       </c>
       <c r="D4619" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4620" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4620" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4620" s="6" t="n">
         <v>7850</v>
       </c>
       <c r="D4620" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4621" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4621" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4621" s="6" t="n">
         <v>7851</v>
       </c>
       <c r="D4621" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4622" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4622" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4622" s="6" t="n">
         <v>23038</v>
       </c>
       <c r="D4622" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4623" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4623" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4623" s="6" t="n">
         <v>23039</v>
       </c>
       <c r="D4623" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4624" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4624" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4624" s="6" t="n">
         <v>23040</v>
       </c>
       <c r="D4624" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4625" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4625" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4625" s="6" t="n">
         <v>7831</v>
       </c>
       <c r="D4625" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4626" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4626" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4626" s="6" t="n">
         <v>7832</v>
       </c>
       <c r="D4626" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4627" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4627" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4627" s="6" t="n">
         <v>7833</v>
       </c>
       <c r="D4627" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4628" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4628" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4628" s="6" t="n">
         <v>7834</v>
       </c>
       <c r="D4628" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4629" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4629" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4629" s="6" t="n">
         <v>23035</v>
       </c>
       <c r="D4629" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4630" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4630" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4630" s="6" t="n">
         <v>23036</v>
       </c>
       <c r="D4630" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4631" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4631" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4631" s="6" t="n">
         <v>23037</v>
       </c>
       <c r="D4631" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4632" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4632" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4632" s="6" t="n">
         <v>7835</v>
       </c>
       <c r="D4632" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4633" s="49" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4633" s="49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C4633" s="6" t="n">
         <v>7836</v>
       </c>
       <c r="D4633" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4634" s="50" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B4634" s="50" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C4634" s="6" t="n">
         <v>23048</v>
       </c>
       <c r="D4634" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4635" s="50" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B4635" s="50" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C4635" s="6" t="n">
         <v>23047</v>
       </c>
       <c r="D4635" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4636" s="38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B4636" s="38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C4636" s="6" t="n">
         <v>11179</v>
@@ -62261,10 +62412,10 @@
     </row>
     <row r="4637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4637" s="38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B4637" s="38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C4637" s="6" t="n">
         <v>11180</v>
@@ -62272,10 +62423,10 @@
     </row>
     <row r="4638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4638" s="38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B4638" s="38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C4638" s="6" t="n">
         <v>11181</v>
@@ -62283,10 +62434,10 @@
     </row>
     <row r="4639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4639" s="38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B4639" s="38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C4639" s="6" t="n">
         <v>11182</v>
@@ -62294,10 +62445,10 @@
     </row>
     <row r="4640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4640" s="38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B4640" s="38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C4640" s="6" t="n">
         <v>8659</v>
@@ -62305,10 +62456,10 @@
     </row>
     <row r="4641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4641" s="38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B4641" s="38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C4641" s="6" t="n">
         <v>8660</v>
@@ -62316,10 +62467,10 @@
     </row>
     <row r="4642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4642" s="37" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4642" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4642" s="45" t="n">
         <v>2998</v>
@@ -62327,612 +62478,612 @@
     </row>
     <row r="4643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4643" s="37" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4643" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4643" s="45" t="n">
         <v>2754</v>
       </c>
       <c r="D4643" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4644" s="37" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4644" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4644" s="45" t="n">
         <v>212754</v>
       </c>
       <c r="D4644" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4645" s="37" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4645" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4645" s="45" t="n">
         <v>2755</v>
       </c>
       <c r="D4645" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4646" s="37" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4646" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4646" s="45" t="n">
         <v>2756</v>
       </c>
       <c r="D4646" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4647" s="37" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4647" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4647" s="45" t="n">
         <v>212756</v>
       </c>
       <c r="D4647" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4648" s="37" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4648" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4648" s="45" t="n">
         <v>2791</v>
       </c>
       <c r="D4648" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4649" s="37"/>
       <c r="B4649" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4649" s="45" t="n">
         <v>2998</v>
       </c>
       <c r="D4649" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4650" s="37"/>
       <c r="B4650" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4650" s="45" t="n">
         <v>2751</v>
       </c>
       <c r="D4650" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4651" s="37"/>
       <c r="B4651" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4651" s="45" t="n">
         <v>2752</v>
       </c>
       <c r="D4651" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4652" s="37"/>
       <c r="B4652" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4652" s="45" t="n">
         <v>212752</v>
       </c>
       <c r="D4652" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4653" s="37"/>
       <c r="B4653" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4653" s="45" t="n">
         <v>2999</v>
       </c>
-      <c r="D4653" s="1" t="s">
-        <v>435</v>
+      <c r="D4653" s="52" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="4654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4654" s="37"/>
       <c r="B4654" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4654" s="45" t="n">
         <v>2753</v>
       </c>
       <c r="D4654" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4655" s="37"/>
       <c r="B4655" s="37" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4655" s="45" t="n">
         <v>3001</v>
       </c>
       <c r="D4655" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4656" s="37"/>
-      <c r="B4656" s="52" t="s">
-        <v>436</v>
+      <c r="B4656" s="53" t="s">
+        <v>440</v>
       </c>
       <c r="C4656" s="45" t="n">
         <v>2750</v>
       </c>
       <c r="D4656" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4657" s="37"/>
-      <c r="B4657" s="52" t="s">
-        <v>436</v>
+      <c r="B4657" s="53" t="s">
+        <v>440</v>
       </c>
       <c r="C4657" s="45" t="n">
         <v>3000</v>
       </c>
       <c r="D4657" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4658" s="37"/>
-      <c r="B4658" s="52" t="s">
-        <v>436</v>
+      <c r="B4658" s="53" t="s">
+        <v>440</v>
       </c>
       <c r="C4658" s="45" t="n">
         <v>2757</v>
       </c>
       <c r="D4658" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4659" s="37"/>
-      <c r="B4659" s="53" t="s">
-        <v>437</v>
+      <c r="B4659" s="54" t="s">
+        <v>441</v>
       </c>
       <c r="C4659" s="45" t="n">
         <v>7694</v>
       </c>
       <c r="D4659" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4660" s="37"/>
-      <c r="B4660" s="53" t="s">
-        <v>437</v>
+      <c r="B4660" s="54" t="s">
+        <v>441</v>
       </c>
       <c r="C4660" s="45" t="n">
         <v>7695</v>
       </c>
       <c r="D4660" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4661" s="37"/>
-      <c r="B4661" s="53" t="s">
-        <v>437</v>
+      <c r="B4661" s="54" t="s">
+        <v>441</v>
       </c>
       <c r="C4661" s="45" t="n">
         <v>1497</v>
       </c>
       <c r="D4661" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4662" s="37"/>
-      <c r="B4662" s="53" t="s">
-        <v>437</v>
+      <c r="B4662" s="54" t="s">
+        <v>441</v>
       </c>
       <c r="C4662" s="45" t="n">
         <v>1498</v>
       </c>
       <c r="D4662" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4663" s="54" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4663" s="54" t="s">
-        <v>439</v>
+      <c r="A4663" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4663" s="55" t="s">
+        <v>443</v>
       </c>
       <c r="C4663" s="45" t="n">
         <v>8080</v>
       </c>
       <c r="D4663" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4664" s="55" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4664" s="55" t="s">
-        <v>441</v>
+      <c r="A4664" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4664" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="C4664" s="45" t="n">
         <v>3005</v>
       </c>
-      <c r="D4664" s="1" t="s">
-        <v>442</v>
+      <c r="D4664" s="52" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="4665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4665" s="55" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4665" s="55" t="s">
-        <v>441</v>
+      <c r="A4665" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4665" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="C4665" s="45" t="n">
         <v>2699</v>
       </c>
       <c r="D4665" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4666" s="55" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4666" s="55" t="s">
-        <v>441</v>
+      <c r="A4666" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4666" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="C4666" s="45" t="n">
         <v>2910</v>
       </c>
       <c r="D4666" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4667" s="55" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4667" s="55" t="s">
-        <v>441</v>
+      <c r="A4667" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4667" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="C4667" s="45" t="n">
         <v>2628</v>
       </c>
       <c r="D4667" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4668" s="46" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B4668" s="46" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C4668" s="45" t="n">
         <v>3006</v>
       </c>
       <c r="D4668" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4669" s="46" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B4669" s="46" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C4669" s="45" t="n">
         <v>3025</v>
       </c>
       <c r="D4669" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4670" s="46" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B4670" s="46" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C4670" s="45" t="n">
         <v>3026</v>
       </c>
       <c r="D4670" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4671" s="46" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B4671" s="46" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C4671" s="45" t="n">
         <v>3027</v>
       </c>
       <c r="D4671" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4672" s="46" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B4672" s="46" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C4672" s="45" t="n">
         <v>3010</v>
       </c>
       <c r="D4672" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4673" s="42" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B4673" s="42" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C4673" s="45" t="n">
         <v>3014</v>
       </c>
       <c r="D4673" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4674" s="42" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B4674" s="42" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C4674" s="45" t="n">
         <v>3015</v>
       </c>
       <c r="D4674" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4675" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B4675" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C4675" s="45" t="n">
         <v>405851</v>
       </c>
-      <c r="D4675" s="1" t="s">
-        <v>435</v>
+      <c r="D4675" s="52" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="4676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4676" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B4676" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C4676" s="45" t="n">
         <v>405861</v>
       </c>
-      <c r="D4676" s="1" t="s">
-        <v>435</v>
+      <c r="D4676" s="52" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="4677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4677" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B4677" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C4677" s="45" t="n">
         <v>405871</v>
       </c>
-      <c r="D4677" s="1" t="s">
-        <v>435</v>
+      <c r="D4677" s="52" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="4678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4678" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4678" s="56" t="s">
-        <v>452</v>
+      <c r="A4678" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4678" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4678" s="6" t="n">
         <v>10275</v>
       </c>
       <c r="D4678" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4679" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4679" s="56" t="s">
-        <v>452</v>
+      <c r="A4679" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4679" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4679" s="6" t="n">
         <v>10276</v>
       </c>
       <c r="D4679" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4680" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4680" s="56" t="s">
-        <v>452</v>
+      <c r="A4680" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4680" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4680" s="6" t="n">
         <v>6882</v>
       </c>
       <c r="D4680" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4681" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4681" s="56" t="s">
-        <v>452</v>
+      <c r="A4681" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4681" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4681" s="6" t="n">
         <v>6883</v>
       </c>
       <c r="D4681" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4682" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4682" s="56" t="s">
-        <v>452</v>
+      <c r="A4682" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4682" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4682" s="6" t="n">
         <v>6884</v>
       </c>
       <c r="D4682" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4683" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4683" s="56" t="s">
-        <v>452</v>
+      <c r="A4683" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4683" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4683" s="6" t="n">
         <v>6885</v>
       </c>
       <c r="D4683" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4684" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4684" s="56" t="s">
-        <v>452</v>
+      <c r="A4684" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4684" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4684" s="6" t="n">
         <v>6888</v>
       </c>
       <c r="D4684" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4685" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4685" s="56" t="s">
-        <v>452</v>
+      <c r="A4685" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4685" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4685" s="6" t="n">
         <v>6886</v>
       </c>
       <c r="D4685" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4686" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4686" s="56" t="s">
-        <v>452</v>
+      <c r="A4686" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4686" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4686" s="6" t="n">
         <v>6887</v>
       </c>
       <c r="D4686" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4687" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4687" s="56" t="s">
-        <v>452</v>
+      <c r="A4687" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4687" s="57" t="s">
+        <v>457</v>
       </c>
       <c r="C4687" s="6" t="n">
         <v>6889</v>
       </c>
       <c r="D4687" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4688" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4688" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4688" s="6" t="n">
         <v>6890</v>
@@ -62940,10 +63091,10 @@
     </row>
     <row r="4689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4689" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4689" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4689" s="6" t="n">
         <v>6891</v>
@@ -62951,10 +63102,10 @@
     </row>
     <row r="4690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4690" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4690" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4690" s="6" t="n">
         <v>6892</v>
@@ -62962,10 +63113,10 @@
     </row>
     <row r="4691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4691" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4691" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4691" s="6" t="n">
         <v>6893</v>
@@ -62973,10 +63124,10 @@
     </row>
     <row r="4692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4692" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4692" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4692" s="6" t="n">
         <v>6894</v>
@@ -62984,10 +63135,10 @@
     </row>
     <row r="4693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4693" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4693" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4693" s="6" t="n">
         <v>6896</v>
@@ -62995,10 +63146,10 @@
     </row>
     <row r="4694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4694" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4694" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4694" s="6" t="n">
         <v>6897</v>
@@ -63006,10 +63157,10 @@
     </row>
     <row r="4695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4695" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4695" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4695" s="6" t="n">
         <v>6898</v>
@@ -63017,10 +63168,10 @@
     </row>
     <row r="4696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4696" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4696" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4696" s="6" t="n">
         <v>6899</v>
@@ -63028,10 +63179,10 @@
     </row>
     <row r="4697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4697" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4697" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4697" s="6" t="n">
         <v>6900</v>
@@ -63039,10 +63190,10 @@
     </row>
     <row r="4698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4698" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4698" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4698" s="6" t="n">
         <v>6901</v>
@@ -63050,10 +63201,10 @@
     </row>
     <row r="4699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4699" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4699" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4699" s="6" t="n">
         <v>6902</v>
@@ -63061,1756 +63212,1922 @@
     </row>
     <row r="4700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4700" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B4700" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C4700" s="6" t="n">
         <v>6895</v>
       </c>
     </row>
     <row r="4701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4701" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4701" s="57" t="s">
-        <v>457</v>
+      <c r="A4701" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4701" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4701" s="6" t="n">
         <v>8651</v>
       </c>
       <c r="D4701" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4702" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4702" s="57" t="s">
-        <v>457</v>
+      <c r="A4702" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4702" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4702" s="6" t="n">
         <v>11412</v>
       </c>
       <c r="D4702" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4703" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4703" s="57" t="s">
-        <v>457</v>
+      <c r="A4703" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4703" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4703" s="6" t="n">
         <v>6781</v>
       </c>
       <c r="D4703" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4704" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4704" s="57" t="s">
-        <v>457</v>
+      <c r="A4704" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4704" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4704" s="6" t="n">
         <v>6782</v>
       </c>
       <c r="D4704" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4705" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4705" s="57" t="s">
-        <v>457</v>
+      <c r="A4705" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4705" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4705" s="6" t="n">
         <v>7696</v>
       </c>
       <c r="D4705" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4706" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4706" s="57" t="s">
-        <v>457</v>
+      <c r="A4706" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4706" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4706" s="6" t="n">
         <v>7698</v>
       </c>
       <c r="D4706" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4707" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4707" s="57" t="s">
-        <v>457</v>
+      <c r="A4707" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4707" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4707" s="6" t="n">
         <v>7697</v>
       </c>
       <c r="D4707" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4708" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4708" s="57" t="s">
-        <v>457</v>
+      <c r="A4708" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4708" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4708" s="6" t="n">
         <v>8415</v>
       </c>
       <c r="D4708" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4709" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4709" s="57" t="s">
-        <v>457</v>
+      <c r="A4709" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4709" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4709" s="6" t="n">
         <v>8427</v>
       </c>
       <c r="D4709" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4710" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4710" s="57" t="s">
-        <v>457</v>
+      <c r="A4710" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4710" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4710" s="6" t="n">
         <v>8416</v>
       </c>
       <c r="D4710" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4711" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4711" s="57" t="s">
-        <v>457</v>
+      <c r="A4711" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4711" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4711" s="6" t="n">
         <v>8428</v>
       </c>
       <c r="D4711" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4712" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4712" s="57" t="s">
-        <v>457</v>
+      <c r="A4712" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4712" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4712" s="6" t="n">
         <v>8421</v>
       </c>
       <c r="D4712" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4713" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4713" s="57" t="s">
-        <v>457</v>
+      <c r="A4713" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4713" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4713" s="6" t="n">
         <v>8797</v>
       </c>
       <c r="D4713" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4714" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4714" s="57" t="s">
-        <v>457</v>
+      <c r="A4714" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4714" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4714" s="6" t="n">
         <v>8798</v>
       </c>
       <c r="D4714" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4715" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4715" s="57" t="s">
-        <v>457</v>
+      <c r="A4715" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4715" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4715" s="6" t="n">
         <v>8446</v>
       </c>
       <c r="D4715" s="1" t="s">
-        <v>459</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4716" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4716" s="57" t="s">
-        <v>457</v>
+      <c r="A4716" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4716" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4716" s="6" t="n">
         <v>8467</v>
       </c>
       <c r="D4716" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4717" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4717" s="57" t="s">
-        <v>457</v>
+      <c r="A4717" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4717" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4717" s="6" t="n">
         <v>8469</v>
       </c>
       <c r="D4717" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4718" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4718" s="57" t="s">
-        <v>457</v>
+      <c r="A4718" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4718" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4718" s="6" t="n">
         <v>8468</v>
       </c>
       <c r="D4718" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4719" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4719" s="57" t="s">
-        <v>457</v>
+      <c r="A4719" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4719" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4719" s="6" t="n">
         <v>7908</v>
       </c>
       <c r="D4719" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4720" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4720" s="57" t="s">
-        <v>457</v>
+      <c r="A4720" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4720" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4720" s="6" t="n">
         <v>7927</v>
       </c>
       <c r="D4720" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4721" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4721" s="57" t="s">
-        <v>457</v>
+      <c r="A4721" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4721" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4721" s="6" t="n">
         <v>7928</v>
       </c>
       <c r="D4721" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4722" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4722" s="57" t="s">
-        <v>457</v>
+      <c r="A4722" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4722" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4722" s="6" t="n">
         <v>8466</v>
       </c>
       <c r="D4722" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4723" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4723" s="57" t="s">
-        <v>457</v>
+      <c r="A4723" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4723" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4723" s="6" t="n">
         <v>7751</v>
       </c>
     </row>
     <row r="4724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4724" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4724" s="57" t="s">
-        <v>457</v>
+      <c r="A4724" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4724" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4724" s="6" t="n">
         <v>7752</v>
       </c>
     </row>
     <row r="4725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4725" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4725" s="57" t="s">
-        <v>457</v>
+      <c r="A4725" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4725" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4725" s="6" t="n">
         <v>7749</v>
       </c>
       <c r="D4725" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4726" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4726" s="57" t="s">
-        <v>457</v>
+      <c r="A4726" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4726" s="58" t="s">
+        <v>462</v>
       </c>
       <c r="C4726" s="6" t="n">
         <v>7750</v>
       </c>
       <c r="D4726" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4727" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4727" s="58" t="s">
-        <v>462</v>
+      <c r="A4727" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4727" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4727" s="6" t="n">
         <v>11517</v>
       </c>
     </row>
     <row r="4728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4728" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4728" s="58" t="s">
-        <v>462</v>
+      <c r="A4728" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4728" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4728" s="6" t="n">
         <v>11518</v>
       </c>
     </row>
     <row r="4729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4729" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4729" s="58" t="s">
-        <v>462</v>
+      <c r="A4729" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4729" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4729" s="6" t="n">
         <v>11519</v>
       </c>
     </row>
     <row r="4730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4730" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4730" s="58" t="s">
-        <v>462</v>
+      <c r="A4730" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4730" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4730" s="6" t="n">
         <v>11561</v>
       </c>
     </row>
     <row r="4731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4731" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4731" s="58" t="s">
-        <v>462</v>
+      <c r="A4731" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4731" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4731" s="6" t="n">
         <v>11809</v>
       </c>
     </row>
     <row r="4732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4732" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4732" s="58" t="s">
-        <v>462</v>
+      <c r="A4732" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4732" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4732" s="6" t="n">
         <v>11633</v>
       </c>
     </row>
     <row r="4733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4733" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4733" s="58" t="s">
-        <v>462</v>
+      <c r="A4733" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4733" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4733" s="6" t="n">
         <v>11353</v>
       </c>
     </row>
     <row r="4734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4734" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4734" s="58" t="s">
-        <v>462</v>
+      <c r="A4734" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4734" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4734" s="6" t="n">
         <v>11817</v>
       </c>
     </row>
     <row r="4735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4735" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4735" s="58" t="s">
-        <v>462</v>
+      <c r="A4735" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4735" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4735" s="6" t="n">
         <v>11354</v>
       </c>
     </row>
     <row r="4736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4736" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4736" s="58" t="s">
-        <v>462</v>
+      <c r="A4736" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4736" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4736" s="6" t="n">
         <v>11544</v>
       </c>
     </row>
     <row r="4737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4737" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4737" s="58" t="s">
-        <v>462</v>
+      <c r="A4737" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4737" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4737" s="6" t="n">
         <v>11562</v>
       </c>
     </row>
     <row r="4738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4738" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4738" s="58" t="s">
-        <v>462</v>
+      <c r="A4738" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4738" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4738" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4739" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4739" s="58" t="s">
-        <v>462</v>
+      <c r="A4739" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4739" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4739" s="6" t="n">
         <v>11550</v>
       </c>
     </row>
     <row r="4740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4740" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4740" s="58" t="s">
-        <v>462</v>
+      <c r="A4740" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4740" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4740" s="6" t="n">
         <v>11553</v>
       </c>
     </row>
     <row r="4741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4741" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4741" s="58" t="s">
-        <v>462</v>
+      <c r="A4741" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4741" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4741" s="6" t="n">
         <v>11563</v>
       </c>
     </row>
     <row r="4742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4742" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4742" s="58" t="s">
-        <v>462</v>
+      <c r="A4742" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4742" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4742" s="6" t="n">
         <v>11551</v>
       </c>
     </row>
     <row r="4743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4743" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4743" s="58" t="s">
-        <v>462</v>
+      <c r="A4743" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4743" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4743" s="6" t="n">
         <v>11552</v>
       </c>
     </row>
     <row r="4744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4744" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4744" s="58" t="s">
-        <v>462</v>
+      <c r="A4744" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4744" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4744" s="6" t="n">
         <v>11554</v>
       </c>
     </row>
     <row r="4745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4745" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4745" s="58" t="s">
-        <v>462</v>
+      <c r="A4745" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4745" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4745" s="6" t="n">
         <v>11369</v>
       </c>
+      <c r="D4745" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4746" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4746" s="58" t="s">
-        <v>462</v>
+      <c r="A4746" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4746" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4746" s="6" t="n">
         <v>11370</v>
       </c>
+      <c r="D4746" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4747" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4747" s="58" t="s">
-        <v>462</v>
+      <c r="A4747" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4747" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4747" s="6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D4747" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4748" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4748" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4748" s="6" t="n">
+        <v>11380</v>
+      </c>
+      <c r="D4748" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4749" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4749" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4749" s="6" t="n">
         <v>11726</v>
       </c>
-    </row>
-    <row r="4748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4748" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4748" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4748" s="6" t="n">
+      <c r="D4749" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4750" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4750" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4750" s="6" t="n">
         <v>11820</v>
       </c>
-    </row>
-    <row r="4749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4749" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4749" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4749" s="6" t="n">
+      <c r="D4750" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4751" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4751" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4751" s="6" t="n">
         <v>11371</v>
       </c>
-    </row>
-    <row r="4750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4750" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4750" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4750" s="6" t="n">
+      <c r="D4751" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4752" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4752" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4752" s="6" t="n">
         <v>11372</v>
       </c>
-    </row>
-    <row r="4751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4751" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4751" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4751" s="6" t="n">
+      <c r="D4752" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4753" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4753" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4753" s="6" t="n">
         <v>11373</v>
       </c>
-    </row>
-    <row r="4752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4752" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4752" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4752" s="6" t="n">
+      <c r="D4753" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4754" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4754" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4754" s="6" t="n">
         <v>11381</v>
       </c>
-    </row>
-    <row r="4753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4753" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4753" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4753" s="6" t="n">
+      <c r="D4754" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4755" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4755" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4755" s="6" t="n">
         <v>11382</v>
       </c>
-    </row>
-    <row r="4754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4754" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4754" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4754" s="6" t="n">
+      <c r="D4755" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4756" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4756" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4756" s="6" t="n">
         <v>11383</v>
       </c>
-    </row>
-    <row r="4755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4755" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4755" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4755" s="6" t="n">
+      <c r="D4756" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4757" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4757" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4757" s="6" t="n">
         <v>11630</v>
       </c>
-    </row>
-    <row r="4756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4756" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4756" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4756" s="6" t="n">
+      <c r="D4757" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4758" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4758" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4758" s="6" t="n">
         <v>11507</v>
       </c>
-    </row>
-    <row r="4757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4757" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4757" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4757" s="6" t="n">
+      <c r="D4758" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4759" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4759" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4759" s="6" t="n">
         <v>11812</v>
       </c>
-    </row>
-    <row r="4758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4758" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4758" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4758" s="6" t="n">
+      <c r="D4759" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4760" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4760" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4760" s="6" t="n">
         <v>11521</v>
       </c>
-    </row>
-    <row r="4759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4759" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4759" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4759" s="6" t="n">
+      <c r="D4760" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4761" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4761" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4761" s="6" t="n">
         <v>11631</v>
       </c>
-    </row>
-    <row r="4760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4760" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4760" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4760" s="6" t="n">
+      <c r="D4761" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4762" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4762" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4762" s="6" t="n">
         <v>11520</v>
       </c>
-    </row>
-    <row r="4761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4761" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4761" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4761" s="6" t="n">
+      <c r="D4762" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4763" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4763" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4763" s="6" t="n">
         <v>11576</v>
       </c>
-    </row>
-    <row r="4762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4762" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4762" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4762" s="6" t="n">
+      <c r="D4763" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4764" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4764" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4764" s="6" t="n">
         <v>11725</v>
       </c>
-    </row>
-    <row r="4763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4763" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4763" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4763" s="6" t="n">
+      <c r="D4764" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4765" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4765" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4765" s="6" t="n">
         <v>11547</v>
       </c>
-    </row>
-    <row r="4764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4764" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4764" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4764" s="6" t="n">
+      <c r="D4765" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4766" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4766" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4766" s="6" t="n">
         <v>11376</v>
       </c>
-    </row>
-    <row r="4765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4765" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4765" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4765" s="6" t="n">
+      <c r="D4766" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4767" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4767" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4767" s="6" t="n">
         <v>11509</v>
       </c>
-    </row>
-    <row r="4766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4766" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4766" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4766" s="6" t="n">
+      <c r="D4767" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4768" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4768" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4768" s="6" t="n">
         <v>11514</v>
       </c>
-    </row>
-    <row r="4767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4767" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4767" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4767" s="6" t="n">
+      <c r="D4768" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4769" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4769" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4769" s="6" t="n">
         <v>11537</v>
       </c>
-    </row>
-    <row r="4768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4768" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4768" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4768" s="6" t="n">
+      <c r="D4769" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4770" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4770" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4770" s="6" t="n">
         <v>11803</v>
       </c>
-    </row>
-    <row r="4769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4769" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4769" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4769" s="6" t="n">
+      <c r="D4770" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4771" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4771" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4771" s="6" t="n">
         <v>11743</v>
       </c>
-    </row>
-    <row r="4770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4770" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4770" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4770" s="6" t="n">
+      <c r="D4771" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4772" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4772" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4772" s="6" t="n">
         <v>11788</v>
       </c>
-    </row>
-    <row r="4771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4771" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4771" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4771" s="6" t="n">
+      <c r="D4772" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4773" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4773" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4773" s="6" t="n">
         <v>11542</v>
       </c>
-    </row>
-    <row r="4772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4772" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4772" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4772" s="6" t="n">
+      <c r="D4773" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4774" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4774" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4774" s="6" t="n">
         <v>11543</v>
       </c>
-    </row>
-    <row r="4773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4773" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4773" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4773" s="6" t="n">
+      <c r="D4774" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4775" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4775" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4775" s="6" t="n">
         <v>11724</v>
       </c>
-    </row>
-    <row r="4774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4774" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4774" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4774" s="6" t="n">
+      <c r="D4775" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4776" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4776" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4776" s="6" t="n">
         <v>11614</v>
       </c>
-    </row>
-    <row r="4775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4775" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4775" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4775" s="6" t="n">
+      <c r="D4776" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4777" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4777" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4777" s="6" t="n">
         <v>11377</v>
       </c>
-    </row>
-    <row r="4776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4776" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4776" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4776" s="6" t="n">
+      <c r="D4777" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4778" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4778" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4778" s="6" t="n">
         <v>11523</v>
       </c>
-    </row>
-    <row r="4777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4777" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4777" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4777" s="6" t="n">
+      <c r="D4778" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4779" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4779" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4779" s="6" t="n">
         <v>11526</v>
       </c>
-    </row>
-    <row r="4778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4778" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4778" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4778" s="6" t="n">
+      <c r="D4779" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4780" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4780" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4780" s="6" t="n">
         <v>11448</v>
       </c>
-    </row>
-    <row r="4779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4779" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4779" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4779" s="6" t="n">
+      <c r="D4780" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4781" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4781" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4781" s="6" t="n">
         <v>11447</v>
       </c>
-    </row>
-    <row r="4780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4780" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4780" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4780" s="6" t="n">
+      <c r="D4781" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4782" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4782" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4782" s="6" t="n">
         <v>11548</v>
       </c>
-    </row>
-    <row r="4781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4781" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4781" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4781" s="6" t="n">
+      <c r="D4782" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4783" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4783" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4783" s="6" t="n">
         <v>11527</v>
       </c>
-    </row>
-    <row r="4782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4782" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4782" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4782" s="6" t="n">
+      <c r="D4783" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4784" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4784" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4784" s="6" t="n">
         <v>11524</v>
       </c>
-    </row>
-    <row r="4783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4783" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4783" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4783" s="6" t="n">
+      <c r="D4784" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4785" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4785" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4785" s="6" t="n">
         <v>11525</v>
       </c>
-    </row>
-    <row r="4784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4784" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4784" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4784" s="6" t="n">
+      <c r="D4785" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4786" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4786" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4786" s="6" t="n">
         <v>11539</v>
       </c>
-    </row>
-    <row r="4785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4785" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4785" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4785" s="6" t="n">
+      <c r="D4786" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4787" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4787" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4787" s="6" t="n">
         <v>11813</v>
       </c>
     </row>
-    <row r="4786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4786" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4786" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4786" s="6" t="n">
+    <row r="4788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4788" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4788" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4788" s="6" t="n">
         <v>11814</v>
       </c>
     </row>
-    <row r="4787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4787" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4787" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4787" s="6" t="n">
+    <row r="4789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4789" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4789" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4789" s="6" t="n">
         <v>11815</v>
       </c>
     </row>
-    <row r="4788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4788" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4788" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4788" s="6" t="n">
+    <row r="4790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4790" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4790" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4790" s="6" t="n">
         <v>11816</v>
       </c>
     </row>
-    <row r="4789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4789" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4789" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4789" s="6" t="n">
-        <v>11549</v>
-      </c>
-    </row>
-    <row r="4790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4790" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4790" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4790" s="6" t="n">
-        <v>11370</v>
-      </c>
-    </row>
     <row r="4791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4791" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4791" s="58" t="s">
-        <v>462</v>
+      <c r="A4791" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4791" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4791" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4792" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4792" s="58" t="s">
-        <v>462</v>
+      <c r="A4792" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4792" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="C4792" s="6" t="n">
+        <v>11370</v>
+      </c>
+    </row>
+    <row r="4793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4793" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4793" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4793" s="6" t="n">
+        <v>11549</v>
+      </c>
+    </row>
+    <row r="4794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4794" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4794" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4794" s="6" t="n">
         <v>11547</v>
       </c>
     </row>
-    <row r="4793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4793" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4793" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4793" s="6" t="n">
+    <row r="4795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4795" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4795" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4795" s="6" t="n">
         <v>11448</v>
       </c>
     </row>
-    <row r="4794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4794" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4794" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4794" s="6" t="n">
+    <row r="4796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4796" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4796" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4796" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
-    <row r="4795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4795" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4795" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4795" s="6" t="n">
+    <row r="4797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4797" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4797" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4797" s="6" t="n">
         <v>11542</v>
       </c>
     </row>
-    <row r="4796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4796" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4796" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4796" s="6" t="n">
+    <row r="4798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4798" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4798" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4798" s="6" t="n">
         <v>11447</v>
       </c>
     </row>
-    <row r="4797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4797" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4797" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4797" s="6" t="n">
+    <row r="4799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4799" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4799" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4799" s="6" t="n">
         <v>11441</v>
       </c>
     </row>
-    <row r="4798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4798" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4798" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4798" s="6" t="n">
+    <row r="4800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4800" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4800" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4800" s="6" t="n">
         <v>11442</v>
       </c>
     </row>
-    <row r="4799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4799" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4799" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4799" s="6" t="n">
+    <row r="4801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4801" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4801" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4801" s="6" t="n">
         <v>11443</v>
       </c>
     </row>
-    <row r="4800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4800" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4800" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4800" s="6" t="n">
+    <row r="4802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4802" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4802" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4802" s="6" t="n">
         <v>11445</v>
       </c>
     </row>
-    <row r="4801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4801" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4801" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4801" s="6" t="n">
+    <row r="4803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4803" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4803" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4803" s="6" t="n">
         <v>11625</v>
       </c>
     </row>
-    <row r="4802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4802" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4802" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4802" s="6" t="n">
+    <row r="4804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4804" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4804" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4804" s="6" t="n">
         <v>11740</v>
       </c>
     </row>
-    <row r="4803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4803" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4803" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4803" s="6" t="n">
+    <row r="4805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4805" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4805" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4805" s="6" t="n">
         <v>11626</v>
       </c>
     </row>
-    <row r="4804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4804" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4804" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4804" s="6" t="n">
+    <row r="4806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4806" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4806" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4806" s="6" t="n">
         <v>11741</v>
       </c>
     </row>
-    <row r="4805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4805" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4805" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4805" s="6" t="n">
+    <row r="4807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4807" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4807" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4807" s="6" t="n">
         <v>11627</v>
       </c>
     </row>
-    <row r="4806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4806" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4806" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4806" s="6" t="n">
+    <row r="4808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4808" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4808" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4808" s="6" t="n">
         <v>11742</v>
       </c>
     </row>
-    <row r="4807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4807" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4807" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4807" s="6" t="n">
+    <row r="4809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4809" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4809" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4809" s="6" t="n">
         <v>11564</v>
       </c>
-    </row>
-    <row r="4808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4808" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4808" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4808" s="6" t="n">
+      <c r="D4809" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4810" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4810" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4810" s="6" t="n">
         <v>11446</v>
       </c>
-    </row>
-    <row r="4809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4809" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4809" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4809" s="6" t="n">
+      <c r="D4810" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4811" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4811" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4811" s="6" t="n">
         <v>11565</v>
       </c>
-    </row>
-    <row r="4810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4810" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4810" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4810" s="6" t="n">
+      <c r="D4811" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4812" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4812" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4812" s="6" t="n">
         <v>11566</v>
       </c>
-    </row>
-    <row r="4811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4811" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4811" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4811" s="6" t="n">
+      <c r="D4812" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4813" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4813" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4813" s="6" t="n">
         <v>11568</v>
       </c>
-    </row>
-    <row r="4812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4812" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4812" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4812" s="6" t="n">
+      <c r="D4813" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4814" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4814" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4814" s="6" t="n">
         <v>11569</v>
       </c>
-    </row>
-    <row r="4813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4813" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4813" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4813" s="6" t="n">
+      <c r="D4814" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4815" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4815" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4815" s="6" t="n">
         <v>118211</v>
       </c>
     </row>
-    <row r="4814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4814" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4814" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4814" s="6" t="n">
+    <row r="4816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4816" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4816" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4816" s="6" t="n">
         <v>118212</v>
       </c>
     </row>
-    <row r="4815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4815" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4815" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4815" s="6" t="n">
+    <row r="4817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4817" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4817" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4817" s="6" t="n">
         <v>118213</v>
       </c>
     </row>
-    <row r="4816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4816" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4816" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4816" s="6" t="n">
+    <row r="4818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4818" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4818" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4818" s="6" t="n">
         <v>118214</v>
       </c>
     </row>
-    <row r="4817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4817" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4817" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4817" s="6" t="n">
+    <row r="4819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4819" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4819" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4819" s="6" t="n">
         <v>118215</v>
       </c>
     </row>
-    <row r="4818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4818" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4818" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4818" s="6" t="n">
+    <row r="4820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4820" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4820" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4820" s="6" t="n">
         <v>118216</v>
       </c>
     </row>
-    <row r="4819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4819" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4819" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4819" s="6" t="n">
+    <row r="4821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4821" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4821" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4821" s="6" t="n">
         <v>118217</v>
       </c>
     </row>
-    <row r="4820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4820" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4820" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4820" s="6" t="n">
+    <row r="4822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4822" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4822" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4822" s="6" t="n">
         <v>118218</v>
       </c>
     </row>
-    <row r="4821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4821" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4821" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4821" s="6" t="n">
+    <row r="4823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4823" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4823" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4823" s="6" t="n">
         <v>118219</v>
       </c>
     </row>
-    <row r="4822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4822" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4822" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4822" s="6" t="n">
+    <row r="4824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4824" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4824" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4824" s="6" t="n">
         <v>118220</v>
       </c>
     </row>
-    <row r="4823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4823" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4823" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4823" s="6" t="n">
+    <row r="4825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4825" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4825" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4825" s="6" t="n">
         <v>118221</v>
       </c>
     </row>
-    <row r="4824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4824" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4824" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4824" s="6" t="n">
+    <row r="4826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4826" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4826" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4826" s="6" t="n">
         <v>118222</v>
       </c>
     </row>
-    <row r="4825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4825" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4825" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4825" s="6" t="n">
+    <row r="4827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4827" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4827" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4827" s="6" t="n">
         <v>118223</v>
       </c>
     </row>
-    <row r="4826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4826" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4826" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4826" s="6" t="n">
+    <row r="4828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4828" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4828" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4828" s="6" t="n">
         <v>11821</v>
       </c>
     </row>
-    <row r="4827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4827" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4827" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4827" s="6" t="n">
+    <row r="4829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4829" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4829" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4829" s="6" t="n">
         <v>11822</v>
       </c>
     </row>
-    <row r="4828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4828" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4828" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4828" s="6" t="n">
+    <row r="4830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4830" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4830" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4830" s="6" t="n">
         <v>11829</v>
       </c>
     </row>
-    <row r="4829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4829" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4829" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4829" s="6" t="n">
+    <row r="4831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4831" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4831" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4831" s="6" t="n">
         <v>11830</v>
       </c>
     </row>
-    <row r="4830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4830" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4830" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4830" s="6" t="n">
+    <row r="4832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4832" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4832" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4832" s="6" t="n">
         <v>11388</v>
       </c>
     </row>
-    <row r="4831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4831" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4831" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4831" s="6" t="n">
+    <row r="4833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4833" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4833" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4833" s="6" t="n">
         <v>11389</v>
       </c>
     </row>
-    <row r="4832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4832" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4832" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4832" s="6" t="n">
+    <row r="4834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4834" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4834" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4834" s="6" t="n">
         <v>11390</v>
       </c>
     </row>
-    <row r="4833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4833" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4833" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4833" s="6" t="n">
+    <row r="4835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4835" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4835" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4835" s="6" t="n">
         <v>11538</v>
       </c>
     </row>
-    <row r="4834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4834" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4834" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4834" s="6" t="n">
+    <row r="4836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4836" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4836" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4836" s="6" t="n">
         <v>11391</v>
       </c>
     </row>
-    <row r="4835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4835" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4835" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4835" s="6" t="n">
+    <row r="4837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4837" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4837" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4837" s="6" t="n">
         <v>11583</v>
       </c>
     </row>
-    <row r="4836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4836" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4836" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4836" s="6" t="n">
+    <row r="4838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4838" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4838" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4838" s="6" t="n">
         <v>11584</v>
       </c>
     </row>
-    <row r="4837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4837" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4837" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4837" s="6" t="n">
+    <row r="4839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4839" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4839" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4839" s="6" t="n">
         <v>11585</v>
       </c>
     </row>
-    <row r="4838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4838" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4838" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4838" s="6" t="n">
+    <row r="4840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4840" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4840" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4840" s="6" t="n">
         <v>11392</v>
       </c>
     </row>
-    <row r="4839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4839" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4839" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4839" s="6" t="n">
+    <row r="4841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4841" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4841" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4841" s="6" t="n">
         <v>11394</v>
       </c>
     </row>
-    <row r="4840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4840" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4840" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4840" s="6" t="n">
+    <row r="4842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4842" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4842" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4842" s="6" t="n">
         <v>11395</v>
       </c>
     </row>
-    <row r="4841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4841" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4841" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4841" s="6" t="n">
+    <row r="4843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4843" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4843" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4843" s="6" t="n">
         <v>11385</v>
       </c>
     </row>
-    <row r="4842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4842" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4842" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4842" s="6" t="n">
+    <row r="4844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4844" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4844" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4844" s="6" t="n">
         <v>11386</v>
       </c>
     </row>
-    <row r="4843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4843" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4843" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4843" s="6" t="n">
+    <row r="4845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4845" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4845" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4845" s="6" t="n">
         <v>11413</v>
       </c>
     </row>
-    <row r="4844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4844" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4844" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4844" s="6" t="n">
+    <row r="4846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4846" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4846" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4846" s="6" t="n">
         <v>11387</v>
       </c>
     </row>
-    <row r="4845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4845" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4845" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4845" s="6" t="n">
+    <row r="4847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4847" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4847" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4847" s="6" t="n">
         <v>11570</v>
       </c>
     </row>
-    <row r="4846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4846" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4846" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4846" s="6" t="n">
+    <row r="4848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4848" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4848" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4848" s="6" t="n">
         <v>11416</v>
       </c>
     </row>
-    <row r="4847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4847" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4847" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4847" s="6" t="n">
+    <row r="4849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4849" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4849" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4849" s="6" t="n">
         <v>11528</v>
       </c>
     </row>
-    <row r="4848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4848" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4848" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4848" s="6" t="n">
+    <row r="4850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4850" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4850" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4850" s="6" t="n">
         <v>11378</v>
       </c>
     </row>
-    <row r="4849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4849" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4849" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4849" s="6" t="n">
+    <row r="4851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4851" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4851" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4851" s="6" t="n">
         <v>11556</v>
       </c>
     </row>
-    <row r="4850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4850" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4850" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4850" s="6" t="n">
+    <row r="4852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4852" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4852" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4852" s="6" t="n">
         <v>11557</v>
       </c>
     </row>
-    <row r="4851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4851" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4851" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4851" s="6" t="n">
+    <row r="4853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4853" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4853" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4853" s="6" t="n">
         <v>11545</v>
       </c>
     </row>
-    <row r="4852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4852" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4852" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4852" s="6" t="n">
+    <row r="4854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4854" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4854" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4854" s="6" t="n">
         <v>11546</v>
       </c>
     </row>

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12836" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12836" uniqueCount="466">
   <si>
     <t xml:space="preserve">CATEGORY ES</t>
   </si>
@@ -1339,27 +1339,6 @@
     <t xml:space="preserve">okgoogle,alexa,rgb3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">okgoogle,alexa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,rgb3</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">LED SMART SPOTLIGHTS</t>
   </si>
   <si>
@@ -1381,25 +1360,7 @@
     <t xml:space="preserve">okgoogle,alexa,ip68,rgb3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">okgoogle,alexa,ip65,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rgb3</t>
-    </r>
+    <t xml:space="preserve">okgoogle,alexa,ip65,rgb3</t>
   </si>
   <si>
     <t xml:space="preserve">FOCOS LED SMART</t>
@@ -1408,25 +1369,7 @@
     <t xml:space="preserve">LED SMART FLOODLIGHTS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">okgoogle,alexa,ip65,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rgb3,pirmotionsens</t>
-    </r>
+    <t xml:space="preserve">okgoogle,alexa,ip65,rgb3,pirmotionsens</t>
   </si>
   <si>
     <t xml:space="preserve">LUCES DE JARDIN LED SMART</t>
@@ -1468,27 +1411,6 @@
     <t xml:space="preserve">okgoogle,alexa,2000pa,360laser</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">okgoogle,alexa,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2000pa,360laser</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">LED SOLAR Y FOTOVOLTAICA</t>
   </si>
   <si>
@@ -1496,27 +1418,6 @@
   </si>
   <si>
     <t xml:space="preserve">10yr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5yr,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ip65</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1526,7 +1427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,12 +1463,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1927,7 +1822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2136,10 +2031,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="46" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2164,7 +2055,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2353,8 +2244,8 @@
   </sheetPr>
   <dimension ref="A1:D4854"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4803" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4814" activeCellId="0" sqref="D4814"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4749" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4795" activeCellId="0" sqref="D4795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -62501,7 +62392,7 @@
         <v>212754</v>
       </c>
       <c r="D4644" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62515,7 +62406,7 @@
         <v>2755</v>
       </c>
       <c r="D4645" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62529,7 +62420,7 @@
         <v>2756</v>
       </c>
       <c r="D4646" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62543,7 +62434,7 @@
         <v>212756</v>
       </c>
       <c r="D4647" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62557,7 +62448,7 @@
         <v>2791</v>
       </c>
       <c r="D4648" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62569,7 +62460,7 @@
         <v>2998</v>
       </c>
       <c r="D4649" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62581,7 +62472,7 @@
         <v>2751</v>
       </c>
       <c r="D4650" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62593,7 +62484,7 @@
         <v>2752</v>
       </c>
       <c r="D4651" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62605,7 +62496,7 @@
         <v>212752</v>
       </c>
       <c r="D4652" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62616,7 +62507,7 @@
       <c r="C4653" s="45" t="n">
         <v>2999</v>
       </c>
-      <c r="D4653" s="52" t="s">
+      <c r="D4653" s="8" t="s">
         <v>438</v>
       </c>
     </row>
@@ -62629,7 +62520,7 @@
         <v>2753</v>
       </c>
       <c r="D4654" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62641,449 +62532,449 @@
         <v>3001</v>
       </c>
       <c r="D4655" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4656" s="37"/>
-      <c r="B4656" s="53" t="s">
-        <v>440</v>
+      <c r="B4656" s="52" t="s">
+        <v>439</v>
       </c>
       <c r="C4656" s="45" t="n">
         <v>2750</v>
       </c>
       <c r="D4656" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4657" s="37"/>
-      <c r="B4657" s="53" t="s">
-        <v>440</v>
+      <c r="B4657" s="52" t="s">
+        <v>439</v>
       </c>
       <c r="C4657" s="45" t="n">
         <v>3000</v>
       </c>
       <c r="D4657" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4658" s="37"/>
-      <c r="B4658" s="53" t="s">
-        <v>440</v>
+      <c r="B4658" s="52" t="s">
+        <v>439</v>
       </c>
       <c r="C4658" s="45" t="n">
         <v>2757</v>
       </c>
       <c r="D4658" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4659" s="37"/>
-      <c r="B4659" s="54" t="s">
-        <v>441</v>
+      <c r="B4659" s="53" t="s">
+        <v>440</v>
       </c>
       <c r="C4659" s="45" t="n">
         <v>7694</v>
       </c>
       <c r="D4659" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4660" s="37"/>
-      <c r="B4660" s="54" t="s">
-        <v>441</v>
+      <c r="B4660" s="53" t="s">
+        <v>440</v>
       </c>
       <c r="C4660" s="45" t="n">
         <v>7695</v>
       </c>
       <c r="D4660" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4661" s="37"/>
-      <c r="B4661" s="54" t="s">
-        <v>441</v>
+      <c r="B4661" s="53" t="s">
+        <v>440</v>
       </c>
       <c r="C4661" s="45" t="n">
         <v>1497</v>
       </c>
       <c r="D4661" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4662" s="37"/>
-      <c r="B4662" s="54" t="s">
-        <v>441</v>
+      <c r="B4662" s="53" t="s">
+        <v>440</v>
       </c>
       <c r="C4662" s="45" t="n">
         <v>1498</v>
       </c>
       <c r="D4662" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4663" s="55" t="s">
+      <c r="A4663" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4663" s="54" t="s">
         <v>442</v>
-      </c>
-      <c r="B4663" s="55" t="s">
-        <v>443</v>
       </c>
       <c r="C4663" s="45" t="n">
         <v>8080</v>
       </c>
       <c r="D4663" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4664" s="56" t="s">
+      <c r="A4664" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4664" s="55" t="s">
         <v>444</v>
-      </c>
-      <c r="B4664" s="56" t="s">
-        <v>445</v>
       </c>
       <c r="C4664" s="45" t="n">
         <v>3005</v>
       </c>
-      <c r="D4664" s="52" t="s">
-        <v>446</v>
+      <c r="D4664" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4665" s="56" t="s">
+      <c r="A4665" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4665" s="55" t="s">
         <v>444</v>
-      </c>
-      <c r="B4665" s="56" t="s">
-        <v>445</v>
       </c>
       <c r="C4665" s="45" t="n">
         <v>2699</v>
       </c>
       <c r="D4665" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4666" s="56" t="s">
+      <c r="A4666" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4666" s="55" t="s">
         <v>444</v>
-      </c>
-      <c r="B4666" s="56" t="s">
-        <v>445</v>
       </c>
       <c r="C4666" s="45" t="n">
         <v>2910</v>
       </c>
       <c r="D4666" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4667" s="56" t="s">
+      <c r="A4667" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4667" s="55" t="s">
         <v>444</v>
-      </c>
-      <c r="B4667" s="56" t="s">
-        <v>445</v>
       </c>
       <c r="C4667" s="45" t="n">
         <v>2628</v>
       </c>
       <c r="D4667" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4668" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4668" s="46" t="s">
         <v>448</v>
-      </c>
-      <c r="B4668" s="46" t="s">
-        <v>449</v>
       </c>
       <c r="C4668" s="45" t="n">
         <v>3006</v>
       </c>
       <c r="D4668" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4669" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4669" s="46" t="s">
         <v>448</v>
-      </c>
-      <c r="B4669" s="46" t="s">
-        <v>449</v>
       </c>
       <c r="C4669" s="45" t="n">
         <v>3025</v>
       </c>
       <c r="D4669" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4670" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4670" s="46" t="s">
         <v>448</v>
-      </c>
-      <c r="B4670" s="46" t="s">
-        <v>449</v>
       </c>
       <c r="C4670" s="45" t="n">
         <v>3026</v>
       </c>
       <c r="D4670" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4671" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4671" s="46" t="s">
         <v>448</v>
-      </c>
-      <c r="B4671" s="46" t="s">
-        <v>449</v>
       </c>
       <c r="C4671" s="45" t="n">
         <v>3027</v>
       </c>
       <c r="D4671" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4672" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4672" s="46" t="s">
         <v>448</v>
-      </c>
-      <c r="B4672" s="46" t="s">
-        <v>449</v>
       </c>
       <c r="C4672" s="45" t="n">
         <v>3010</v>
       </c>
       <c r="D4672" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4673" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4673" s="42" t="s">
         <v>451</v>
-      </c>
-      <c r="B4673" s="42" t="s">
-        <v>452</v>
       </c>
       <c r="C4673" s="45" t="n">
         <v>3014</v>
       </c>
       <c r="D4673" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4674" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4674" s="42" t="s">
         <v>451</v>
-      </c>
-      <c r="B4674" s="42" t="s">
-        <v>452</v>
       </c>
       <c r="C4674" s="45" t="n">
         <v>3015</v>
       </c>
       <c r="D4674" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4675" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4675" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="B4675" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="C4675" s="45" t="n">
         <v>405851</v>
       </c>
-      <c r="D4675" s="52" t="s">
-        <v>455</v>
+      <c r="D4675" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="4676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4676" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4676" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="B4676" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="C4676" s="45" t="n">
         <v>405861</v>
       </c>
-      <c r="D4676" s="52" t="s">
-        <v>455</v>
+      <c r="D4676" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="4677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4677" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4677" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="B4677" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="C4677" s="45" t="n">
         <v>405871</v>
       </c>
-      <c r="D4677" s="52" t="s">
+      <c r="D4677" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4678" s="56" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="4678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4678" s="57" t="s">
+      <c r="B4678" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4678" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4678" s="6" t="n">
         <v>10275</v>
       </c>
       <c r="D4678" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4679" s="57" t="s">
+      <c r="A4679" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4679" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4679" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4679" s="6" t="n">
         <v>10276</v>
       </c>
       <c r="D4679" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4680" s="57" t="s">
+      <c r="A4680" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4680" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4680" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4680" s="6" t="n">
         <v>6882</v>
       </c>
       <c r="D4680" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4681" s="57" t="s">
+      <c r="A4681" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4681" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4681" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4681" s="6" t="n">
         <v>6883</v>
       </c>
       <c r="D4681" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4682" s="57" t="s">
+      <c r="A4682" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4682" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4682" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4682" s="6" t="n">
         <v>6884</v>
       </c>
       <c r="D4682" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4683" s="57" t="s">
+      <c r="A4683" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4683" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4683" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4683" s="6" t="n">
         <v>6885</v>
       </c>
       <c r="D4683" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4684" s="57" t="s">
+      <c r="A4684" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4684" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4684" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4684" s="6" t="n">
         <v>6888</v>
       </c>
       <c r="D4684" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4685" s="57" t="s">
+      <c r="A4685" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4685" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4685" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4685" s="6" t="n">
         <v>6886</v>
       </c>
       <c r="D4685" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4686" s="57" t="s">
+      <c r="A4686" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4686" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4686" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4686" s="6" t="n">
         <v>6887</v>
       </c>
       <c r="D4686" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4687" s="57" t="s">
+      <c r="A4687" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4687" s="56" t="s">
         <v>456</v>
-      </c>
-      <c r="B4687" s="57" t="s">
-        <v>457</v>
       </c>
       <c r="C4687" s="6" t="n">
         <v>6889</v>
       </c>
       <c r="D4687" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4688" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4688" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4688" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4688" s="6" t="n">
         <v>6890</v>
@@ -63091,10 +62982,10 @@
     </row>
     <row r="4689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4689" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4689" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4689" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4689" s="6" t="n">
         <v>6891</v>
@@ -63102,10 +62993,10 @@
     </row>
     <row r="4690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4690" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4690" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4690" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4690" s="6" t="n">
         <v>6892</v>
@@ -63113,10 +63004,10 @@
     </row>
     <row r="4691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4691" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4691" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4691" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4691" s="6" t="n">
         <v>6893</v>
@@ -63124,10 +63015,10 @@
     </row>
     <row r="4692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4692" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4692" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4692" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4692" s="6" t="n">
         <v>6894</v>
@@ -63135,10 +63026,10 @@
     </row>
     <row r="4693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4693" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4693" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4693" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4693" s="6" t="n">
         <v>6896</v>
@@ -63146,10 +63037,10 @@
     </row>
     <row r="4694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4694" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4694" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4694" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4694" s="6" t="n">
         <v>6897</v>
@@ -63157,10 +63048,10 @@
     </row>
     <row r="4695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4695" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4695" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4695" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4695" s="6" t="n">
         <v>6898</v>
@@ -63168,10 +63059,10 @@
     </row>
     <row r="4696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4696" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4696" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4696" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4696" s="6" t="n">
         <v>6899</v>
@@ -63179,10 +63070,10 @@
     </row>
     <row r="4697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4697" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4697" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4697" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4697" s="6" t="n">
         <v>6900</v>
@@ -63190,10 +63081,10 @@
     </row>
     <row r="4698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4698" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4698" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4698" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4698" s="6" t="n">
         <v>6901</v>
@@ -63201,10 +63092,10 @@
     </row>
     <row r="4699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4699" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4699" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4699" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4699" s="6" t="n">
         <v>6902</v>
@@ -63212,21 +63103,21 @@
     </row>
     <row r="4700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4700" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4700" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B4700" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C4700" s="6" t="n">
         <v>6895</v>
       </c>
     </row>
     <row r="4701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4701" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4701" s="58" t="s">
-        <v>462</v>
+      <c r="A4701" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4701" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4701" s="6" t="n">
         <v>8651</v>
@@ -63236,11 +63127,11 @@
       </c>
     </row>
     <row r="4702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4702" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4702" s="58" t="s">
-        <v>462</v>
+      <c r="A4702" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4702" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4702" s="6" t="n">
         <v>11412</v>
@@ -63250,11 +63141,11 @@
       </c>
     </row>
     <row r="4703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4703" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4703" s="58" t="s">
-        <v>462</v>
+      <c r="A4703" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4703" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4703" s="6" t="n">
         <v>6781</v>
@@ -63264,11 +63155,11 @@
       </c>
     </row>
     <row r="4704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4704" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4704" s="58" t="s">
-        <v>462</v>
+      <c r="A4704" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4704" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4704" s="6" t="n">
         <v>6782</v>
@@ -63278,11 +63169,11 @@
       </c>
     </row>
     <row r="4705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4705" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4705" s="58" t="s">
-        <v>462</v>
+      <c r="A4705" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4705" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4705" s="6" t="n">
         <v>7696</v>
@@ -63292,11 +63183,11 @@
       </c>
     </row>
     <row r="4706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4706" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4706" s="58" t="s">
-        <v>462</v>
+      <c r="A4706" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4706" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4706" s="6" t="n">
         <v>7698</v>
@@ -63306,11 +63197,11 @@
       </c>
     </row>
     <row r="4707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4707" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4707" s="58" t="s">
-        <v>462</v>
+      <c r="A4707" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4707" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4707" s="6" t="n">
         <v>7697</v>
@@ -63320,11 +63211,11 @@
       </c>
     </row>
     <row r="4708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4708" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4708" s="58" t="s">
-        <v>462</v>
+      <c r="A4708" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4708" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4708" s="6" t="n">
         <v>8415</v>
@@ -63334,11 +63225,11 @@
       </c>
     </row>
     <row r="4709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4709" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4709" s="58" t="s">
-        <v>462</v>
+      <c r="A4709" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4709" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4709" s="6" t="n">
         <v>8427</v>
@@ -63348,11 +63239,11 @@
       </c>
     </row>
     <row r="4710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4710" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4710" s="58" t="s">
-        <v>462</v>
+      <c r="A4710" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4710" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4710" s="6" t="n">
         <v>8416</v>
@@ -63362,11 +63253,11 @@
       </c>
     </row>
     <row r="4711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4711" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4711" s="58" t="s">
-        <v>462</v>
+      <c r="A4711" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4711" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4711" s="6" t="n">
         <v>8428</v>
@@ -63376,11 +63267,11 @@
       </c>
     </row>
     <row r="4712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4712" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4712" s="58" t="s">
-        <v>462</v>
+      <c r="A4712" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4712" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4712" s="6" t="n">
         <v>8421</v>
@@ -63390,11 +63281,11 @@
       </c>
     </row>
     <row r="4713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4713" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4713" s="58" t="s">
-        <v>462</v>
+      <c r="A4713" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4713" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4713" s="6" t="n">
         <v>8797</v>
@@ -63404,11 +63295,11 @@
       </c>
     </row>
     <row r="4714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4714" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4714" s="58" t="s">
-        <v>462</v>
+      <c r="A4714" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4714" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4714" s="6" t="n">
         <v>8798</v>
@@ -63418,11 +63309,11 @@
       </c>
     </row>
     <row r="4715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4715" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4715" s="58" t="s">
-        <v>462</v>
+      <c r="A4715" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4715" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4715" s="6" t="n">
         <v>8446</v>
@@ -63432,11 +63323,11 @@
       </c>
     </row>
     <row r="4716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4716" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4716" s="58" t="s">
-        <v>462</v>
+      <c r="A4716" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4716" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4716" s="6" t="n">
         <v>8467</v>
@@ -63446,11 +63337,11 @@
       </c>
     </row>
     <row r="4717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4717" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4717" s="58" t="s">
-        <v>462</v>
+      <c r="A4717" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4717" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4717" s="6" t="n">
         <v>8469</v>
@@ -63460,11 +63351,11 @@
       </c>
     </row>
     <row r="4718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4718" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4718" s="58" t="s">
-        <v>462</v>
+      <c r="A4718" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4718" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4718" s="6" t="n">
         <v>8468</v>
@@ -63474,11 +63365,11 @@
       </c>
     </row>
     <row r="4719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4719" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4719" s="58" t="s">
-        <v>462</v>
+      <c r="A4719" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4719" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4719" s="6" t="n">
         <v>7908</v>
@@ -63488,11 +63379,11 @@
       </c>
     </row>
     <row r="4720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4720" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4720" s="58" t="s">
-        <v>462</v>
+      <c r="A4720" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4720" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4720" s="6" t="n">
         <v>7927</v>
@@ -63502,11 +63393,11 @@
       </c>
     </row>
     <row r="4721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4721" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4721" s="58" t="s">
-        <v>462</v>
+      <c r="A4721" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4721" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4721" s="6" t="n">
         <v>7928</v>
@@ -63516,11 +63407,11 @@
       </c>
     </row>
     <row r="4722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4722" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4722" s="58" t="s">
-        <v>462</v>
+      <c r="A4722" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4722" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4722" s="6" t="n">
         <v>8466</v>
@@ -63530,259 +63421,259 @@
       </c>
     </row>
     <row r="4723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4723" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4723" s="58" t="s">
-        <v>462</v>
+      <c r="A4723" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4723" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4723" s="6" t="n">
         <v>7751</v>
       </c>
     </row>
     <row r="4724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4724" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4724" s="58" t="s">
-        <v>462</v>
+      <c r="A4724" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4724" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4724" s="6" t="n">
         <v>7752</v>
       </c>
     </row>
     <row r="4725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4725" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4725" s="58" t="s">
-        <v>462</v>
+      <c r="A4725" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4725" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4725" s="6" t="n">
         <v>7749</v>
       </c>
       <c r="D4725" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4726" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4726" s="58" t="s">
-        <v>462</v>
+      <c r="A4726" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4726" s="57" t="s">
+        <v>461</v>
       </c>
       <c r="C4726" s="6" t="n">
         <v>7750</v>
       </c>
       <c r="D4726" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4727" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4727" s="58" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="4727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4727" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4727" s="59" t="s">
-        <v>466</v>
       </c>
       <c r="C4727" s="6" t="n">
         <v>11517</v>
       </c>
     </row>
     <row r="4728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4728" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4728" s="59" t="s">
-        <v>466</v>
+      <c r="A4728" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4728" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4728" s="6" t="n">
         <v>11518</v>
       </c>
     </row>
     <row r="4729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4729" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4729" s="59" t="s">
-        <v>466</v>
+      <c r="A4729" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4729" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4729" s="6" t="n">
         <v>11519</v>
       </c>
     </row>
     <row r="4730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4730" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4730" s="59" t="s">
-        <v>466</v>
+      <c r="A4730" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4730" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4730" s="6" t="n">
         <v>11561</v>
       </c>
     </row>
     <row r="4731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4731" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4731" s="59" t="s">
-        <v>466</v>
+      <c r="A4731" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4731" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4731" s="6" t="n">
         <v>11809</v>
       </c>
     </row>
     <row r="4732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4732" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4732" s="59" t="s">
-        <v>466</v>
+      <c r="A4732" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4732" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4732" s="6" t="n">
         <v>11633</v>
       </c>
     </row>
     <row r="4733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4733" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4733" s="59" t="s">
-        <v>466</v>
+      <c r="A4733" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4733" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4733" s="6" t="n">
         <v>11353</v>
       </c>
     </row>
     <row r="4734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4734" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4734" s="59" t="s">
-        <v>466</v>
+      <c r="A4734" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4734" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4734" s="6" t="n">
         <v>11817</v>
       </c>
     </row>
     <row r="4735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4735" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4735" s="59" t="s">
-        <v>466</v>
+      <c r="A4735" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4735" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4735" s="6" t="n">
         <v>11354</v>
       </c>
     </row>
     <row r="4736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4736" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4736" s="59" t="s">
-        <v>466</v>
+      <c r="A4736" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4736" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4736" s="6" t="n">
         <v>11544</v>
       </c>
     </row>
     <row r="4737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4737" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4737" s="59" t="s">
-        <v>466</v>
+      <c r="A4737" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4737" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4737" s="6" t="n">
         <v>11562</v>
       </c>
     </row>
     <row r="4738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4738" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4738" s="59" t="s">
-        <v>466</v>
+      <c r="A4738" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4738" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4738" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4739" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4739" s="59" t="s">
-        <v>466</v>
+      <c r="A4739" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4739" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4739" s="6" t="n">
         <v>11550</v>
       </c>
     </row>
     <row r="4740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4740" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4740" s="59" t="s">
-        <v>466</v>
+      <c r="A4740" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4740" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4740" s="6" t="n">
         <v>11553</v>
       </c>
     </row>
     <row r="4741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4741" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4741" s="59" t="s">
-        <v>466</v>
+      <c r="A4741" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4741" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4741" s="6" t="n">
         <v>11563</v>
       </c>
     </row>
     <row r="4742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4742" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4742" s="59" t="s">
-        <v>466</v>
+      <c r="A4742" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4742" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4742" s="6" t="n">
         <v>11551</v>
       </c>
     </row>
     <row r="4743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4743" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4743" s="59" t="s">
-        <v>466</v>
+      <c r="A4743" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4743" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4743" s="6" t="n">
         <v>11552</v>
       </c>
     </row>
     <row r="4744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4744" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4744" s="59" t="s">
-        <v>466</v>
+      <c r="A4744" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4744" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4744" s="6" t="n">
         <v>11554</v>
       </c>
     </row>
     <row r="4745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4745" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4745" s="59" t="s">
-        <v>466</v>
+      <c r="A4745" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4745" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4745" s="6" t="n">
         <v>11369</v>
@@ -63792,11 +63683,11 @@
       </c>
     </row>
     <row r="4746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4746" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4746" s="59" t="s">
-        <v>466</v>
+      <c r="A4746" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4746" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4746" s="6" t="n">
         <v>11370</v>
@@ -63806,39 +63697,39 @@
       </c>
     </row>
     <row r="4747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4747" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4747" s="59" t="s">
-        <v>466</v>
+      <c r="A4747" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4747" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4747" s="6" t="n">
         <v>11379</v>
       </c>
       <c r="D4747" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4748" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4748" s="59" t="s">
-        <v>466</v>
+      <c r="A4748" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4748" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4748" s="6" t="n">
         <v>11380</v>
       </c>
       <c r="D4748" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4749" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4749" s="59" t="s">
-        <v>466</v>
+      <c r="A4749" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4749" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4749" s="6" t="n">
         <v>11726</v>
@@ -63848,11 +63739,11 @@
       </c>
     </row>
     <row r="4750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4750" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4750" s="59" t="s">
-        <v>466</v>
+      <c r="A4750" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4750" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4750" s="6" t="n">
         <v>11820</v>
@@ -63862,11 +63753,11 @@
       </c>
     </row>
     <row r="4751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4751" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4751" s="59" t="s">
-        <v>466</v>
+      <c r="A4751" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4751" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4751" s="6" t="n">
         <v>11371</v>
@@ -63876,11 +63767,11 @@
       </c>
     </row>
     <row r="4752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4752" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4752" s="59" t="s">
-        <v>466</v>
+      <c r="A4752" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4752" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4752" s="6" t="n">
         <v>11372</v>
@@ -63890,11 +63781,11 @@
       </c>
     </row>
     <row r="4753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4753" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4753" s="59" t="s">
-        <v>466</v>
+      <c r="A4753" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4753" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4753" s="6" t="n">
         <v>11373</v>
@@ -63904,81 +63795,81 @@
       </c>
     </row>
     <row r="4754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4754" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4754" s="59" t="s">
-        <v>466</v>
+      <c r="A4754" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4754" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4754" s="6" t="n">
         <v>11381</v>
       </c>
       <c r="D4754" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4755" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4755" s="59" t="s">
-        <v>466</v>
+      <c r="A4755" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4755" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4755" s="6" t="n">
         <v>11382</v>
       </c>
       <c r="D4755" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4756" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4756" s="59" t="s">
-        <v>466</v>
+      <c r="A4756" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4756" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4756" s="6" t="n">
         <v>11383</v>
       </c>
       <c r="D4756" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4757" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4757" s="59" t="s">
-        <v>466</v>
+      <c r="A4757" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4757" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4757" s="6" t="n">
         <v>11630</v>
       </c>
       <c r="D4757" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4758" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4758" s="59" t="s">
-        <v>466</v>
+      <c r="A4758" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4758" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4758" s="6" t="n">
         <v>11507</v>
       </c>
       <c r="D4758" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4759" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4759" s="59" t="s">
-        <v>466</v>
+      <c r="A4759" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4759" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4759" s="6" t="n">
         <v>11812</v>
@@ -63988,53 +63879,53 @@
       </c>
     </row>
     <row r="4760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4760" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4760" s="59" t="s">
-        <v>466</v>
+      <c r="A4760" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4760" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4760" s="6" t="n">
         <v>11521</v>
       </c>
       <c r="D4760" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4761" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4761" s="59" t="s">
-        <v>466</v>
+      <c r="A4761" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4761" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4761" s="6" t="n">
         <v>11631</v>
       </c>
       <c r="D4761" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4762" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4762" s="59" t="s">
-        <v>466</v>
+      <c r="A4762" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4762" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4762" s="6" t="n">
         <v>11520</v>
       </c>
       <c r="D4762" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4763" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4763" s="59" t="s">
-        <v>466</v>
+      <c r="A4763" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4763" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4763" s="6" t="n">
         <v>11576</v>
@@ -64044,11 +63935,11 @@
       </c>
     </row>
     <row r="4764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4764" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4764" s="59" t="s">
-        <v>466</v>
+      <c r="A4764" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4764" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4764" s="6" t="n">
         <v>11725</v>
@@ -64058,11 +63949,11 @@
       </c>
     </row>
     <row r="4765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4765" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4765" s="59" t="s">
-        <v>466</v>
+      <c r="A4765" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4765" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4765" s="6" t="n">
         <v>11547</v>
@@ -64072,11 +63963,11 @@
       </c>
     </row>
     <row r="4766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4766" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4766" s="59" t="s">
-        <v>466</v>
+      <c r="A4766" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4766" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4766" s="6" t="n">
         <v>11376</v>
@@ -64086,11 +63977,11 @@
       </c>
     </row>
     <row r="4767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4767" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4767" s="59" t="s">
-        <v>466</v>
+      <c r="A4767" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4767" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4767" s="6" t="n">
         <v>11509</v>
@@ -64100,11 +63991,11 @@
       </c>
     </row>
     <row r="4768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4768" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4768" s="59" t="s">
-        <v>466</v>
+      <c r="A4768" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4768" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4768" s="6" t="n">
         <v>11514</v>
@@ -64114,11 +64005,11 @@
       </c>
     </row>
     <row r="4769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4769" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4769" s="59" t="s">
-        <v>466</v>
+      <c r="A4769" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4769" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4769" s="6" t="n">
         <v>11537</v>
@@ -64128,11 +64019,11 @@
       </c>
     </row>
     <row r="4770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4770" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4770" s="59" t="s">
-        <v>466</v>
+      <c r="A4770" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4770" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4770" s="6" t="n">
         <v>11803</v>
@@ -64142,11 +64033,11 @@
       </c>
     </row>
     <row r="4771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4771" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4771" s="59" t="s">
-        <v>466</v>
+      <c r="A4771" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4771" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4771" s="6" t="n">
         <v>11743</v>
@@ -64156,11 +64047,11 @@
       </c>
     </row>
     <row r="4772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4772" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4772" s="59" t="s">
-        <v>466</v>
+      <c r="A4772" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4772" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4772" s="6" t="n">
         <v>11788</v>
@@ -64170,11 +64061,11 @@
       </c>
     </row>
     <row r="4773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4773" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4773" s="59" t="s">
-        <v>466</v>
+      <c r="A4773" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4773" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4773" s="6" t="n">
         <v>11542</v>
@@ -64184,11 +64075,11 @@
       </c>
     </row>
     <row r="4774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4774" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4774" s="59" t="s">
-        <v>466</v>
+      <c r="A4774" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4774" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4774" s="6" t="n">
         <v>11543</v>
@@ -64198,39 +64089,39 @@
       </c>
     </row>
     <row r="4775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4775" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4775" s="59" t="s">
-        <v>466</v>
+      <c r="A4775" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4775" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4775" s="6" t="n">
         <v>11724</v>
       </c>
       <c r="D4775" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4776" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4776" s="59" t="s">
-        <v>466</v>
+      <c r="A4776" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4776" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4776" s="6" t="n">
         <v>11614</v>
       </c>
       <c r="D4776" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4777" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4777" s="59" t="s">
-        <v>466</v>
+      <c r="A4777" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4777" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4777" s="6" t="n">
         <v>11377</v>
@@ -64240,11 +64131,11 @@
       </c>
     </row>
     <row r="4778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4778" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4778" s="59" t="s">
-        <v>466</v>
+      <c r="A4778" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4778" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4778" s="6" t="n">
         <v>11523</v>
@@ -64254,11 +64145,11 @@
       </c>
     </row>
     <row r="4779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4779" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4779" s="59" t="s">
-        <v>466</v>
+      <c r="A4779" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4779" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4779" s="6" t="n">
         <v>11526</v>
@@ -64268,11 +64159,11 @@
       </c>
     </row>
     <row r="4780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4780" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4780" s="59" t="s">
-        <v>466</v>
+      <c r="A4780" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4780" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4780" s="6" t="n">
         <v>11448</v>
@@ -64282,11 +64173,11 @@
       </c>
     </row>
     <row r="4781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4781" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4781" s="59" t="s">
-        <v>466</v>
+      <c r="A4781" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4781" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4781" s="6" t="n">
         <v>11447</v>
@@ -64296,11 +64187,11 @@
       </c>
     </row>
     <row r="4782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4782" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4782" s="59" t="s">
-        <v>466</v>
+      <c r="A4782" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4782" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4782" s="6" t="n">
         <v>11548</v>
@@ -64310,11 +64201,11 @@
       </c>
     </row>
     <row r="4783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4783" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4783" s="59" t="s">
-        <v>466</v>
+      <c r="A4783" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4783" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4783" s="6" t="n">
         <v>11527</v>
@@ -64324,11 +64215,11 @@
       </c>
     </row>
     <row r="4784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4784" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4784" s="59" t="s">
-        <v>466</v>
+      <c r="A4784" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4784" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4784" s="6" t="n">
         <v>11524</v>
@@ -64338,25 +64229,25 @@
       </c>
     </row>
     <row r="4785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4785" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4785" s="59" t="s">
-        <v>466</v>
+      <c r="A4785" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4785" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4785" s="6" t="n">
         <v>11525</v>
       </c>
       <c r="D4785" s="1" t="s">
-        <v>468</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4786" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4786" s="59" t="s">
-        <v>466</v>
+      <c r="A4786" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4786" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4786" s="6" t="n">
         <v>11539</v>
@@ -64366,253 +64257,253 @@
       </c>
     </row>
     <row r="4787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4787" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4787" s="59" t="s">
-        <v>466</v>
+      <c r="A4787" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4787" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4787" s="6" t="n">
         <v>11813</v>
       </c>
     </row>
     <row r="4788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4788" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4788" s="59" t="s">
-        <v>466</v>
+      <c r="A4788" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4788" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4788" s="6" t="n">
         <v>11814</v>
       </c>
     </row>
     <row r="4789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4789" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4789" s="59" t="s">
-        <v>466</v>
+      <c r="A4789" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4789" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4789" s="6" t="n">
         <v>11815</v>
       </c>
     </row>
     <row r="4790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4790" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4790" s="59" t="s">
-        <v>466</v>
+      <c r="A4790" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4790" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4790" s="6" t="n">
         <v>11816</v>
       </c>
     </row>
     <row r="4791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4791" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4791" s="59" t="s">
-        <v>466</v>
+      <c r="A4791" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4791" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4791" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4792" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4792" s="59" t="s">
-        <v>466</v>
+      <c r="A4792" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4792" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4792" s="6" t="n">
         <v>11370</v>
       </c>
     </row>
     <row r="4793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4793" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4793" s="59" t="s">
-        <v>466</v>
+      <c r="A4793" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4793" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4793" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4794" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4794" s="59" t="s">
-        <v>466</v>
+      <c r="A4794" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4794" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4794" s="6" t="n">
         <v>11547</v>
       </c>
     </row>
     <row r="4795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4795" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4795" s="59" t="s">
-        <v>466</v>
+      <c r="A4795" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4795" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4795" s="6" t="n">
         <v>11448</v>
       </c>
     </row>
     <row r="4796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4796" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4796" s="59" t="s">
-        <v>466</v>
+      <c r="A4796" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4796" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4796" s="6" t="n">
         <v>11549</v>
       </c>
     </row>
     <row r="4797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4797" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4797" s="59" t="s">
-        <v>466</v>
+      <c r="A4797" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4797" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4797" s="6" t="n">
         <v>11542</v>
       </c>
     </row>
     <row r="4798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4798" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4798" s="59" t="s">
-        <v>466</v>
+      <c r="A4798" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4798" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4798" s="6" t="n">
         <v>11447</v>
       </c>
     </row>
     <row r="4799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4799" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4799" s="59" t="s">
-        <v>466</v>
+      <c r="A4799" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4799" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4799" s="6" t="n">
         <v>11441</v>
       </c>
     </row>
     <row r="4800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4800" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4800" s="59" t="s">
-        <v>466</v>
+      <c r="A4800" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4800" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4800" s="6" t="n">
         <v>11442</v>
       </c>
     </row>
     <row r="4801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4801" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4801" s="59" t="s">
-        <v>466</v>
+      <c r="A4801" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4801" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4801" s="6" t="n">
         <v>11443</v>
       </c>
     </row>
     <row r="4802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4802" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4802" s="59" t="s">
-        <v>466</v>
+      <c r="A4802" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4802" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4802" s="6" t="n">
         <v>11445</v>
       </c>
     </row>
     <row r="4803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4803" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4803" s="59" t="s">
-        <v>466</v>
+      <c r="A4803" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4803" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4803" s="6" t="n">
         <v>11625</v>
       </c>
     </row>
     <row r="4804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4804" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4804" s="59" t="s">
-        <v>466</v>
+      <c r="A4804" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4804" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4804" s="6" t="n">
         <v>11740</v>
       </c>
     </row>
     <row r="4805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4805" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4805" s="59" t="s">
-        <v>466</v>
+      <c r="A4805" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4805" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4805" s="6" t="n">
         <v>11626</v>
       </c>
     </row>
     <row r="4806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4806" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4806" s="59" t="s">
-        <v>466</v>
+      <c r="A4806" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4806" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4806" s="6" t="n">
         <v>11741</v>
       </c>
     </row>
     <row r="4807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4807" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4807" s="59" t="s">
-        <v>466</v>
+      <c r="A4807" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4807" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4807" s="6" t="n">
         <v>11627</v>
       </c>
     </row>
     <row r="4808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4808" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4808" s="59" t="s">
-        <v>466</v>
+      <c r="A4808" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4808" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4808" s="6" t="n">
         <v>11742</v>
       </c>
     </row>
     <row r="4809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4809" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4809" s="59" t="s">
-        <v>466</v>
+      <c r="A4809" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4809" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4809" s="6" t="n">
         <v>11564</v>
@@ -64622,11 +64513,11 @@
       </c>
     </row>
     <row r="4810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4810" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4810" s="59" t="s">
-        <v>466</v>
+      <c r="A4810" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4810" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4810" s="6" t="n">
         <v>11446</v>
@@ -64636,11 +64527,11 @@
       </c>
     </row>
     <row r="4811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4811" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4811" s="59" t="s">
-        <v>466</v>
+      <c r="A4811" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4811" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4811" s="6" t="n">
         <v>11565</v>
@@ -64650,11 +64541,11 @@
       </c>
     </row>
     <row r="4812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4812" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4812" s="59" t="s">
-        <v>466</v>
+      <c r="A4812" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4812" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4812" s="6" t="n">
         <v>11566</v>
@@ -64664,11 +64555,11 @@
       </c>
     </row>
     <row r="4813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4813" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4813" s="59" t="s">
-        <v>466</v>
+      <c r="A4813" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4813" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4813" s="6" t="n">
         <v>11568</v>
@@ -64678,11 +64569,11 @@
       </c>
     </row>
     <row r="4814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4814" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4814" s="59" t="s">
-        <v>466</v>
+      <c r="A4814" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4814" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4814" s="6" t="n">
         <v>11569</v>
@@ -64692,440 +64583,440 @@
       </c>
     </row>
     <row r="4815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4815" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4815" s="59" t="s">
-        <v>466</v>
+      <c r="A4815" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4815" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4815" s="6" t="n">
         <v>118211</v>
       </c>
     </row>
     <row r="4816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4816" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4816" s="59" t="s">
-        <v>466</v>
+      <c r="A4816" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4816" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4816" s="6" t="n">
         <v>118212</v>
       </c>
     </row>
     <row r="4817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4817" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4817" s="59" t="s">
-        <v>466</v>
+      <c r="A4817" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4817" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4817" s="6" t="n">
         <v>118213</v>
       </c>
     </row>
     <row r="4818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4818" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4818" s="59" t="s">
-        <v>466</v>
+      <c r="A4818" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4818" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4818" s="6" t="n">
         <v>118214</v>
       </c>
     </row>
     <row r="4819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4819" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4819" s="59" t="s">
-        <v>466</v>
+      <c r="A4819" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4819" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4819" s="6" t="n">
         <v>118215</v>
       </c>
     </row>
     <row r="4820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4820" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4820" s="59" t="s">
-        <v>466</v>
+      <c r="A4820" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4820" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4820" s="6" t="n">
         <v>118216</v>
       </c>
     </row>
     <row r="4821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4821" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4821" s="59" t="s">
-        <v>466</v>
+      <c r="A4821" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4821" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4821" s="6" t="n">
         <v>118217</v>
       </c>
     </row>
     <row r="4822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4822" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4822" s="59" t="s">
-        <v>466</v>
+      <c r="A4822" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4822" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4822" s="6" t="n">
         <v>118218</v>
       </c>
     </row>
     <row r="4823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4823" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4823" s="59" t="s">
-        <v>466</v>
+      <c r="A4823" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4823" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4823" s="6" t="n">
         <v>118219</v>
       </c>
     </row>
     <row r="4824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4824" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4824" s="59" t="s">
-        <v>466</v>
+      <c r="A4824" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4824" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4824" s="6" t="n">
         <v>118220</v>
       </c>
     </row>
     <row r="4825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4825" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4825" s="59" t="s">
-        <v>466</v>
+      <c r="A4825" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4825" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4825" s="6" t="n">
         <v>118221</v>
       </c>
     </row>
     <row r="4826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4826" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4826" s="59" t="s">
-        <v>466</v>
+      <c r="A4826" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4826" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4826" s="6" t="n">
         <v>118222</v>
       </c>
     </row>
     <row r="4827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4827" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4827" s="59" t="s">
-        <v>466</v>
+      <c r="A4827" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4827" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4827" s="6" t="n">
         <v>118223</v>
       </c>
     </row>
     <row r="4828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4828" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4828" s="59" t="s">
-        <v>466</v>
+      <c r="A4828" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4828" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4828" s="6" t="n">
         <v>11821</v>
       </c>
     </row>
     <row r="4829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4829" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4829" s="59" t="s">
-        <v>466</v>
+      <c r="A4829" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4829" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4829" s="6" t="n">
         <v>11822</v>
       </c>
     </row>
     <row r="4830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4830" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4830" s="59" t="s">
-        <v>466</v>
+      <c r="A4830" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4830" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4830" s="6" t="n">
         <v>11829</v>
       </c>
     </row>
     <row r="4831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4831" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4831" s="59" t="s">
-        <v>466</v>
+      <c r="A4831" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4831" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4831" s="6" t="n">
         <v>11830</v>
       </c>
     </row>
     <row r="4832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4832" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4832" s="59" t="s">
-        <v>466</v>
+      <c r="A4832" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4832" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4832" s="6" t="n">
         <v>11388</v>
       </c>
     </row>
     <row r="4833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4833" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4833" s="59" t="s">
-        <v>466</v>
+      <c r="A4833" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4833" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4833" s="6" t="n">
         <v>11389</v>
       </c>
     </row>
     <row r="4834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4834" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4834" s="59" t="s">
-        <v>466</v>
+      <c r="A4834" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4834" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4834" s="6" t="n">
         <v>11390</v>
       </c>
     </row>
     <row r="4835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4835" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4835" s="59" t="s">
-        <v>466</v>
+      <c r="A4835" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4835" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4835" s="6" t="n">
         <v>11538</v>
       </c>
     </row>
     <row r="4836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4836" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4836" s="59" t="s">
-        <v>466</v>
+      <c r="A4836" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4836" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4836" s="6" t="n">
         <v>11391</v>
       </c>
     </row>
     <row r="4837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4837" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4837" s="59" t="s">
-        <v>466</v>
+      <c r="A4837" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4837" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4837" s="6" t="n">
         <v>11583</v>
       </c>
     </row>
     <row r="4838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4838" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4838" s="59" t="s">
-        <v>466</v>
+      <c r="A4838" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4838" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4838" s="6" t="n">
         <v>11584</v>
       </c>
     </row>
     <row r="4839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4839" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4839" s="59" t="s">
-        <v>466</v>
+      <c r="A4839" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4839" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4839" s="6" t="n">
         <v>11585</v>
       </c>
     </row>
     <row r="4840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4840" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4840" s="59" t="s">
-        <v>466</v>
+      <c r="A4840" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4840" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4840" s="6" t="n">
         <v>11392</v>
       </c>
     </row>
     <row r="4841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4841" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4841" s="59" t="s">
-        <v>466</v>
+      <c r="A4841" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4841" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4841" s="6" t="n">
         <v>11394</v>
       </c>
     </row>
     <row r="4842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4842" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4842" s="59" t="s">
-        <v>466</v>
+      <c r="A4842" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4842" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4842" s="6" t="n">
         <v>11395</v>
       </c>
     </row>
     <row r="4843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4843" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4843" s="59" t="s">
-        <v>466</v>
+      <c r="A4843" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4843" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4843" s="6" t="n">
         <v>11385</v>
       </c>
     </row>
     <row r="4844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4844" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4844" s="59" t="s">
-        <v>466</v>
+      <c r="A4844" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4844" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4844" s="6" t="n">
         <v>11386</v>
       </c>
     </row>
     <row r="4845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4845" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4845" s="59" t="s">
-        <v>466</v>
+      <c r="A4845" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4845" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4845" s="6" t="n">
         <v>11413</v>
       </c>
     </row>
     <row r="4846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4846" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4846" s="59" t="s">
-        <v>466</v>
+      <c r="A4846" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4846" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4846" s="6" t="n">
         <v>11387</v>
       </c>
     </row>
     <row r="4847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4847" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4847" s="59" t="s">
-        <v>466</v>
+      <c r="A4847" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4847" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4847" s="6" t="n">
         <v>11570</v>
       </c>
     </row>
     <row r="4848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4848" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4848" s="59" t="s">
-        <v>466</v>
+      <c r="A4848" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4848" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4848" s="6" t="n">
         <v>11416</v>
       </c>
     </row>
     <row r="4849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4849" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4849" s="59" t="s">
-        <v>466</v>
+      <c r="A4849" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4849" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4849" s="6" t="n">
         <v>11528</v>
       </c>
     </row>
     <row r="4850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4850" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4850" s="59" t="s">
-        <v>466</v>
+      <c r="A4850" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4850" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4850" s="6" t="n">
         <v>11378</v>
       </c>
     </row>
     <row r="4851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4851" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4851" s="59" t="s">
-        <v>466</v>
+      <c r="A4851" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4851" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4851" s="6" t="n">
         <v>11556</v>
       </c>
     </row>
     <row r="4852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4852" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4852" s="59" t="s">
-        <v>466</v>
+      <c r="A4852" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4852" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4852" s="6" t="n">
         <v>11557</v>
       </c>
     </row>
     <row r="4853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4853" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4853" s="59" t="s">
-        <v>466</v>
+      <c r="A4853" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4853" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4853" s="6" t="n">
         <v>11545</v>
       </c>
     </row>
     <row r="4854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4854" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4854" s="59" t="s">
-        <v>466</v>
+      <c r="A4854" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4854" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="C4854" s="6" t="n">
         <v>11546</v>

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -2244,8 +2244,8 @@
   </sheetPr>
   <dimension ref="A1:D4854"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4749" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4795" activeCellId="0" sqref="D4795"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2253,7 +2253,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CB7EF7-36FA-4E79-A5DE-9E13CAC6AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B6465-0CF3-43AE-A009-93A06395715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12850" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12850" uniqueCount="465">
   <si>
     <t>CATEGORY ES</t>
   </si>
@@ -1377,9 +1377,6 @@
     <t>LED SMART AMBIENCE LAMPS</t>
   </si>
   <si>
-    <t>okgoogle,alexa,rbg3</t>
-  </si>
-  <si>
     <t>LINEALES MAGNETICOS LED SMART</t>
   </si>
   <si>
@@ -2061,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4854"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D759" sqref="D759"/>
+    <sheetView tabSelected="1" topLeftCell="A4650" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4650" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12697,7 +12694,7 @@
         <v>1361</v>
       </c>
       <c r="D764" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
@@ -12725,7 +12722,7 @@
         <v>1363</v>
       </c>
       <c r="D766" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
@@ -12739,7 +12736,7 @@
         <v>1364</v>
       </c>
       <c r="D767" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
@@ -18775,7 +18772,7 @@
         <v>2771</v>
       </c>
       <c r="D1205" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
@@ -18789,7 +18786,7 @@
         <v>2926</v>
       </c>
       <c r="D1206" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
@@ -18803,7 +18800,7 @@
         <v>2929</v>
       </c>
       <c r="D1207" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
@@ -18817,7 +18814,7 @@
         <v>2777</v>
       </c>
       <c r="D1208" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
@@ -18831,7 +18828,7 @@
         <v>3029</v>
       </c>
       <c r="D1209" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
@@ -18845,7 +18842,7 @@
         <v>217121</v>
       </c>
       <c r="D1210" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
@@ -18859,7 +18856,7 @@
         <v>212766</v>
       </c>
       <c r="D1211" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
@@ -18873,7 +18870,7 @@
         <v>2928</v>
       </c>
       <c r="D1212" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
@@ -22749,7 +22746,7 @@
         <v>2778</v>
       </c>
       <c r="D1530" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
@@ -22763,7 +22760,7 @@
         <v>2779</v>
       </c>
       <c r="D1531" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
@@ -22777,7 +22774,7 @@
         <v>2780</v>
       </c>
       <c r="D1532" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
@@ -22791,7 +22788,7 @@
         <v>212778</v>
       </c>
       <c r="D1533" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
@@ -22805,7 +22802,7 @@
         <v>2927</v>
       </c>
       <c r="D1534" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
@@ -22819,7 +22816,7 @@
         <v>2930</v>
       </c>
       <c r="D1535" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
@@ -62642,7 +62639,7 @@
         <v>405851</v>
       </c>
       <c r="D4675" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4676" spans="1:4" x14ac:dyDescent="0.25">
@@ -62656,7 +62653,7 @@
         <v>405861</v>
       </c>
       <c r="D4676" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4677" spans="1:4" x14ac:dyDescent="0.25">
@@ -62670,155 +62667,155 @@
         <v>405871</v>
       </c>
       <c r="D4677" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4678" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4678" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4678" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4678" s="5">
         <v>10275</v>
       </c>
       <c r="D4678" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4679" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4679" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4679" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4679" s="5">
         <v>10276</v>
       </c>
       <c r="D4679" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4680" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4680" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4680" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4680" s="5">
         <v>6882</v>
       </c>
       <c r="D4680" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4681" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4681" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4681" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4681" s="5">
         <v>6883</v>
       </c>
       <c r="D4681" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4682" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4682" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4682" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4682" s="5">
         <v>6884</v>
       </c>
       <c r="D4682" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4683" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4683" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4683" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4683" s="5">
         <v>6885</v>
       </c>
       <c r="D4683" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4684" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4684" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4684" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4684" s="5">
         <v>6888</v>
       </c>
       <c r="D4684" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4685" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4685" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4685" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4685" s="5">
         <v>6886</v>
       </c>
       <c r="D4685" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4686" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4686" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4686" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4686" s="5">
         <v>6887</v>
       </c>
       <c r="D4686" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4687" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4687" s="53" t="s">
         <v>451</v>
-      </c>
-      <c r="B4687" s="53" t="s">
-        <v>452</v>
       </c>
       <c r="C4687" s="5">
         <v>6889</v>
       </c>
       <c r="D4687" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4688" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4688" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4688" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4688" s="5">
         <v>6890</v>
@@ -62826,10 +62823,10 @@
     </row>
     <row r="4689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4689" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4689" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4689" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4689" s="5">
         <v>6891</v>
@@ -62837,10 +62834,10 @@
     </row>
     <row r="4690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4690" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4690" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4690" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4690" s="5">
         <v>6892</v>
@@ -62848,10 +62845,10 @@
     </row>
     <row r="4691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4691" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4691" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4691" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4691" s="5">
         <v>6893</v>
@@ -62859,10 +62856,10 @@
     </row>
     <row r="4692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4692" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4692" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4692" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4692" s="5">
         <v>6894</v>
@@ -62870,10 +62867,10 @@
     </row>
     <row r="4693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4693" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4693" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4693" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4693" s="5">
         <v>6896</v>
@@ -62881,10 +62878,10 @@
     </row>
     <row r="4694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4694" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4694" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4694" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4694" s="5">
         <v>6897</v>
@@ -62892,10 +62889,10 @@
     </row>
     <row r="4695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4695" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4695" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4695" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4695" s="5">
         <v>6898</v>
@@ -62903,10 +62900,10 @@
     </row>
     <row r="4696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4696" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4696" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4696" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4696" s="5">
         <v>6899</v>
@@ -62914,10 +62911,10 @@
     </row>
     <row r="4697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4697" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4697" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4697" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4697" s="5">
         <v>6900</v>
@@ -62925,10 +62922,10 @@
     </row>
     <row r="4698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4698" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4698" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4698" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4698" s="5">
         <v>6901</v>
@@ -62936,10 +62933,10 @@
     </row>
     <row r="4699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4699" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4699" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4699" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4699" s="5">
         <v>6902</v>
@@ -62947,10 +62944,10 @@
     </row>
     <row r="4700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4700" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4700" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B4700" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C4700" s="5">
         <v>6895</v>
@@ -62958,10 +62955,10 @@
     </row>
     <row r="4701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4701" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4701" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4701" s="5">
         <v>8651</v>
@@ -62972,10 +62969,10 @@
     </row>
     <row r="4702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4702" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4702" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4702" s="5">
         <v>11412</v>
@@ -62986,10 +62983,10 @@
     </row>
     <row r="4703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4703" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4703" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4703" s="5">
         <v>6781</v>
@@ -63000,10 +62997,10 @@
     </row>
     <row r="4704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4704" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4704" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4704" s="5">
         <v>6782</v>
@@ -63014,10 +63011,10 @@
     </row>
     <row r="4705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4705" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4705" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4705" s="5">
         <v>7696</v>
@@ -63028,10 +63025,10 @@
     </row>
     <row r="4706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4706" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4706" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4706" s="5">
         <v>7698</v>
@@ -63042,10 +63039,10 @@
     </row>
     <row r="4707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4707" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4707" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4707" s="5">
         <v>7697</v>
@@ -63056,10 +63053,10 @@
     </row>
     <row r="4708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4708" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4708" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4708" s="5">
         <v>8415</v>
@@ -63070,10 +63067,10 @@
     </row>
     <row r="4709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4709" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4709" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4709" s="5">
         <v>8427</v>
@@ -63084,10 +63081,10 @@
     </row>
     <row r="4710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4710" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4710" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4710" s="5">
         <v>8416</v>
@@ -63098,10 +63095,10 @@
     </row>
     <row r="4711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4711" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4711" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4711" s="5">
         <v>8428</v>
@@ -63112,10 +63109,10 @@
     </row>
     <row r="4712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4712" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4712" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4712" s="5">
         <v>8421</v>
@@ -63126,10 +63123,10 @@
     </row>
     <row r="4713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4713" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4713" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4713" s="5">
         <v>8797</v>
@@ -63140,10 +63137,10 @@
     </row>
     <row r="4714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4714" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4714" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4714" s="5">
         <v>8798</v>
@@ -63154,10 +63151,10 @@
     </row>
     <row r="4715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4715" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4715" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4715" s="5">
         <v>8446</v>
@@ -63168,10 +63165,10 @@
     </row>
     <row r="4716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4716" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4716" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4716" s="5">
         <v>8467</v>
@@ -63182,10 +63179,10 @@
     </row>
     <row r="4717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4717" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4717" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4717" s="5">
         <v>8469</v>
@@ -63196,10 +63193,10 @@
     </row>
     <row r="4718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4718" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4718" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4718" s="5">
         <v>8468</v>
@@ -63210,10 +63207,10 @@
     </row>
     <row r="4719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4719" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4719" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4719" s="5">
         <v>7908</v>
@@ -63224,10 +63221,10 @@
     </row>
     <row r="4720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4720" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4720" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4720" s="5">
         <v>7927</v>
@@ -63238,10 +63235,10 @@
     </row>
     <row r="4721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4721" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4721" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4721" s="5">
         <v>7928</v>
@@ -63252,10 +63249,10 @@
     </row>
     <row r="4722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4722" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4722" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4722" s="5">
         <v>8466</v>
@@ -63266,10 +63263,10 @@
     </row>
     <row r="4723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4723" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4723" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4723" s="5">
         <v>7751</v>
@@ -63277,10 +63274,10 @@
     </row>
     <row r="4724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4724" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4724" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4724" s="5">
         <v>7752</v>
@@ -63288,38 +63285,38 @@
     </row>
     <row r="4725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4725" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4725" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4725" s="5">
         <v>7749</v>
       </c>
       <c r="D4725" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4726" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4726" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4726" s="5">
         <v>7750</v>
       </c>
       <c r="D4726" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4727" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4727" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4727" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4727" s="5">
         <v>11517</v>
@@ -63327,10 +63324,10 @@
     </row>
     <row r="4728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4728" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4728" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4728" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4728" s="5">
         <v>11518</v>
@@ -63338,10 +63335,10 @@
     </row>
     <row r="4729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4729" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4729" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4729" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4729" s="5">
         <v>11519</v>
@@ -63349,10 +63346,10 @@
     </row>
     <row r="4730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4730" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4730" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4730" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4730" s="5">
         <v>11561</v>
@@ -63360,10 +63357,10 @@
     </row>
     <row r="4731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4731" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4731" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4731" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4731" s="5">
         <v>11809</v>
@@ -63371,10 +63368,10 @@
     </row>
     <row r="4732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4732" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4732" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4732" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4732" s="5">
         <v>11633</v>
@@ -63382,10 +63379,10 @@
     </row>
     <row r="4733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4733" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4733" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4733" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4733" s="5">
         <v>11353</v>
@@ -63393,10 +63390,10 @@
     </row>
     <row r="4734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4734" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4734" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4734" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4734" s="5">
         <v>11817</v>
@@ -63404,10 +63401,10 @@
     </row>
     <row r="4735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4735" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4735" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4735" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4735" s="5">
         <v>11354</v>
@@ -63415,10 +63412,10 @@
     </row>
     <row r="4736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4736" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4736" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4736" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4736" s="5">
         <v>11544</v>
@@ -63426,10 +63423,10 @@
     </row>
     <row r="4737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4737" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4737" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4737" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4737" s="5">
         <v>11562</v>
@@ -63437,10 +63434,10 @@
     </row>
     <row r="4738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4738" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4738" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4738" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4738" s="5">
         <v>11549</v>
@@ -63448,10 +63445,10 @@
     </row>
     <row r="4739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4739" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4739" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4739" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4739" s="5">
         <v>11550</v>
@@ -63459,10 +63456,10 @@
     </row>
     <row r="4740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4740" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4740" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4740" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4740" s="5">
         <v>11553</v>
@@ -63470,10 +63467,10 @@
     </row>
     <row r="4741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4741" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4741" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4741" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4741" s="5">
         <v>11563</v>
@@ -63481,10 +63478,10 @@
     </row>
     <row r="4742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4742" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4742" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4742" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4742" s="5">
         <v>11551</v>
@@ -63492,10 +63489,10 @@
     </row>
     <row r="4743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4743" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4743" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4743" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4743" s="5">
         <v>11552</v>
@@ -63503,10 +63500,10 @@
     </row>
     <row r="4744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4744" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4744" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4744" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4744" s="5">
         <v>11554</v>
@@ -63514,10 +63511,10 @@
     </row>
     <row r="4745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4745" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4745" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4745" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4745" s="5">
         <v>11369</v>
@@ -63528,10 +63525,10 @@
     </row>
     <row r="4746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4746" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4746" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4746" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4746" s="5">
         <v>11370</v>
@@ -63542,38 +63539,38 @@
     </row>
     <row r="4747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4747" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4747" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4747" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4747" s="5">
         <v>11379</v>
       </c>
       <c r="D4747" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4748" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4748" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4748" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4748" s="5">
         <v>11380</v>
       </c>
       <c r="D4748" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4749" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4749" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4749" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4749" s="5">
         <v>11726</v>
@@ -63584,10 +63581,10 @@
     </row>
     <row r="4750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4750" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4750" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4750" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4750" s="5">
         <v>11820</v>
@@ -63598,10 +63595,10 @@
     </row>
     <row r="4751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4751" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4751" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4751" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4751" s="5">
         <v>11371</v>
@@ -63612,10 +63609,10 @@
     </row>
     <row r="4752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4752" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4752" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4752" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4752" s="5">
         <v>11372</v>
@@ -63626,10 +63623,10 @@
     </row>
     <row r="4753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4753" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4753" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4753" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4753" s="5">
         <v>11373</v>
@@ -63640,80 +63637,80 @@
     </row>
     <row r="4754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4754" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4754" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4754" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4754" s="5">
         <v>11381</v>
       </c>
       <c r="D4754" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4755" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4755" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4755" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4755" s="5">
         <v>11382</v>
       </c>
       <c r="D4755" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4756" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4756" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4756" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4756" s="5">
         <v>11383</v>
       </c>
       <c r="D4756" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4757" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4757" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4757" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4757" s="5">
         <v>11630</v>
       </c>
       <c r="D4757" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4758" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4758" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4758" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4758" s="5">
         <v>11507</v>
       </c>
       <c r="D4758" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4759" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4759" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4759" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4759" s="5">
         <v>11812</v>
@@ -63724,52 +63721,52 @@
     </row>
     <row r="4760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4760" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4760" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4760" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4760" s="5">
         <v>11521</v>
       </c>
       <c r="D4760" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4761" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4761" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4761" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4761" s="5">
         <v>11631</v>
       </c>
       <c r="D4761" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4762" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4762" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4762" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4762" s="5">
         <v>11520</v>
       </c>
       <c r="D4762" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4763" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4763" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4763" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4763" s="5">
         <v>11576</v>
@@ -63780,10 +63777,10 @@
     </row>
     <row r="4764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4764" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4764" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4764" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4764" s="5">
         <v>11725</v>
@@ -63794,10 +63791,10 @@
     </row>
     <row r="4765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4765" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4765" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4765" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4765" s="5">
         <v>11547</v>
@@ -63808,10 +63805,10 @@
     </row>
     <row r="4766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4766" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4766" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4766" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4766" s="5">
         <v>11376</v>
@@ -63822,10 +63819,10 @@
     </row>
     <row r="4767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4767" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4767" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4767" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4767" s="5">
         <v>11509</v>
@@ -63836,10 +63833,10 @@
     </row>
     <row r="4768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4768" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4768" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4768" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4768" s="5">
         <v>11514</v>
@@ -63850,10 +63847,10 @@
     </row>
     <row r="4769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4769" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4769" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4769" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4769" s="5">
         <v>11537</v>
@@ -63864,10 +63861,10 @@
     </row>
     <row r="4770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4770" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4770" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4770" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4770" s="5">
         <v>11803</v>
@@ -63878,10 +63875,10 @@
     </row>
     <row r="4771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4771" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4771" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4771" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4771" s="5">
         <v>11743</v>
@@ -63892,10 +63889,10 @@
     </row>
     <row r="4772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4772" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4772" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4772" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4772" s="5">
         <v>11788</v>
@@ -63906,10 +63903,10 @@
     </row>
     <row r="4773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4773" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4773" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4773" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4773" s="5">
         <v>11542</v>
@@ -63920,10 +63917,10 @@
     </row>
     <row r="4774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4774" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4774" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4774" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4774" s="5">
         <v>11543</v>
@@ -63934,38 +63931,38 @@
     </row>
     <row r="4775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4775" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4775" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4775" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4775" s="5">
         <v>11724</v>
       </c>
       <c r="D4775" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4776" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4776" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4776" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4776" s="5">
         <v>11614</v>
       </c>
       <c r="D4776" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4777" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4777" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4777" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4777" s="5">
         <v>11377</v>
@@ -63976,10 +63973,10 @@
     </row>
     <row r="4778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4778" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4778" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4778" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4778" s="5">
         <v>11523</v>
@@ -63990,10 +63987,10 @@
     </row>
     <row r="4779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4779" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4779" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4779" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4779" s="5">
         <v>11526</v>
@@ -64004,10 +64001,10 @@
     </row>
     <row r="4780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4780" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4780" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4780" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4780" s="5">
         <v>11448</v>
@@ -64018,10 +64015,10 @@
     </row>
     <row r="4781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4781" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4781" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4781" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4781" s="5">
         <v>11447</v>
@@ -64032,10 +64029,10 @@
     </row>
     <row r="4782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4782" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4782" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4782" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4782" s="5">
         <v>11548</v>
@@ -64046,10 +64043,10 @@
     </row>
     <row r="4783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4783" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4783" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4783" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4783" s="5">
         <v>11527</v>
@@ -64060,10 +64057,10 @@
     </row>
     <row r="4784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4784" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4784" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4784" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4784" s="5">
         <v>11524</v>
@@ -64074,10 +64071,10 @@
     </row>
     <row r="4785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4785" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4785" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4785" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4785" s="5">
         <v>11525</v>
@@ -64088,10 +64085,10 @@
     </row>
     <row r="4786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4786" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4786" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4786" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4786" s="5">
         <v>11539</v>
@@ -64102,10 +64099,10 @@
     </row>
     <row r="4787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4787" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4787" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4787" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4787" s="5">
         <v>11813</v>
@@ -64113,10 +64110,10 @@
     </row>
     <row r="4788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4788" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4788" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4788" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4788" s="5">
         <v>11814</v>
@@ -64124,10 +64121,10 @@
     </row>
     <row r="4789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4789" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4789" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4789" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4789" s="5">
         <v>11815</v>
@@ -64135,10 +64132,10 @@
     </row>
     <row r="4790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4790" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4790" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4790" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4790" s="5">
         <v>11816</v>
@@ -64146,10 +64143,10 @@
     </row>
     <row r="4791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4791" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4791" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4791" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4791" s="5">
         <v>11549</v>
@@ -64157,10 +64154,10 @@
     </row>
     <row r="4792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4792" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4792" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4792" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4792" s="5">
         <v>11370</v>
@@ -64168,10 +64165,10 @@
     </row>
     <row r="4793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4793" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4793" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4793" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4793" s="5">
         <v>11549</v>
@@ -64179,10 +64176,10 @@
     </row>
     <row r="4794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4794" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4794" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4794" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4794" s="5">
         <v>11547</v>
@@ -64190,10 +64187,10 @@
     </row>
     <row r="4795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4795" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4795" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4795" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4795" s="5">
         <v>11448</v>
@@ -64201,10 +64198,10 @@
     </row>
     <row r="4796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4796" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4796" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4796" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4796" s="5">
         <v>11549</v>
@@ -64212,10 +64209,10 @@
     </row>
     <row r="4797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4797" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4797" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4797" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4797" s="5">
         <v>11542</v>
@@ -64223,10 +64220,10 @@
     </row>
     <row r="4798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4798" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4798" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4798" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4798" s="5">
         <v>11447</v>
@@ -64234,10 +64231,10 @@
     </row>
     <row r="4799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4799" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4799" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4799" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4799" s="5">
         <v>11441</v>
@@ -64245,10 +64242,10 @@
     </row>
     <row r="4800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4800" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4800" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4800" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4800" s="5">
         <v>11442</v>
@@ -64256,10 +64253,10 @@
     </row>
     <row r="4801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4801" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4801" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4801" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4801" s="5">
         <v>11443</v>
@@ -64267,10 +64264,10 @@
     </row>
     <row r="4802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4802" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4802" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4802" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4802" s="5">
         <v>11445</v>
@@ -64278,10 +64275,10 @@
     </row>
     <row r="4803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4803" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4803" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4803" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4803" s="5">
         <v>11625</v>
@@ -64289,10 +64286,10 @@
     </row>
     <row r="4804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4804" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4804" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4804" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4804" s="5">
         <v>11740</v>
@@ -64300,10 +64297,10 @@
     </row>
     <row r="4805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4805" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4805" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4805" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4805" s="5">
         <v>11626</v>
@@ -64311,10 +64308,10 @@
     </row>
     <row r="4806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4806" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4806" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4806" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4806" s="5">
         <v>11741</v>
@@ -64322,10 +64319,10 @@
     </row>
     <row r="4807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4807" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4807" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4807" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4807" s="5">
         <v>11627</v>
@@ -64333,10 +64330,10 @@
     </row>
     <row r="4808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4808" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4808" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4808" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4808" s="5">
         <v>11742</v>
@@ -64344,10 +64341,10 @@
     </row>
     <row r="4809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4809" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4809" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4809" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4809" s="5">
         <v>11564</v>
@@ -64358,10 +64355,10 @@
     </row>
     <row r="4810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4810" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4810" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4810" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4810" s="5">
         <v>11446</v>
@@ -64372,10 +64369,10 @@
     </row>
     <row r="4811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4811" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4811" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4811" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4811" s="5">
         <v>11565</v>
@@ -64386,10 +64383,10 @@
     </row>
     <row r="4812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4812" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4812" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4812" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4812" s="5">
         <v>11566</v>
@@ -64400,10 +64397,10 @@
     </row>
     <row r="4813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4813" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4813" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4813" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4813" s="5">
         <v>11568</v>
@@ -64414,10 +64411,10 @@
     </row>
     <row r="4814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4814" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4814" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4814" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4814" s="5">
         <v>11569</v>
@@ -64428,10 +64425,10 @@
     </row>
     <row r="4815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4815" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4815" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4815" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4815" s="5">
         <v>118211</v>
@@ -64439,10 +64436,10 @@
     </row>
     <row r="4816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4816" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4816" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4816" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4816" s="5">
         <v>118212</v>
@@ -64450,10 +64447,10 @@
     </row>
     <row r="4817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4817" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4817" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4817" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4817" s="5">
         <v>118213</v>
@@ -64461,10 +64458,10 @@
     </row>
     <row r="4818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4818" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4818" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4818" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4818" s="5">
         <v>118214</v>
@@ -64472,10 +64469,10 @@
     </row>
     <row r="4819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4819" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4819" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4819" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4819" s="5">
         <v>118215</v>
@@ -64483,10 +64480,10 @@
     </row>
     <row r="4820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4820" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4820" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4820" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4820" s="5">
         <v>118216</v>
@@ -64494,10 +64491,10 @@
     </row>
     <row r="4821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4821" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4821" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4821" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4821" s="5">
         <v>118217</v>
@@ -64505,10 +64502,10 @@
     </row>
     <row r="4822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4822" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4822" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4822" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4822" s="5">
         <v>118218</v>
@@ -64516,10 +64513,10 @@
     </row>
     <row r="4823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4823" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4823" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4823" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4823" s="5">
         <v>118219</v>
@@ -64527,10 +64524,10 @@
     </row>
     <row r="4824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4824" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4824" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4824" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4824" s="5">
         <v>118220</v>
@@ -64538,10 +64535,10 @@
     </row>
     <row r="4825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4825" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4825" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4825" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4825" s="5">
         <v>118221</v>
@@ -64549,10 +64546,10 @@
     </row>
     <row r="4826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4826" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4826" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4826" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4826" s="5">
         <v>118222</v>
@@ -64560,10 +64557,10 @@
     </row>
     <row r="4827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4827" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4827" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4827" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4827" s="5">
         <v>118223</v>
@@ -64571,10 +64568,10 @@
     </row>
     <row r="4828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4828" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4828" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4828" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4828" s="5">
         <v>11821</v>
@@ -64582,10 +64579,10 @@
     </row>
     <row r="4829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4829" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4829" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4829" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4829" s="5">
         <v>11822</v>
@@ -64593,10 +64590,10 @@
     </row>
     <row r="4830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4830" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4830" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4830" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4830" s="5">
         <v>11829</v>
@@ -64604,10 +64601,10 @@
     </row>
     <row r="4831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4831" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4831" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4831" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4831" s="5">
         <v>11830</v>
@@ -64615,10 +64612,10 @@
     </row>
     <row r="4832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4832" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4832" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4832" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4832" s="5">
         <v>11388</v>
@@ -64626,10 +64623,10 @@
     </row>
     <row r="4833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4833" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4833" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4833" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4833" s="5">
         <v>11389</v>
@@ -64637,10 +64634,10 @@
     </row>
     <row r="4834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4834" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4834" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4834" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4834" s="5">
         <v>11390</v>
@@ -64648,10 +64645,10 @@
     </row>
     <row r="4835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4835" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4835" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4835" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4835" s="5">
         <v>11538</v>
@@ -64659,10 +64656,10 @@
     </row>
     <row r="4836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4836" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4836" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4836" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4836" s="5">
         <v>11391</v>
@@ -64670,10 +64667,10 @@
     </row>
     <row r="4837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4837" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4837" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4837" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4837" s="5">
         <v>11583</v>
@@ -64681,10 +64678,10 @@
     </row>
     <row r="4838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4838" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4838" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4838" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4838" s="5">
         <v>11584</v>
@@ -64692,10 +64689,10 @@
     </row>
     <row r="4839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4839" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4839" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4839" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4839" s="5">
         <v>11585</v>
@@ -64703,10 +64700,10 @@
     </row>
     <row r="4840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4840" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4840" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4840" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4840" s="5">
         <v>11392</v>
@@ -64714,10 +64711,10 @@
     </row>
     <row r="4841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4841" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4841" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4841" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4841" s="5">
         <v>11394</v>
@@ -64725,10 +64722,10 @@
     </row>
     <row r="4842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4842" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4842" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4842" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4842" s="5">
         <v>11395</v>
@@ -64736,10 +64733,10 @@
     </row>
     <row r="4843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4843" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4843" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4843" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4843" s="5">
         <v>11385</v>
@@ -64747,10 +64744,10 @@
     </row>
     <row r="4844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4844" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4844" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4844" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4844" s="5">
         <v>11386</v>
@@ -64758,10 +64755,10 @@
     </row>
     <row r="4845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4845" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4845" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4845" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4845" s="5">
         <v>11413</v>
@@ -64769,10 +64766,10 @@
     </row>
     <row r="4846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4846" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4846" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4846" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4846" s="5">
         <v>11387</v>
@@ -64780,10 +64777,10 @@
     </row>
     <row r="4847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4847" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4847" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4847" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4847" s="5">
         <v>11570</v>
@@ -64791,10 +64788,10 @@
     </row>
     <row r="4848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4848" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4848" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4848" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4848" s="5">
         <v>11416</v>
@@ -64802,10 +64799,10 @@
     </row>
     <row r="4849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4849" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4849" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4849" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4849" s="5">
         <v>11528</v>
@@ -64813,10 +64810,10 @@
     </row>
     <row r="4850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4850" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4850" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4850" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4850" s="5">
         <v>11378</v>
@@ -64824,10 +64821,10 @@
     </row>
     <row r="4851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4851" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4851" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4851" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4851" s="5">
         <v>11556</v>
@@ -64835,10 +64832,10 @@
     </row>
     <row r="4852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4852" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4852" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4852" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4852" s="5">
         <v>11557</v>
@@ -64846,10 +64843,10 @@
     </row>
     <row r="4853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4853" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4853" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4853" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4853" s="5">
         <v>11545</v>
@@ -64857,10 +64854,10 @@
     </row>
     <row r="4854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4854" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4854" s="55" t="s">
         <v>459</v>
-      </c>
-      <c r="B4854" s="55" t="s">
-        <v>460</v>
       </c>
       <c r="C4854" s="5">
         <v>11546</v>

--- a/data/common/excel/public_category_sku_Q1_2024.xlsx
+++ b/data/common/excel/public_category_sku_Q1_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9717" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9699" uniqueCount="138">
   <si>
     <t xml:space="preserve">CATEGORY ES</t>
   </si>
@@ -1262,10 +1262,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5566"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4829" activeCellId="0" sqref="D:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4775" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4790" activeCellId="0" sqref="A4790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18269,7 +18269,7 @@
         <v>48</v>
       </c>
       <c r="C1545" s="7" t="n">
-        <v>21686</v>
+        <v>211686</v>
       </c>
     </row>
     <row r="1546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52358,7 +52358,7 @@
         <v>118</v>
       </c>
       <c r="C4644" s="44" t="n">
-        <v>2998</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="4645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52369,7 +52369,7 @@
         <v>118</v>
       </c>
       <c r="C4645" s="44" t="n">
-        <v>2754</v>
+        <v>212754</v>
       </c>
     </row>
     <row r="4646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52380,7 +52380,7 @@
         <v>118</v>
       </c>
       <c r="C4646" s="44" t="n">
-        <v>212754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="4647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52391,7 +52391,7 @@
         <v>118</v>
       </c>
       <c r="C4647" s="44" t="n">
-        <v>2755</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="4648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52402,7 +52402,7 @@
         <v>118</v>
       </c>
       <c r="C4648" s="44" t="n">
-        <v>2756</v>
+        <v>212756</v>
       </c>
     </row>
     <row r="4649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52413,7 +52413,7 @@
         <v>118</v>
       </c>
       <c r="C4649" s="44" t="n">
-        <v>212756</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="4650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52424,7 +52424,7 @@
         <v>118</v>
       </c>
       <c r="C4650" s="44" t="n">
-        <v>2791</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="4651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52435,7 +52435,7 @@
         <v>118</v>
       </c>
       <c r="C4651" s="44" t="n">
-        <v>2998</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="4652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52446,7 +52446,7 @@
         <v>118</v>
       </c>
       <c r="C4652" s="44" t="n">
-        <v>2751</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="4653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52457,7 +52457,7 @@
         <v>118</v>
       </c>
       <c r="C4653" s="44" t="n">
-        <v>2752</v>
+        <v>212752</v>
       </c>
     </row>
     <row r="4654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52468,7 +52468,7 @@
         <v>118</v>
       </c>
       <c r="C4654" s="44" t="n">
-        <v>212752</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="4655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52479,7 +52479,7 @@
         <v>118</v>
       </c>
       <c r="C4655" s="44" t="n">
-        <v>2999</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="4656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52490,18 +52490,18 @@
         <v>118</v>
       </c>
       <c r="C4656" s="44" t="n">
-        <v>2753</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="4657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4657" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4657" s="36" t="s">
-        <v>118</v>
+      <c r="A4657" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4657" s="51" t="s">
+        <v>120</v>
       </c>
       <c r="C4657" s="44" t="n">
-        <v>3001</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="4658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52512,7 +52512,7 @@
         <v>120</v>
       </c>
       <c r="C4658" s="44" t="n">
-        <v>2750</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52523,18 +52523,18 @@
         <v>120</v>
       </c>
       <c r="C4659" s="44" t="n">
-        <v>3000</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="4660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4660" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4660" s="51" t="s">
-        <v>120</v>
+      <c r="A4660" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4660" s="52" t="s">
+        <v>122</v>
       </c>
       <c r="C4660" s="44" t="n">
-        <v>2757</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="4661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52545,7 +52545,7 @@
         <v>122</v>
       </c>
       <c r="C4661" s="44" t="n">
-        <v>7694</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="4662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52556,7 +52556,7 @@
         <v>122</v>
       </c>
       <c r="C4662" s="44" t="n">
-        <v>7695</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="4663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52567,29 +52567,29 @@
         <v>122</v>
       </c>
       <c r="C4663" s="44" t="n">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="4664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4664" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4664" s="52" t="s">
-        <v>122</v>
+      <c r="A4664" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4664" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="C4664" s="44" t="n">
-        <v>1498</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="4665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4665" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4665" s="53" t="s">
-        <v>124</v>
+      <c r="A4665" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4665" s="54" t="s">
+        <v>126</v>
       </c>
       <c r="C4665" s="44" t="n">
-        <v>8080</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="4666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52600,7 +52600,7 @@
         <v>126</v>
       </c>
       <c r="C4666" s="44" t="n">
-        <v>3005</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="4667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52611,7 +52611,7 @@
         <v>126</v>
       </c>
       <c r="C4667" s="44" t="n">
-        <v>2699</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="4668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52622,18 +52622,18 @@
         <v>126</v>
       </c>
       <c r="C4668" s="44" t="n">
-        <v>2910</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="4669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4669" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4669" s="54" t="s">
-        <v>126</v>
+      <c r="A4669" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4669" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="C4669" s="44" t="n">
-        <v>2628</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="4670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52644,7 +52644,7 @@
         <v>128</v>
       </c>
       <c r="C4670" s="44" t="n">
-        <v>3006</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="4671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52655,7 +52655,7 @@
         <v>128</v>
       </c>
       <c r="C4671" s="44" t="n">
-        <v>3025</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="4672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52666,7 +52666,7 @@
         <v>128</v>
       </c>
       <c r="C4672" s="44" t="n">
-        <v>3026</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="4673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52677,18 +52677,18 @@
         <v>128</v>
       </c>
       <c r="C4673" s="44" t="n">
-        <v>3027</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="4674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4674" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4674" s="45" t="s">
-        <v>128</v>
+      <c r="A4674" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4674" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C4674" s="44" t="n">
-        <v>3010</v>
+        <v>405851</v>
       </c>
     </row>
     <row r="4675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52699,7 +52699,7 @@
         <v>130</v>
       </c>
       <c r="C4675" s="44" t="n">
-        <v>405851</v>
+        <v>405861</v>
       </c>
     </row>
     <row r="4676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52710,18 +52710,18 @@
         <v>130</v>
       </c>
       <c r="C4676" s="44" t="n">
-        <v>405861</v>
+        <v>405871</v>
       </c>
     </row>
     <row r="4677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4677" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4677" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4677" s="44" t="n">
-        <v>405871</v>
+      <c r="A4677" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4677" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4677" s="7" t="n">
+        <v>10275</v>
       </c>
     </row>
     <row r="4678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52732,7 +52732,7 @@
         <v>132</v>
       </c>
       <c r="C4678" s="7" t="n">
-        <v>10275</v>
+        <v>10276</v>
       </c>
     </row>
     <row r="4679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52743,7 +52743,7 @@
         <v>132</v>
       </c>
       <c r="C4679" s="7" t="n">
-        <v>10276</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="4680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52754,7 +52754,7 @@
         <v>132</v>
       </c>
       <c r="C4680" s="7" t="n">
-        <v>6882</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="4681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52765,7 +52765,7 @@
         <v>132</v>
       </c>
       <c r="C4681" s="7" t="n">
-        <v>6883</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="4682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52776,7 +52776,7 @@
         <v>132</v>
       </c>
       <c r="C4682" s="7" t="n">
-        <v>6884</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="4683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52787,7 +52787,7 @@
         <v>132</v>
       </c>
       <c r="C4683" s="7" t="n">
-        <v>6885</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="4684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52798,7 +52798,7 @@
         <v>132</v>
       </c>
       <c r="C4684" s="7" t="n">
-        <v>6888</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="4685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52809,7 +52809,7 @@
         <v>132</v>
       </c>
       <c r="C4685" s="7" t="n">
-        <v>6886</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="4686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52820,18 +52820,18 @@
         <v>132</v>
       </c>
       <c r="C4686" s="7" t="n">
-        <v>6887</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="4687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4687" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4687" s="55" t="s">
-        <v>132</v>
+      <c r="A4687" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4687" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C4687" s="7" t="n">
-        <v>6889</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="4688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52842,7 +52842,7 @@
         <v>134</v>
       </c>
       <c r="C4688" s="7" t="n">
-        <v>6890</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="4689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52853,7 +52853,7 @@
         <v>134</v>
       </c>
       <c r="C4689" s="7" t="n">
-        <v>6891</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="4690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52864,7 +52864,7 @@
         <v>134</v>
       </c>
       <c r="C4690" s="7" t="n">
-        <v>6892</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="4691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52875,7 +52875,7 @@
         <v>134</v>
       </c>
       <c r="C4691" s="7" t="n">
-        <v>6893</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="4692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52886,7 +52886,7 @@
         <v>134</v>
       </c>
       <c r="C4692" s="7" t="n">
-        <v>6894</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="4693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52897,7 +52897,7 @@
         <v>134</v>
       </c>
       <c r="C4693" s="7" t="n">
-        <v>6896</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="4694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52908,7 +52908,7 @@
         <v>134</v>
       </c>
       <c r="C4694" s="7" t="n">
-        <v>6897</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="4695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52919,7 +52919,7 @@
         <v>134</v>
       </c>
       <c r="C4695" s="7" t="n">
-        <v>6898</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="4696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52930,7 +52930,7 @@
         <v>134</v>
       </c>
       <c r="C4696" s="7" t="n">
-        <v>6899</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="4697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52941,7 +52941,7 @@
         <v>134</v>
       </c>
       <c r="C4697" s="7" t="n">
-        <v>6900</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="4698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52952,7 +52952,7 @@
         <v>134</v>
       </c>
       <c r="C4698" s="7" t="n">
-        <v>6901</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="4699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52963,18 +52963,18 @@
         <v>134</v>
       </c>
       <c r="C4699" s="7" t="n">
-        <v>6902</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="4700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4700" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4700" s="9" t="s">
-        <v>134</v>
+      <c r="A4700" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4700" s="56" t="s">
+        <v>135</v>
       </c>
       <c r="C4700" s="7" t="n">
-        <v>6895</v>
+        <v>8651</v>
       </c>
     </row>
     <row r="4701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52985,7 +52985,7 @@
         <v>135</v>
       </c>
       <c r="C4701" s="7" t="n">
-        <v>8651</v>
+        <v>11412</v>
       </c>
     </row>
     <row r="4702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52996,7 +52996,7 @@
         <v>135</v>
       </c>
       <c r="C4702" s="7" t="n">
-        <v>11412</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="4703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53007,7 +53007,7 @@
         <v>135</v>
       </c>
       <c r="C4703" s="7" t="n">
-        <v>6781</v>
+        <v>6782</v>
       </c>
     </row>
     <row r="4704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53018,7 +53018,7 @@
         <v>135</v>
       </c>
       <c r="C4704" s="7" t="n">
-        <v>6782</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="4705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53029,7 +53029,7 @@
         <v>135</v>
       </c>
       <c r="C4705" s="7" t="n">
-        <v>7696</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="4706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53040,7 +53040,7 @@
         <v>135</v>
       </c>
       <c r="C4706" s="7" t="n">
-        <v>7698</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="4707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53051,7 +53051,7 @@
         <v>135</v>
       </c>
       <c r="C4707" s="7" t="n">
-        <v>7697</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="4708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53062,7 +53062,7 @@
         <v>135</v>
       </c>
       <c r="C4708" s="7" t="n">
-        <v>8415</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="4709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53073,7 +53073,7 @@
         <v>135</v>
       </c>
       <c r="C4709" s="7" t="n">
-        <v>8427</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="4710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53084,7 +53084,7 @@
         <v>135</v>
       </c>
       <c r="C4710" s="7" t="n">
-        <v>8416</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="4711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53095,7 +53095,7 @@
         <v>135</v>
       </c>
       <c r="C4711" s="7" t="n">
-        <v>8428</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="4712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53106,7 +53106,7 @@
         <v>135</v>
       </c>
       <c r="C4712" s="7" t="n">
-        <v>8421</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="4713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53117,7 +53117,7 @@
         <v>135</v>
       </c>
       <c r="C4713" s="7" t="n">
-        <v>8797</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="4714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53128,7 +53128,7 @@
         <v>135</v>
       </c>
       <c r="C4714" s="7" t="n">
-        <v>8798</v>
+        <v>8446</v>
       </c>
     </row>
     <row r="4715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53139,7 +53139,7 @@
         <v>135</v>
       </c>
       <c r="C4715" s="7" t="n">
-        <v>8446</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="4716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53150,7 +53150,7 @@
         <v>135</v>
       </c>
       <c r="C4716" s="7" t="n">
-        <v>8467</v>
+        <v>8469</v>
       </c>
     </row>
     <row r="4717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53161,7 +53161,7 @@
         <v>135</v>
       </c>
       <c r="C4717" s="7" t="n">
-        <v>8469</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="4718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53172,7 +53172,7 @@
         <v>135</v>
       </c>
       <c r="C4718" s="7" t="n">
-        <v>8468</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="4719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53183,7 +53183,7 @@
         <v>135</v>
       </c>
       <c r="C4719" s="7" t="n">
-        <v>7908</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="4720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53194,7 +53194,7 @@
         <v>135</v>
       </c>
       <c r="C4720" s="7" t="n">
-        <v>7927</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="4721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53205,7 +53205,7 @@
         <v>135</v>
       </c>
       <c r="C4721" s="7" t="n">
-        <v>7928</v>
+        <v>8466</v>
       </c>
     </row>
     <row r="4722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53216,7 +53216,7 @@
         <v>135</v>
       </c>
       <c r="C4722" s="7" t="n">
-        <v>8466</v>
+        <v>7751</v>
       </c>
     </row>
     <row r="4723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53227,7 +53227,7 @@
         <v>135</v>
       </c>
       <c r="C4723" s="7" t="n">
-        <v>7751</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="4724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53238,7 +53238,7 @@
         <v>135</v>
       </c>
       <c r="C4724" s="7" t="n">
-        <v>7752</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="4725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53249,18 +53249,18 @@
         <v>135</v>
       </c>
       <c r="C4725" s="7" t="n">
-        <v>7749</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="4726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4726" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4726" s="56" t="s">
-        <v>135</v>
+      <c r="A4726" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4726" s="57" t="s">
+        <v>137</v>
       </c>
       <c r="C4726" s="7" t="n">
-        <v>7750</v>
+        <v>11517</v>
       </c>
     </row>
     <row r="4727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53271,7 +53271,7 @@
         <v>137</v>
       </c>
       <c r="C4727" s="7" t="n">
-        <v>11517</v>
+        <v>11518</v>
       </c>
     </row>
     <row r="4728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53282,7 +53282,7 @@
         <v>137</v>
       </c>
       <c r="C4728" s="7" t="n">
-        <v>11518</v>
+        <v>11519</v>
       </c>
     </row>
     <row r="4729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53293,7 +53293,7 @@
         <v>137</v>
       </c>
       <c r="C4729" s="7" t="n">
-        <v>11519</v>
+        <v>11561</v>
       </c>
     </row>
     <row r="4730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53304,7 +53304,7 @@
         <v>137</v>
       </c>
       <c r="C4730" s="7" t="n">
-        <v>11561</v>
+        <v>11809</v>
       </c>
     </row>
     <row r="4731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53315,7 +53315,7 @@
         <v>137</v>
       </c>
       <c r="C4731" s="7" t="n">
-        <v>11809</v>
+        <v>11633</v>
       </c>
     </row>
     <row r="4732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53326,7 +53326,7 @@
         <v>137</v>
       </c>
       <c r="C4732" s="7" t="n">
-        <v>11633</v>
+        <v>11353</v>
       </c>
     </row>
     <row r="4733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53337,7 +53337,7 @@
         <v>137</v>
       </c>
       <c r="C4733" s="7" t="n">
-        <v>11353</v>
+        <v>11817</v>
       </c>
     </row>
     <row r="4734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53348,7 +53348,7 @@
         <v>137</v>
       </c>
       <c r="C4734" s="7" t="n">
-        <v>11817</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="4735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53359,7 +53359,7 @@
         <v>137</v>
       </c>
       <c r="C4735" s="7" t="n">
-        <v>11354</v>
+        <v>11544</v>
       </c>
     </row>
     <row r="4736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53370,7 +53370,7 @@
         <v>137</v>
       </c>
       <c r="C4736" s="7" t="n">
-        <v>11544</v>
+        <v>11562</v>
       </c>
     </row>
     <row r="4737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53381,7 +53381,7 @@
         <v>137</v>
       </c>
       <c r="C4737" s="7" t="n">
-        <v>11562</v>
+        <v>11549</v>
       </c>
     </row>
     <row r="4738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53392,7 +53392,7 @@
         <v>137</v>
       </c>
       <c r="C4738" s="7" t="n">
-        <v>11549</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="4739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53403,7 +53403,7 @@
         <v>137</v>
       </c>
       <c r="C4739" s="7" t="n">
-        <v>11550</v>
+        <v>11553</v>
       </c>
     </row>
     <row r="4740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53414,7 +53414,7 @@
         <v>137</v>
       </c>
       <c r="C4740" s="7" t="n">
-        <v>11553</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="4741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53425,7 +53425,7 @@
         <v>137</v>
       </c>
       <c r="C4741" s="7" t="n">
-        <v>11563</v>
+        <v>11551</v>
       </c>
     </row>
     <row r="4742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53436,7 +53436,7 @@
         <v>137</v>
       </c>
       <c r="C4742" s="7" t="n">
-        <v>11551</v>
+        <v>11552</v>
       </c>
     </row>
     <row r="4743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53447,7 +53447,7 @@
         <v>137</v>
       </c>
       <c r="C4743" s="7" t="n">
-        <v>11552</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="4744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53458,7 +53458,7 @@
         <v>137</v>
       </c>
       <c r="C4744" s="7" t="n">
-        <v>11554</v>
+        <v>11369</v>
       </c>
     </row>
     <row r="4745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53469,7 +53469,7 @@
         <v>137</v>
       </c>
       <c r="C4745" s="7" t="n">
-        <v>11369</v>
+        <v>11379</v>
       </c>
     </row>
     <row r="4746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53480,7 +53480,7 @@
         <v>137</v>
       </c>
       <c r="C4746" s="7" t="n">
-        <v>11370</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="4747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53491,7 +53491,7 @@
         <v>137</v>
       </c>
       <c r="C4747" s="7" t="n">
-        <v>11379</v>
+        <v>11726</v>
       </c>
     </row>
     <row r="4748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53502,7 +53502,7 @@
         <v>137</v>
       </c>
       <c r="C4748" s="7" t="n">
-        <v>11380</v>
+        <v>11820</v>
       </c>
     </row>
     <row r="4749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53513,7 +53513,7 @@
         <v>137</v>
       </c>
       <c r="C4749" s="7" t="n">
-        <v>11726</v>
+        <v>11371</v>
       </c>
     </row>
     <row r="4750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53524,7 +53524,7 @@
         <v>137</v>
       </c>
       <c r="C4750" s="7" t="n">
-        <v>11820</v>
+        <v>11372</v>
       </c>
     </row>
     <row r="4751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53535,7 +53535,7 @@
         <v>137</v>
       </c>
       <c r="C4751" s="7" t="n">
-        <v>11371</v>
+        <v>11373</v>
       </c>
     </row>
     <row r="4752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53546,7 +53546,7 @@
         <v>137</v>
       </c>
       <c r="C4752" s="7" t="n">
-        <v>11372</v>
+        <v>11381</v>
       </c>
     </row>
     <row r="4753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53557,7 +53557,7 @@
         <v>137</v>
       </c>
       <c r="C4753" s="7" t="n">
-        <v>11373</v>
+        <v>11382</v>
       </c>
     </row>
     <row r="4754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53568,7 +53568,7 @@
         <v>137</v>
       </c>
       <c r="C4754" s="7" t="n">
-        <v>11381</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="4755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53579,7 +53579,7 @@
         <v>137</v>
       </c>
       <c r="C4755" s="7" t="n">
-        <v>11382</v>
+        <v>11630</v>
       </c>
     </row>
     <row r="4756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53590,7 +53590,7 @@
         <v>137</v>
       </c>
       <c r="C4756" s="7" t="n">
-        <v>11383</v>
+        <v>11507</v>
       </c>
     </row>
     <row r="4757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53601,7 +53601,7 @@
         <v>137</v>
       </c>
       <c r="C4757" s="7" t="n">
-        <v>11630</v>
+        <v>11812</v>
       </c>
     </row>
     <row r="4758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53612,7 +53612,7 @@
         <v>137</v>
       </c>
       <c r="C4758" s="7" t="n">
-        <v>11507</v>
+        <v>11521</v>
       </c>
     </row>
     <row r="4759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53623,7 +53623,7 @@
         <v>137</v>
       </c>
       <c r="C4759" s="7" t="n">
-        <v>11812</v>
+        <v>11631</v>
       </c>
     </row>
     <row r="4760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53634,7 +53634,7 @@
         <v>137</v>
       </c>
       <c r="C4760" s="7" t="n">
-        <v>11521</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="4761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53645,7 +53645,7 @@
         <v>137</v>
       </c>
       <c r="C4761" s="7" t="n">
-        <v>11631</v>
+        <v>11576</v>
       </c>
     </row>
     <row r="4762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53656,7 +53656,7 @@
         <v>137</v>
       </c>
       <c r="C4762" s="7" t="n">
-        <v>11520</v>
+        <v>11725</v>
       </c>
     </row>
     <row r="4763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53667,7 +53667,7 @@
         <v>137</v>
       </c>
       <c r="C4763" s="7" t="n">
-        <v>11576</v>
+        <v>11376</v>
       </c>
     </row>
     <row r="4764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53678,7 +53678,7 @@
         <v>137</v>
       </c>
       <c r="C4764" s="7" t="n">
-        <v>11725</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="4765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53689,7 +53689,7 @@
         <v>137</v>
       </c>
       <c r="C4765" s="7" t="n">
-        <v>11547</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="4766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53700,7 +53700,7 @@
         <v>137</v>
       </c>
       <c r="C4766" s="7" t="n">
-        <v>11376</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="4767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53711,7 +53711,7 @@
         <v>137</v>
       </c>
       <c r="C4767" s="7" t="n">
-        <v>11509</v>
+        <v>11803</v>
       </c>
     </row>
     <row r="4768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53722,7 +53722,7 @@
         <v>137</v>
       </c>
       <c r="C4768" s="7" t="n">
-        <v>11514</v>
+        <v>11743</v>
       </c>
     </row>
     <row r="4769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53733,7 +53733,7 @@
         <v>137</v>
       </c>
       <c r="C4769" s="7" t="n">
-        <v>11537</v>
+        <v>11788</v>
       </c>
     </row>
     <row r="4770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53744,7 +53744,7 @@
         <v>137</v>
       </c>
       <c r="C4770" s="7" t="n">
-        <v>11803</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="4771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53755,7 +53755,7 @@
         <v>137</v>
       </c>
       <c r="C4771" s="7" t="n">
-        <v>11743</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="4772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53766,7 +53766,7 @@
         <v>137</v>
       </c>
       <c r="C4772" s="7" t="n">
-        <v>11788</v>
+        <v>11724</v>
       </c>
     </row>
     <row r="4773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53777,7 +53777,7 @@
         <v>137</v>
       </c>
       <c r="C4773" s="7" t="n">
-        <v>11542</v>
+        <v>11614</v>
       </c>
     </row>
     <row r="4774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53788,7 +53788,7 @@
         <v>137</v>
       </c>
       <c r="C4774" s="7" t="n">
-        <v>11543</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="4775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53799,7 +53799,7 @@
         <v>137</v>
       </c>
       <c r="C4775" s="7" t="n">
-        <v>11724</v>
+        <v>11523</v>
       </c>
     </row>
     <row r="4776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53810,7 +53810,7 @@
         <v>137</v>
       </c>
       <c r="C4776" s="7" t="n">
-        <v>11614</v>
+        <v>11526</v>
       </c>
     </row>
     <row r="4777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53821,7 +53821,7 @@
         <v>137</v>
       </c>
       <c r="C4777" s="7" t="n">
-        <v>11377</v>
+        <v>11447</v>
       </c>
     </row>
     <row r="4778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53832,7 +53832,7 @@
         <v>137</v>
       </c>
       <c r="C4778" s="7" t="n">
-        <v>11523</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="4779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53843,7 +53843,7 @@
         <v>137</v>
       </c>
       <c r="C4779" s="7" t="n">
-        <v>11526</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="4780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53854,7 +53854,7 @@
         <v>137</v>
       </c>
       <c r="C4780" s="7" t="n">
-        <v>11448</v>
+        <v>11524</v>
       </c>
     </row>
     <row r="4781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53865,7 +53865,7 @@
         <v>137</v>
       </c>
       <c r="C4781" s="7" t="n">
-        <v>11447</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="4782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53876,7 +53876,7 @@
         <v>137</v>
       </c>
       <c r="C4782" s="7" t="n">
-        <v>11548</v>
+        <v>11539</v>
       </c>
     </row>
     <row r="4783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53887,7 +53887,7 @@
         <v>137</v>
       </c>
       <c r="C4783" s="7" t="n">
-        <v>11527</v>
+        <v>11813</v>
       </c>
     </row>
     <row r="4784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53898,7 +53898,7 @@
         <v>137</v>
       </c>
       <c r="C4784" s="7" t="n">
-        <v>11524</v>
+        <v>11814</v>
       </c>
     </row>
     <row r="4785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53909,7 +53909,7 @@
         <v>137</v>
       </c>
       <c r="C4785" s="7" t="n">
-        <v>11525</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="4786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53920,7 +53920,7 @@
         <v>137</v>
       </c>
       <c r="C4786" s="7" t="n">
-        <v>11539</v>
+        <v>11816</v>
       </c>
     </row>
     <row r="4787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53931,7 +53931,7 @@
         <v>137</v>
       </c>
       <c r="C4787" s="7" t="n">
-        <v>11813</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="4788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53942,7 +53942,7 @@
         <v>137</v>
       </c>
       <c r="C4788" s="7" t="n">
-        <v>11814</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="4789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53953,7 +53953,7 @@
         <v>137</v>
       </c>
       <c r="C4789" s="7" t="n">
-        <v>11815</v>
+        <v>11448</v>
       </c>
     </row>
     <row r="4790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53964,7 +53964,7 @@
         <v>137</v>
       </c>
       <c r="C4790" s="7" t="n">
-        <v>11816</v>
+        <v>11441</v>
       </c>
     </row>
     <row r="4791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53975,7 +53975,7 @@
         <v>137</v>
       </c>
       <c r="C4791" s="7" t="n">
-        <v>11549</v>
+        <v>11442</v>
       </c>
     </row>
     <row r="4792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53986,7 +53986,7 @@
         <v>137</v>
       </c>
       <c r="C4792" s="7" t="n">
-        <v>11370</v>
+        <v>11443</v>
       </c>
     </row>
     <row r="4793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53997,7 +53997,7 @@
         <v>137</v>
       </c>
       <c r="C4793" s="7" t="n">
-        <v>11549</v>
+        <v>11445</v>
       </c>
     </row>
     <row r="4794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54008,7 +54008,7 @@
         <v>137</v>
       </c>
       <c r="C4794" s="7" t="n">
-        <v>11547</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="4795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54019,7 +54019,7 @@
         <v>137</v>
       </c>
       <c r="C4795" s="7" t="n">
-        <v>11448</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="4796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54030,7 +54030,7 @@
         <v>137</v>
       </c>
       <c r="C4796" s="7" t="n">
-        <v>11549</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="4797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54041,7 +54041,7 @@
         <v>137</v>
       </c>
       <c r="C4797" s="7" t="n">
-        <v>11542</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="4798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54052,7 +54052,7 @@
         <v>137</v>
       </c>
       <c r="C4798" s="7" t="n">
-        <v>11447</v>
+        <v>11627</v>
       </c>
     </row>
     <row r="4799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54063,7 +54063,7 @@
         <v>137</v>
       </c>
       <c r="C4799" s="7" t="n">
-        <v>11441</v>
+        <v>11742</v>
       </c>
     </row>
     <row r="4800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54074,7 +54074,7 @@
         <v>137</v>
       </c>
       <c r="C4800" s="7" t="n">
-        <v>11442</v>
+        <v>11564</v>
       </c>
     </row>
     <row r="4801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54085,7 +54085,7 @@
         <v>137</v>
       </c>
       <c r="C4801" s="7" t="n">
-        <v>11443</v>
+        <v>11446</v>
       </c>
     </row>
     <row r="4802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54096,7 +54096,7 @@
         <v>137</v>
       </c>
       <c r="C4802" s="7" t="n">
-        <v>11445</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="4803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54107,7 +54107,7 @@
         <v>137</v>
       </c>
       <c r="C4803" s="7" t="n">
-        <v>11625</v>
+        <v>11566</v>
       </c>
     </row>
     <row r="4804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54118,7 +54118,7 @@
         <v>137</v>
       </c>
       <c r="C4804" s="7" t="n">
-        <v>11740</v>
+        <v>11568</v>
       </c>
     </row>
     <row r="4805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54129,7 +54129,7 @@
         <v>137</v>
       </c>
       <c r="C4805" s="7" t="n">
-        <v>11626</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="4806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54140,7 +54140,7 @@
         <v>137</v>
       </c>
       <c r="C4806" s="7" t="n">
-        <v>11741</v>
+        <v>118211</v>
       </c>
     </row>
     <row r="4807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54151,7 +54151,7 @@
         <v>137</v>
       </c>
       <c r="C4807" s="7" t="n">
-        <v>11627</v>
+        <v>118212</v>
       </c>
     </row>
     <row r="4808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54162,7 +54162,7 @@
         <v>137</v>
       </c>
       <c r="C4808" s="7" t="n">
-        <v>11742</v>
+        <v>118213</v>
       </c>
     </row>
     <row r="4809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54173,7 +54173,7 @@
         <v>137</v>
       </c>
       <c r="C4809" s="7" t="n">
-        <v>11564</v>
+        <v>118214</v>
       </c>
     </row>
     <row r="4810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54184,7 +54184,7 @@
         <v>137</v>
       </c>
       <c r="C4810" s="7" t="n">
-        <v>11446</v>
+        <v>118215</v>
       </c>
     </row>
     <row r="4811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54195,7 +54195,7 @@
         <v>137</v>
       </c>
       <c r="C4811" s="7" t="n">
-        <v>11565</v>
+        <v>118216</v>
       </c>
     </row>
     <row r="4812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54206,7 +54206,7 @@
         <v>137</v>
       </c>
       <c r="C4812" s="7" t="n">
-        <v>11566</v>
+        <v>118217</v>
       </c>
     </row>
     <row r="4813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54217,7 +54217,7 @@
         <v>137</v>
       </c>
       <c r="C4813" s="7" t="n">
-        <v>11568</v>
+        <v>118218</v>
       </c>
     </row>
     <row r="4814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54228,7 +54228,7 @@
         <v>137</v>
       </c>
       <c r="C4814" s="7" t="n">
-        <v>11569</v>
+        <v>118219</v>
       </c>
     </row>
     <row r="4815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54239,7 +54239,7 @@
         <v>137</v>
       </c>
       <c r="C4815" s="7" t="n">
-        <v>118211</v>
+        <v>118220</v>
       </c>
     </row>
     <row r="4816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54250,7 +54250,7 @@
         <v>137</v>
       </c>
       <c r="C4816" s="7" t="n">
-        <v>118212</v>
+        <v>118221</v>
       </c>
     </row>
     <row r="4817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54261,7 +54261,7 @@
         <v>137</v>
       </c>
       <c r="C4817" s="7" t="n">
-        <v>118213</v>
+        <v>118222</v>
       </c>
     </row>
     <row r="4818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54272,7 +54272,7 @@
         <v>137</v>
       </c>
       <c r="C4818" s="7" t="n">
-        <v>118214</v>
+        <v>118223</v>
       </c>
     </row>
     <row r="4819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54283,7 +54283,7 @@
         <v>137</v>
       </c>
       <c r="C4819" s="7" t="n">
-        <v>118215</v>
+        <v>11821</v>
       </c>
     </row>
     <row r="4820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54294,7 +54294,7 @@
         <v>137</v>
       </c>
       <c r="C4820" s="7" t="n">
-        <v>118216</v>
+        <v>11822</v>
       </c>
     </row>
     <row r="4821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54305,7 +54305,7 @@
         <v>137</v>
       </c>
       <c r="C4821" s="7" t="n">
-        <v>118217</v>
+        <v>11829</v>
       </c>
     </row>
     <row r="4822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54316,7 +54316,7 @@
         <v>137</v>
       </c>
       <c r="C4822" s="7" t="n">
-        <v>118218</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="4823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54327,7 +54327,7 @@
         <v>137</v>
       </c>
       <c r="C4823" s="7" t="n">
-        <v>118219</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="4824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54338,7 +54338,7 @@
         <v>137</v>
       </c>
       <c r="C4824" s="7" t="n">
-        <v>118220</v>
+        <v>11389</v>
       </c>
     </row>
     <row r="4825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54349,7 +54349,7 @@
         <v>137</v>
       </c>
       <c r="C4825" s="7" t="n">
-        <v>118221</v>
+        <v>11390</v>
       </c>
     </row>
     <row r="4826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54360,7 +54360,7 @@
         <v>137</v>
       </c>
       <c r="C4826" s="7" t="n">
-        <v>118222</v>
+        <v>11538</v>
       </c>
     </row>
     <row r="4827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54371,7 +54371,7 @@
         <v>137</v>
       </c>
       <c r="C4827" s="7" t="n">
-        <v>118223</v>
+        <v>11391</v>
       </c>
     </row>
     <row r="4828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54382,7 +54382,7 @@
         <v>137</v>
       </c>
       <c r="C4828" s="7" t="n">
-        <v>11821</v>
+        <v>11583</v>
       </c>
     </row>
     <row r="4829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54393,7 +54393,7 @@
         <v>137</v>
       </c>
       <c r="C4829" s="7" t="n">
-        <v>11822</v>
+        <v>11584</v>
       </c>
     </row>
     <row r="4830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54404,7 +54404,7 @@
         <v>137</v>
       </c>
       <c r="C4830" s="7" t="n">
-        <v>11829</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="4831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54415,7 +54415,7 @@
         <v>137</v>
       </c>
       <c r="C4831" s="7" t="n">
-        <v>11830</v>
+        <v>11392</v>
       </c>
     </row>
     <row r="4832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54426,7 +54426,7 @@
         <v>137</v>
       </c>
       <c r="C4832" s="7" t="n">
-        <v>11388</v>
+        <v>11394</v>
       </c>
     </row>
     <row r="4833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54437,7 +54437,7 @@
         <v>137</v>
       </c>
       <c r="C4833" s="7" t="n">
-        <v>11389</v>
+        <v>11395</v>
       </c>
     </row>
     <row r="4834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54448,7 +54448,7 @@
         <v>137</v>
       </c>
       <c r="C4834" s="7" t="n">
-        <v>11390</v>
+        <v>11385</v>
       </c>
     </row>
     <row r="4835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54459,7 +54459,7 @@
         <v>137</v>
       </c>
       <c r="C4835" s="7" t="n">
-        <v>11538</v>
+        <v>11386</v>
       </c>
     </row>
     <row r="4836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54470,7 +54470,7 @@
         <v>137</v>
       </c>
       <c r="C4836" s="7" t="n">
-        <v>11391</v>
+        <v>11413</v>
       </c>
     </row>
     <row r="4837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54481,7 +54481,7 @@
         <v>137</v>
       </c>
       <c r="C4837" s="7" t="n">
-        <v>11583</v>
+        <v>11387</v>
       </c>
     </row>
     <row r="4838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54492,7 +54492,7 @@
         <v>137</v>
       </c>
       <c r="C4838" s="7" t="n">
-        <v>11584</v>
+        <v>11570</v>
       </c>
     </row>
     <row r="4839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54503,7 +54503,7 @@
         <v>137</v>
       </c>
       <c r="C4839" s="7" t="n">
-        <v>11585</v>
+        <v>11416</v>
       </c>
     </row>
     <row r="4840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54514,7 +54514,7 @@
         <v>137</v>
       </c>
       <c r="C4840" s="7" t="n">
-        <v>11392</v>
+        <v>11528</v>
       </c>
     </row>
     <row r="4841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54525,7 +54525,7 @@
         <v>137</v>
       </c>
       <c r="C4841" s="7" t="n">
-        <v>11394</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="4842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54536,7 +54536,7 @@
         <v>137</v>
       </c>
       <c r="C4842" s="7" t="n">
-        <v>11395</v>
+        <v>11556</v>
       </c>
     </row>
     <row r="4843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54547,7 +54547,7 @@
         <v>137</v>
       </c>
       <c r="C4843" s="7" t="n">
-        <v>11385</v>
+        <v>11557</v>
       </c>
     </row>
     <row r="4844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54558,7 +54558,7 @@
         <v>137</v>
       </c>
       <c r="C4844" s="7" t="n">
-        <v>11386</v>
+        <v>11545</v>
       </c>
     </row>
     <row r="4845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54569,107 +54569,53 @@
         <v>137</v>
       </c>
       <c r="C4845" s="7" t="n">
-        <v>11413</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="4846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4846" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4846" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4846" s="7" t="n">
-        <v>11387</v>
-      </c>
+      <c r="C4846" s="58"/>
+      <c r="D4846" s="59"/>
+      <c r="E4846" s="59"/>
     </row>
     <row r="4847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4847" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4847" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4847" s="7" t="n">
-        <v>11570</v>
-      </c>
+      <c r="C4847" s="58"/>
+      <c r="D4847" s="59"/>
+      <c r="E4847" s="59"/>
     </row>
     <row r="4848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4848" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4848" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4848" s="7" t="n">
-        <v>11416</v>
-      </c>
+      <c r="C4848" s="58"/>
+      <c r="D4848" s="59"/>
+      <c r="E4848" s="59"/>
     </row>
     <row r="4849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4849" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4849" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4849" s="7" t="n">
-        <v>11528</v>
-      </c>
+      <c r="C4849" s="58"/>
+      <c r="D4849" s="59"/>
+      <c r="E4849" s="59"/>
     </row>
     <row r="4850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4850" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4850" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4850" s="7" t="n">
-        <v>11378</v>
-      </c>
+      <c r="C4850" s="58"/>
+      <c r="D4850" s="59"/>
+      <c r="E4850" s="59"/>
     </row>
     <row r="4851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4851" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4851" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4851" s="7" t="n">
-        <v>11556</v>
-      </c>
+      <c r="C4851" s="58"/>
+      <c r="D4851" s="59"/>
+      <c r="E4851" s="59"/>
     </row>
     <row r="4852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4852" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4852" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4852" s="7" t="n">
-        <v>11557</v>
-      </c>
+      <c r="C4852" s="58"/>
+      <c r="D4852" s="59"/>
+      <c r="E4852" s="59"/>
     </row>
     <row r="4853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4853" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4853" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4853" s="7" t="n">
-        <v>11545</v>
-      </c>
+      <c r="C4853" s="58"/>
+      <c r="D4853" s="59"/>
+      <c r="E4853" s="59"/>
     </row>
     <row r="4854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4854" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4854" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4854" s="7" t="n">
-        <v>11546</v>
-      </c>
+      <c r="C4854" s="58"/>
+      <c r="D4854" s="59"/>
+      <c r="E4854" s="59"/>
     </row>
     <row r="4855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4855" s="58"/>
@@ -58186,51 +58132,11 @@
       <c r="D5557" s="59"/>
       <c r="E5557" s="59"/>
     </row>
-    <row r="5558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5558" s="58"/>
-      <c r="D5558" s="59"/>
-      <c r="E5558" s="59"/>
-    </row>
-    <row r="5559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5559" s="58"/>
-      <c r="D5559" s="59"/>
-      <c r="E5559" s="59"/>
-    </row>
-    <row r="5560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5560" s="58"/>
-      <c r="D5560" s="59"/>
-      <c r="E5560" s="59"/>
-    </row>
-    <row r="5561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5561" s="58"/>
-      <c r="D5561" s="59"/>
-      <c r="E5561" s="59"/>
-    </row>
-    <row r="5562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5562" s="58"/>
-      <c r="D5562" s="59"/>
-      <c r="E5562" s="59"/>
-    </row>
-    <row r="5563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5563" s="58"/>
-      <c r="D5563" s="59"/>
-      <c r="E5563" s="59"/>
-    </row>
-    <row r="5564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5564" s="58"/>
-      <c r="D5564" s="59"/>
-      <c r="E5564" s="59"/>
-    </row>
-    <row r="5565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5565" s="58"/>
-      <c r="D5565" s="59"/>
-      <c r="E5565" s="59"/>
-    </row>
-    <row r="5566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5566" s="58"/>
-      <c r="D5566" s="59"/>
-      <c r="E5566" s="59"/>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
